--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Desktop\config-covid-moh-ke-master\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\config-covid-moh-ke-master\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1976BF44-376E-43F1-AADC-35385DA97F2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$36</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="539">
   <si>
     <t>type</t>
   </si>
@@ -1652,7 +1651,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -5513,32 +5512,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A91" sqref="A91:F91"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="73.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="14" width="29.85546875" customWidth="1"/>
-    <col min="15" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="73.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="14" width="29.88671875" customWidth="1"/>
+    <col min="15" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5585,7 +5584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -5610,7 +5609,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -5632,7 +5631,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -5654,7 +5653,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -5698,7 +5697,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -5716,7 +5715,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5734,7 +5733,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -5758,7 +5757,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -5780,7 +5779,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -5802,7 +5801,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -5824,7 +5823,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -5850,7 +5849,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -5874,7 +5873,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -5902,7 +5901,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -5926,7 +5925,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
@@ -5944,7 +5943,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5957,7 +5956,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -5981,7 +5980,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -6002,7 +6001,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>231</v>
       </c>
@@ -6030,7 +6029,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -6058,7 +6057,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -6083,7 +6082,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -6111,7 +6110,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>29</v>
       </c>
@@ -6133,7 +6132,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -6153,7 +6152,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -6181,7 +6180,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -6209,7 +6208,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -6235,7 +6234,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
@@ -6259,7 +6258,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>49</v>
       </c>
@@ -6283,7 +6282,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -6309,7 +6308,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
@@ -6335,7 +6334,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -6363,7 +6362,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -6393,7 +6392,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -6417,7 +6416,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -6441,7 +6440,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>29</v>
       </c>
@@ -6463,7 +6462,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>21</v>
       </c>
@@ -6481,7 +6480,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6497,7 +6496,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>14</v>
       </c>
@@ -6521,7 +6520,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -6545,7 +6544,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
@@ -6575,7 +6574,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
@@ -6605,7 +6604,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
@@ -6631,7 +6630,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
@@ -6659,7 +6658,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>243</v>
       </c>
@@ -6687,7 +6686,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>18</v>
       </c>
@@ -6711,7 +6710,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -6735,7 +6734,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
@@ -6759,7 +6758,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -6783,7 +6782,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>29</v>
       </c>
@@ -6805,7 +6804,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -6827,7 +6826,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
@@ -6851,7 +6850,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>101</v>
       </c>
@@ -6877,7 +6876,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>18</v>
       </c>
@@ -6901,7 +6900,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -6927,7 +6926,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -6945,7 +6944,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -6967,7 +6966,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6983,7 +6982,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -7249,7 +7248,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -7265,7 +7264,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>14</v>
       </c>
@@ -7481,7 +7480,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
@@ -7499,7 +7498,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7515,14 +7514,16 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="5" t="s">
@@ -7537,7 +7538,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>49</v>
       </c>
@@ -7561,7 +7562,7 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>49</v>
       </c>
@@ -7585,7 +7586,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>49</v>
       </c>
@@ -7609,7 +7610,7 @@
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>21</v>
       </c>
@@ -7627,7 +7628,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>21</v>
       </c>
@@ -7645,859 +7646,859 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A25:J25 A26:F29 I26:J29 J20:N21 A36:K36 A30:J35 K24:K35 D18:N18 E21 A19:N19 A37:D44 L22:N47 F37:K42 A1:N17 A84:N932 A48:D56 F48:N56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83">
+  <conditionalFormatting sqref="A25:J25 A26:F29 I26:J29 J20:N21 A36:K36 A30:J35 K24:K35 D18:N18 E21 A19:N19 A37:D44 L22:N47 F37:K42 A1:N17 A48:D56 F48:N56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
     <cfRule type="containsText" dxfId="329" priority="140" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47 K47:N47 A25:H25 A26:F29 J20:N21 F22:H24 A45:H46 C13:C14 I22:J35 A30:H36 K24:K35 L22:N35 A1:N10 A12:N12 A13:B17 A17:C17 A21:H21 A20:D20 F20:H20 A37:D40 A42:D44 I36:N46 A41:B41 D41 F37:H42 D13:N17 A84:N932 I48:N56 A48:D56 F47:H56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83">
+  <conditionalFormatting sqref="I47 K47:N47 A25:H25 A26:F29 J20:N21 F22:H24 A45:H46 C13:C14 I22:J35 A30:H36 K24:K35 L22:N35 A1:N10 A12:N12 A13:B17 A17:C17 A21:H21 A20:D20 F20:H20 A37:D40 A42:D44 I36:N46 A41:B41 D41 F37:H42 D13:N17 I48:N56 A48:D56 F47:H56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
     <cfRule type="expression" dxfId="328" priority="141">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:J25 A26:F29 I26:J29 J20:N21 A30:J36 K24:K35 L22:N35 D18:N18 E21 A19:N19 A37:D44 K36:N47 F37:J42 A1:N17 A84:N932 A48:D56 F48:N56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83">
+  <conditionalFormatting sqref="A25:J25 A26:F29 I26:J29 J20:N21 A30:J36 K24:K35 L22:N35 D18:N18 E21 A19:N19 A37:D44 K36:N47 F37:J42 A1:N17 A48:D56 F48:N56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
     <cfRule type="cellIs" dxfId="327" priority="143" operator="equal">
       <formula>"note"</formula>
     </cfRule>
@@ -8581,7 +8582,7 @@
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47 K47:N47 A25:H25 A26:F29 J20:N21 F22:H24 A45:H46 C13:C14 I22:J35 A30:H36 K24:K35 L22:N35 A1:N10 A12:N12 A13:B17 A17:C17 A21:H21 A20:D20 F20:H20 A37:D40 A42:D44 I36:N46 A41:B41 D41 F37:H42 D13:N17 A84:N932 I48:N56 A48:D56 F47:H56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83">
+  <conditionalFormatting sqref="I47 K47:N47 A25:H25 A26:F29 J20:N21 F22:H24 A45:H46 C13:C14 I22:J35 A30:H36 K24:K35 L22:N35 A1:N10 A12:N12 A13:B17 A17:C17 A21:H21 A20:D20 F20:H20 A37:D40 A42:D44 I36:N46 A41:B41 D41 F37:H42 D13:N17 I48:N56 A48:D56 F47:H56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
     <cfRule type="expression" dxfId="309" priority="162">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -10015,7 +10016,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D89">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10026,7 +10027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z265"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10034,15 +10035,15 @@
       <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="5" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="5" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>113</v>
       </c>
@@ -10080,7 +10081,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>114</v>
       </c>
@@ -10113,7 +10114,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -10146,7 +10147,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -10173,7 +10174,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>26</v>
       </c>
@@ -10206,7 +10207,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>26</v>
       </c>
@@ -10239,7 +10240,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -10266,7 +10267,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
@@ -10299,7 +10300,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
@@ -10332,7 +10333,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -10359,7 +10360,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>69</v>
       </c>
@@ -10392,7 +10393,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>69</v>
       </c>
@@ -10425,7 +10426,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>69</v>
       </c>
@@ -10458,7 +10459,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>69</v>
       </c>
@@ -10491,7 +10492,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
@@ -10524,7 +10525,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
@@ -10557,7 +10558,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -10584,7 +10585,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -10611,7 +10612,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
@@ -10644,7 +10645,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>74</v>
       </c>
@@ -10677,7 +10678,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>74</v>
       </c>
@@ -10710,7 +10711,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
@@ -10743,7 +10744,7 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -10770,7 +10771,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>144</v>
       </c>
@@ -10803,7 +10804,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>144</v>
       </c>
@@ -10836,7 +10837,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>144</v>
       </c>
@@ -10869,7 +10870,7 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>144</v>
       </c>
@@ -10902,7 +10903,7 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>144</v>
       </c>
@@ -10935,7 +10936,7 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>144</v>
       </c>
@@ -10968,7 +10969,7 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>144</v>
       </c>
@@ -11001,7 +11002,7 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>144</v>
       </c>
@@ -11034,7 +11035,7 @@
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>144</v>
       </c>
@@ -11067,7 +11068,7 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>144</v>
       </c>
@@ -11100,7 +11101,7 @@
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -11127,7 +11128,7 @@
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>154</v>
       </c>
@@ -11162,7 +11163,7 @@
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>154</v>
       </c>
@@ -11197,7 +11198,7 @@
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>154</v>
       </c>
@@ -11232,7 +11233,7 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>154</v>
       </c>
@@ -11267,7 +11268,7 @@
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>154</v>
       </c>
@@ -11302,7 +11303,7 @@
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>154</v>
       </c>
@@ -11337,7 +11338,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
@@ -11372,7 +11373,7 @@
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>154</v>
       </c>
@@ -11407,7 +11408,7 @@
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>154</v>
       </c>
@@ -11442,7 +11443,7 @@
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>154</v>
       </c>
@@ -11477,7 +11478,7 @@
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>154</v>
       </c>
@@ -11512,7 +11513,7 @@
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>154</v>
       </c>
@@ -11547,7 +11548,7 @@
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>154</v>
       </c>
@@ -11582,7 +11583,7 @@
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>154</v>
       </c>
@@ -11617,7 +11618,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>154</v>
       </c>
@@ -11652,7 +11653,7 @@
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>154</v>
       </c>
@@ -11687,7 +11688,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>154</v>
       </c>
@@ -11722,7 +11723,7 @@
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>154</v>
       </c>
@@ -11757,7 +11758,7 @@
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>154</v>
       </c>
@@ -11792,7 +11793,7 @@
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>154</v>
       </c>
@@ -11827,7 +11828,7 @@
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>154</v>
       </c>
@@ -11862,7 +11863,7 @@
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>154</v>
       </c>
@@ -11897,7 +11898,7 @@
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>154</v>
       </c>
@@ -11932,7 +11933,7 @@
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>154</v>
       </c>
@@ -11967,7 +11968,7 @@
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>154</v>
       </c>
@@ -12002,7 +12003,7 @@
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>154</v>
       </c>
@@ -12037,7 +12038,7 @@
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>154</v>
       </c>
@@ -12072,7 +12073,7 @@
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>154</v>
       </c>
@@ -12107,7 +12108,7 @@
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>154</v>
       </c>
@@ -12142,7 +12143,7 @@
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>154</v>
       </c>
@@ -12177,7 +12178,7 @@
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>154</v>
       </c>
@@ -12212,12 +12213,12 @@
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
     </row>
-    <row r="66" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>159</v>
       </c>
@@ -12250,7 +12251,7 @@
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>159</v>
       </c>
@@ -12283,7 +12284,7 @@
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>159</v>
       </c>
@@ -12316,7 +12317,7 @@
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>159</v>
       </c>
@@ -12349,7 +12350,7 @@
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -12376,7 +12377,7 @@
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>160</v>
       </c>
@@ -12409,7 +12410,7 @@
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>160</v>
       </c>
@@ -12442,7 +12443,7 @@
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>160</v>
       </c>
@@ -12475,7 +12476,7 @@
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>160</v>
       </c>
@@ -12508,7 +12509,7 @@
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>160</v>
       </c>
@@ -12541,7 +12542,7 @@
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -12568,7 +12569,7 @@
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>171</v>
       </c>
@@ -12601,7 +12602,7 @@
       <c r="Y78" s="10"/>
       <c r="Z78" s="10"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>171</v>
       </c>
@@ -12634,7 +12635,7 @@
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>171</v>
       </c>
@@ -12667,7 +12668,7 @@
       <c r="Y80" s="10"/>
       <c r="Z80" s="10"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>171</v>
       </c>
@@ -12700,7 +12701,7 @@
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>171</v>
       </c>
@@ -12733,7 +12734,7 @@
       <c r="Y82" s="10"/>
       <c r="Z82" s="10"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>171</v>
       </c>
@@ -12766,7 +12767,7 @@
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>171</v>
       </c>
@@ -12799,7 +12800,7 @@
       <c r="Y84" s="10"/>
       <c r="Z84" s="10"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>171</v>
       </c>
@@ -12832,7 +12833,7 @@
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>171</v>
       </c>
@@ -12865,7 +12866,7 @@
       <c r="Y86" s="10"/>
       <c r="Z86" s="10"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>171</v>
       </c>
@@ -12898,7 +12899,7 @@
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>171</v>
       </c>
@@ -12931,7 +12932,7 @@
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>171</v>
       </c>
@@ -12964,7 +12965,7 @@
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>171</v>
       </c>
@@ -12997,7 +12998,7 @@
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -13024,7 +13025,7 @@
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
         <v>28</v>
       </c>
@@ -13057,7 +13058,7 @@
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>28</v>
       </c>
@@ -13090,7 +13091,7 @@
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -13117,7 +13118,7 @@
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>200</v>
       </c>
@@ -13150,7 +13151,7 @@
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>200</v>
       </c>
@@ -13183,7 +13184,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>200</v>
       </c>
@@ -13216,7 +13217,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>200</v>
       </c>
@@ -13249,7 +13250,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="10"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -13276,7 +13277,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
         <v>205</v>
       </c>
@@ -13309,7 +13310,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="10"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>205</v>
       </c>
@@ -13342,7 +13343,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="10"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>205</v>
       </c>
@@ -13375,7 +13376,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="10"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -13402,7 +13403,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="10"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>27</v>
       </c>
@@ -13435,7 +13436,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="10"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>27</v>
       </c>
@@ -13468,8 +13469,8 @@
       <c r="Y105" s="10"/>
       <c r="Z105" s="10"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>234</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>234</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>234</v>
       </c>
@@ -13502,8 +13503,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>245</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>245</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>245</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>245</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -13573,7 +13574,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>245</v>
       </c>
@@ -13587,7 +13588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>245</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>245</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -13629,7 +13630,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>245</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -13671,7 +13672,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>245</v>
       </c>
@@ -13713,7 +13714,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>245</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -13741,7 +13742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>245</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>245</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -13783,7 +13784,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>245</v>
       </c>
@@ -13797,7 +13798,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>245</v>
       </c>
@@ -13811,7 +13812,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>245</v>
       </c>
@@ -13825,7 +13826,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>245</v>
       </c>
@@ -13839,7 +13840,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>245</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>245</v>
       </c>
@@ -13867,7 +13868,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>245</v>
       </c>
@@ -13881,7 +13882,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>245</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>245</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>245</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>245</v>
       </c>
@@ -13951,7 +13952,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>245</v>
       </c>
@@ -13965,7 +13966,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>245</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>245</v>
       </c>
@@ -13993,7 +13994,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>245</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>245</v>
       </c>
@@ -14035,7 +14036,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>245</v>
       </c>
@@ -14049,7 +14050,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>245</v>
       </c>
@@ -14063,7 +14064,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>245</v>
       </c>
@@ -14077,7 +14078,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -14091,7 +14092,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>245</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>245</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>245</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>245</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>245</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>245</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>245</v>
       </c>
@@ -14189,7 +14190,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>245</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>245</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>245</v>
       </c>
@@ -14231,7 +14232,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>245</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>245</v>
       </c>
@@ -14287,7 +14288,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>245</v>
       </c>
@@ -14301,7 +14302,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>245</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>245</v>
       </c>
@@ -14329,7 +14330,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>245</v>
       </c>
@@ -14343,7 +14344,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>245</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>245</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>245</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>245</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>245</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>245</v>
       </c>
@@ -14427,7 +14428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>245</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>245</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>245</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>245</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>245</v>
       </c>
@@ -14511,7 +14512,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>245</v>
       </c>
@@ -14525,7 +14526,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>245</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>245</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>245</v>
       </c>
@@ -14567,7 +14568,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>245</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>245</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>245</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>245</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>245</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -14651,7 +14652,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>245</v>
       </c>
@@ -14665,7 +14666,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>245</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>245</v>
       </c>
@@ -14693,7 +14694,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>245</v>
       </c>
@@ -14707,7 +14708,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>245</v>
       </c>
@@ -14721,7 +14722,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>245</v>
       </c>
@@ -14735,7 +14736,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>245</v>
       </c>
@@ -14749,7 +14750,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>245</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>245</v>
       </c>
@@ -14791,7 +14792,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>245</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>245</v>
       </c>
@@ -14819,7 +14820,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>245</v>
       </c>
@@ -14833,7 +14834,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>245</v>
       </c>
@@ -14847,7 +14848,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>245</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>245</v>
       </c>
@@ -14875,7 +14876,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>245</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>245</v>
       </c>
@@ -14903,7 +14904,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>245</v>
       </c>
@@ -14917,7 +14918,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>245</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>245</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>245</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>245</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -14987,7 +14988,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>245</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>245</v>
       </c>
@@ -15015,7 +15016,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -15029,7 +15030,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>245</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>245</v>
       </c>
@@ -15057,7 +15058,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>245</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -15099,7 +15100,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>245</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -15141,7 +15142,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>245</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>245</v>
       </c>
@@ -15183,7 +15184,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>245</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -15225,7 +15226,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>245</v>
       </c>
@@ -15253,7 +15254,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -15267,7 +15268,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -15295,7 +15296,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>245</v>
       </c>
@@ -15337,7 +15338,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -15351,7 +15352,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -15435,7 +15436,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>245</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>245</v>
       </c>
@@ -15463,7 +15464,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>245</v>
       </c>
@@ -15477,7 +15478,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>245</v>
       </c>
@@ -15491,7 +15492,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>245</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>245</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>245</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>245</v>
       </c>
@@ -15547,7 +15548,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>245</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>245</v>
       </c>
@@ -15575,7 +15576,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>245</v>
       </c>
@@ -15589,7 +15590,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>245</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -15617,7 +15618,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>245</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>245</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>245</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>245</v>
       </c>
@@ -15723,7 +15724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15731,17 +15732,17 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15770,7 +15771,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>223</v>
       </c>
@@ -15779,7 +15780,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44475.804827083331</v>
+        <v>44475.982701388886</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>
@@ -15813,1004 +15814,1004 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\config-covid-moh-ke-master\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="542">
   <si>
     <t>type</t>
   </si>
@@ -1471,12 +1471,6 @@
     <t>${consent2}='yes'</t>
   </si>
   <si>
-    <t>Age must be between 0 and 100</t>
-  </si>
-  <si>
-    <t>Village/ township of residence</t>
-  </si>
-  <si>
     <t>pick_up</t>
   </si>
   <si>
@@ -1646,6 +1640,21 @@
   </si>
   <si>
     <t>meta</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Type of registration</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village/ township </t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1896,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="330">
+  <dxfs count="332">
     <dxf>
       <fill>
         <patternFill>
@@ -1966,26 +1975,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2008,6 +1997,113 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFEAD1DC"/>
@@ -2535,13 +2631,33 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
@@ -2551,7 +2667,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
@@ -2561,7 +2687,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
+        <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
@@ -2575,6 +2701,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
@@ -2582,113 +2718,6 @@
     <dxf>
       <font>
         <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
@@ -5513,30 +5542,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N937"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
-    <col min="9" max="9" width="73.88671875" customWidth="1"/>
+    <col min="9" max="9" width="73.77734375" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="25.109375" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="14" width="29.88671875" customWidth="1"/>
+    <col min="13" max="14" width="29.77734375" customWidth="1"/>
     <col min="15" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5758,111 +5787,105 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>489</v>
+        <v>466</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>475</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5875,23 +5898,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -5906,15 +5923,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>490</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5926,14 +5941,22 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -5944,8 +5967,19 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5957,20 +5991,24 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>476</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -5985,16 +6023,19 @@
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
       <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -6002,180 +6043,155 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>40</v>
+      <c r="E25" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -6185,25 +6201,22 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -6213,45 +6226,45 @@
         <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>536</v>
+      <c r="A30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -6259,23 +6272,19 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
+      <c r="A31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="3" t="s">
-        <v>537</v>
-      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -6284,23 +6293,25 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>463</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -6310,23 +6321,25 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>463</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -6336,24 +6349,22 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>61</v>
+      <c r="G34" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>463</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -6363,29 +6374,23 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>63</v>
+      <c r="A35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="I35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -6393,23 +6398,23 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
+      <c r="A36" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -6418,15 +6423,17 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
         <v>71</v>
@@ -6441,18 +6448,22 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>29</v>
+      <c r="A38" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6463,16 +6474,26 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -6481,14 +6502,28 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="A40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -6497,20 +6532,20 @@
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>14</v>
+      <c r="A41" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>488</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -6522,15 +6557,15 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>71</v>
@@ -6545,82 +6580,52 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>72</v>
+      <c r="A43" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="13"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F45" s="17"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6631,28 +6636,24 @@
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>87</v>
+      <c r="A46" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>88</v>
+        <v>486</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="17"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -6660,17 +6661,15 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>71</v>
@@ -6678,9 +6677,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -6688,235 +6685,255 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>482</v>
+        <v>83</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>541</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>491</v>
+        <v>96</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -6928,10 +6945,14 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -6946,15 +6967,17 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -6967,12 +6990,22 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -6984,18 +7017,18 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>493</v>
+        <v>104</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>479</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -7007,75 +7040,65 @@
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>501</v>
+      <c r="A62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="31" t="s">
-        <v>513</v>
-      </c>
+      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="31" t="s">
-        <v>514</v>
-      </c>
+      <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>498</v>
+      <c r="A64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="31" t="s">
-        <v>516</v>
-      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -7083,47 +7106,35 @@
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="31" t="s">
-        <v>515</v>
-      </c>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -7136,13 +7147,13 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>44</v>
@@ -7153,20 +7164,22 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>62</v>
+        <v>493</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>44</v>
@@ -7177,29 +7190,31 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="I69" s="31" t="s">
+        <v>514</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -7208,13 +7223,13 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>44</v>
@@ -7225,18 +7240,28 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="31" t="s">
+        <v>513</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="3"/>
+        <v>493</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -7249,10 +7274,18 @@
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -7265,19 +7298,19 @@
       <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>479</v>
-      </c>
+      <c r="A73" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -7290,20 +7323,19 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="D74" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -7315,20 +7347,19 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="D75" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -7340,20 +7371,13 @@
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -7364,21 +7388,12 @@
       <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -7389,49 +7404,48 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="31" t="s">
-        <v>533</v>
-      </c>
+      <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>49</v>
+      <c r="A79" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="F79" s="3"/>
+        <v>517</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="34" t="s">
-        <v>532</v>
-      </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -7439,17 +7453,21 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>29</v>
+      <c r="A80" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="F80" s="3"/>
+        <v>518</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -7460,17 +7478,21 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="D81" s="31"/>
-      <c r="F81" s="3"/>
+      <c r="A81" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -7481,14 +7503,21 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="A82" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -7499,144 +7528,144 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="A83" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="31" t="s">
+        <v>531</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
+      <c r="B89" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C89" s="5"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
@@ -7646,11 +7675,114 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+    </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8489,1534 +8621,1549 @@
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A25:J25 A26:F29 I26:J29 J20:N21 A36:K36 A30:J35 K24:K35 D18:N18 E21 A19:N19 A37:D44 L22:N47 F37:K42 A1:N17 A48:D56 F48:N56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
-    <cfRule type="containsText" dxfId="329" priority="140" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47 K47:N47 A25:H25 A26:F29 J20:N21 F22:H24 A45:H46 C13:C14 I22:J35 A30:H36 K24:K35 L22:N35 A1:N10 A12:N12 A13:B17 A17:C17 A21:H21 A20:D20 F20:H20 A37:D40 A42:D44 I36:N46 A41:B41 D41 F37:H42 D13:N17 I48:N56 A48:D56 F47:H56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
-    <cfRule type="expression" dxfId="328" priority="141">
+  <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A41:K41 A35:J40 K29:K40 D22:N22 E25:E26 A23:N23 A42:D49 L27:N52 F42:K47 A1:N21 A89:N937 A53:D61 F53:N61 A62:N63 D79:D83 E87:E88 A85:D88 F64:N88 J24:N26 F24:H26 A24:D26">
+    <cfRule type="containsText" dxfId="331" priority="140" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52 K52:N52 A30:H30 A31:F34 F27:H29 A50:H51 C17:C18 I27:J40 A35:H41 K29:K40 L27:N40 A1:N14 A16:N16 A17:B21 A21:C21 A25:H26 A42:D45 A47:D49 I41:N51 A46:B46 D46 F42:H47 D17:N21 A89:N937 I53:N61 A53:D61 F52:H61 A62:N63 D79:D83 E87:E88 A85:D88 F64:N88 J24:N26 A24:D24 F24:H24">
+    <cfRule type="expression" dxfId="330" priority="141">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:J25 A26:F29 I26:J29 J20:N21 A30:J36 K24:K35 L22:N35 D18:N18 E21 A19:N19 A37:D44 K36:N47 F37:J42 A1:N17 A48:D56 F48:N56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
-    <cfRule type="cellIs" dxfId="327" priority="143" operator="equal">
+  <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A35:J41 K29:K40 L27:N40 D22:N22 E25:E26 A23:N23 A42:D49 K41:N52 F42:J47 A1:N21 A89:N937 A53:D61 F53:N61 A62:N63 D79:D83 E87:E88 A85:D88 F64:N88 J24:N26 F24:H26 A24:D26">
+    <cfRule type="cellIs" dxfId="329" priority="143" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I17 I22:I932">
-    <cfRule type="expression" dxfId="326" priority="144">
+  <conditionalFormatting sqref="I1:I21 I27:I937">
+    <cfRule type="expression" dxfId="328" priority="144">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C10 C12:C14 C20:C40 C42:C58 C74:C932">
-    <cfRule type="expression" dxfId="325" priority="145">
+  <conditionalFormatting sqref="C1:C14 C16:C18 C47:C63 C79:C937 C24:C45">
+    <cfRule type="expression" dxfId="327" priority="145">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B10 B12:B17 B20:B932">
-    <cfRule type="expression" dxfId="324" priority="146">
+  <conditionalFormatting sqref="B1:B14 B16:B21 B24:B937">
+    <cfRule type="expression" dxfId="326" priority="146">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A17 A19:C19 A19:A46 A48:A932">
-    <cfRule type="cellIs" dxfId="323" priority="147" operator="equal">
+  <conditionalFormatting sqref="A1:A21 A23:C23 A53:A937 A23:A51">
+    <cfRule type="cellIs" dxfId="325" priority="147" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="322" priority="149" operator="notEqual">
+    <cfRule type="cellIs" dxfId="324" priority="149" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="321" priority="150" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="323" priority="150" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="320" priority="151" operator="notEqual">
+    <cfRule type="cellIs" dxfId="322" priority="151" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="319" priority="152" operator="notEqual">
+    <cfRule type="cellIs" dxfId="321" priority="152" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="318" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="320" priority="153" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="317" priority="154" operator="notEqual">
+    <cfRule type="cellIs" dxfId="319" priority="154" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="316" priority="155" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="318" priority="155" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="315" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="317" priority="156" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="314" priority="157" operator="notEqual">
+    <cfRule type="cellIs" dxfId="316" priority="157" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="313" priority="158" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="315" priority="158" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="312" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="314" priority="159" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="311" priority="160" operator="notEqual">
+    <cfRule type="cellIs" dxfId="313" priority="160" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H25 H30:H932">
-    <cfRule type="expression" dxfId="310" priority="161">
+  <conditionalFormatting sqref="H35:H937 H1:H30">
+    <cfRule type="expression" dxfId="312" priority="161">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47 K47:N47 A25:H25 A26:F29 J20:N21 F22:H24 A45:H46 C13:C14 I22:J35 A30:H36 K24:K35 L22:N35 A1:N10 A12:N12 A13:B17 A17:C17 A21:H21 A20:D20 F20:H20 A37:D40 A42:D44 I36:N46 A41:B41 D41 F37:H42 D13:N17 I48:N56 A48:D56 F47:H56 A57:N58 D74:D78 E82:E83 A80:D83 F59:N83 A84:N932">
-    <cfRule type="expression" dxfId="309" priority="162">
+  <conditionalFormatting sqref="I52 K52:N52 A30:H30 A31:F34 F27:H29 A50:H51 C17:C18 I27:J40 A35:H41 K29:K40 L27:N40 A1:N14 A16:N16 A17:B21 A21:C21 A25:H26 A42:D45 A47:D49 I41:N51 A46:B46 D46 F42:H47 D17:N21 A89:N937 I53:N61 A53:D61 F52:H61 A62:N63 D79:D83 E87:E88 A85:D88 F64:N88 J24:N26 A24:D24 F24:H24">
+    <cfRule type="expression" dxfId="311" priority="162">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="expression" dxfId="308" priority="164">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:J37 A37:D40 A42:D44 F42:J42 E38:J40 A48:D56 F48:J56 A57:J58 F59:N73 F82:N83 A82:D83">
-    <cfRule type="expression" dxfId="307" priority="165">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="expression" dxfId="310" priority="164">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:J42 A42:D45 A47:D49 F47:J47 E43:J45 A53:D61 F53:J61 A62:J63 F64:N78 F87:N88 A87:D88">
+    <cfRule type="expression" dxfId="309" priority="165">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="308" priority="166">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:J42 A42:D45 A47:D49 D46 E47:J47 E43:J45 A53:D61 F53:J61 A62:J63 F64:N78 F87:N88 A87:D88">
+    <cfRule type="expression" dxfId="307" priority="167">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77">
+    <cfRule type="expression" dxfId="306" priority="170">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77">
+    <cfRule type="cellIs" dxfId="305" priority="171" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="304" priority="174">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 E23">
+    <cfRule type="expression" dxfId="303" priority="175">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="302" priority="176">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 E23">
+    <cfRule type="expression" dxfId="301" priority="177">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C24:C26">
+    <cfRule type="expression" dxfId="300" priority="178">
+      <formula>AND($C14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C25:C26">
+    <cfRule type="expression" dxfId="299" priority="179">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C25:C26">
+    <cfRule type="expression" dxfId="298" priority="180">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 F27:J29 A50:K51 A27:C29 F48:F49 H48:K49 B52:D52 F52:I52 K52">
+    <cfRule type="containsText" dxfId="297" priority="181" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F48:F49 H48:H49 B52:D52">
+    <cfRule type="expression" dxfId="296" priority="182">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F27:J29 F48:F49 H48:J49 B52:D52 F52:I52">
+    <cfRule type="expression" dxfId="295" priority="183">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 F27:J29 A50:J51 A27:C29 F48:F49 H48:J49 B52:D52 F52:I52">
+    <cfRule type="cellIs" dxfId="294" priority="184" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="293" priority="187">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F48:F49 H48:H49 B52:D52">
+    <cfRule type="expression" dxfId="292" priority="190">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F27:J29 F48:F49 H48:J49 B52:D52 F52:I52">
+    <cfRule type="expression" dxfId="291" priority="191">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" dxfId="290" priority="204" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="289" priority="205" operator="equal">
+      <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="306" priority="166">
+    <cfRule type="containsText" dxfId="288" priority="212" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="287" priority="213">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:J37 A37:D40 A42:D44 D41 E42:J42 E38:J40 A48:D56 F48:J56 A57:J58 F59:N73 F82:N83 A82:D83">
-    <cfRule type="expression" dxfId="305" priority="167">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72">
-    <cfRule type="expression" dxfId="304" priority="170">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="286" priority="214">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="285" priority="215" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="284" priority="216">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="283" priority="217">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="containsText" dxfId="282" priority="224" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="expression" dxfId="281" priority="225">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="cellIs" dxfId="280" priority="227" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="containsText" dxfId="279" priority="234" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="278" priority="235" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="277" priority="236">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="276" priority="237">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="275" priority="238" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="274" priority="239">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="273" priority="240">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="272" priority="241" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="271" priority="242">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="270" priority="243">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="269" priority="244" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="268" priority="245">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="267" priority="246">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="266" priority="247" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="265" priority="248">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="264" priority="249">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="263" priority="262" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="262" priority="263">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="261" priority="264">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="260" priority="265" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="259" priority="266">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="258" priority="267">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="257" priority="274" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="256" priority="275">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="255" priority="276">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="254" priority="277" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="253" priority="278">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="252" priority="279">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="251" priority="286" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="250" priority="287">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="249" priority="288">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="248" priority="289" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="247" priority="290">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="246" priority="291">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" dxfId="245" priority="292" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="244" priority="293">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="243" priority="294">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="242" priority="295" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="241" priority="296">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="240" priority="297">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="239" priority="298" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="238" priority="299">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="237" priority="300">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="236" priority="301" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="235" priority="302">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="234" priority="303">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="233" priority="304" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="232" priority="305">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="231" priority="306">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="230" priority="307" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="229" priority="308">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="228" priority="309">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="227" priority="310" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="226" priority="311">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="225" priority="312">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="224" priority="313" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="223" priority="314">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="222" priority="315">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="221" priority="316" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="220" priority="317">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72">
-    <cfRule type="cellIs" dxfId="303" priority="171" operator="equal">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="219" priority="318">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="218" priority="319" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="302" priority="174">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K22 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22 E19">
-    <cfRule type="expression" dxfId="301" priority="175">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="300" priority="176">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K22 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22 E19">
-    <cfRule type="expression" dxfId="299" priority="177">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21 C12:C14 C10">
-    <cfRule type="expression" dxfId="298" priority="178">
-      <formula>AND($C10 = "", $A10 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14 C10 C21">
-    <cfRule type="expression" dxfId="297" priority="179">
-      <formula>AND($A10="end repeat", $B10 = "", $C10 = "", $D10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $C10 = "", $J10 = "", $K10 = "", $L10 = "", $M10 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14 C10 C21">
-    <cfRule type="expression" dxfId="296" priority="180">
-      <formula>AND($A10="end group", $B10 = "", $C10 = "", $D10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $C10 = "", $J10 = "", $K10 = "", $L10 = "", $M10 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22 F20:H21 A20:D21 F22:J24 A45:K46 A22:C24 F43:F44 H43:K44 B47:D47 F47:I47 K47">
-    <cfRule type="containsText" dxfId="295" priority="181" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C24 F43:F44 H43:H44 B47:D47">
-    <cfRule type="expression" dxfId="294" priority="182">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C24 F22:J24 F43:F44 H43:J44 B47:D47 F47:I47">
-    <cfRule type="expression" dxfId="293" priority="183">
-      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22 F20:H21 A20:D21 F22:J24 A45:J46 A22:C24 F43:F44 H43:J44 B47:D47 F47:I47">
-    <cfRule type="cellIs" dxfId="292" priority="184" operator="equal">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="217" priority="320">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="216" priority="321">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="215" priority="322" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="214" priority="323">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="213" priority="324">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="212" priority="325" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="291" priority="187">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C24 F43:F44 H43:H44 B47:D47">
-    <cfRule type="expression" dxfId="290" priority="190">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C24 F22:J24 F43:F44 H43:J44 B47:D47 F47:I47">
-    <cfRule type="expression" dxfId="289" priority="191">
-      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="288" priority="204" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="287" priority="205" operator="equal">
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="211" priority="326">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="210" priority="327">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" dxfId="209" priority="328" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="208" priority="329">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="207" priority="330">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="206" priority="331" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="286" priority="212" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="285" priority="213">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="284" priority="214">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="283" priority="215" operator="equal">
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="205" priority="332">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="204" priority="333">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D65 A67:D68 A66:B66 D66 A70:D77 A69:B69 D69 A79:D83 A78:B78 D78 A84:C84">
+    <cfRule type="containsText" dxfId="203" priority="352" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D65 A67:D68 A66:B66 D66 A70:D77 A69:B69 D69 A79:D83 A78:B78 D78 A84:C84">
+    <cfRule type="expression" dxfId="202" priority="353">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D65 A67:D68 A66:B66 D66 A70:D77 A69:B69 D69 A78:B78 D78">
+    <cfRule type="expression" dxfId="201" priority="354">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D65 A67:D68 A66:B66 D66 A70:D77 A69:B69 D69 A79:D83 A78:B78 D78 A84:C84">
+    <cfRule type="cellIs" dxfId="200" priority="355" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="282" priority="216">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="281" priority="217">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="containsText" dxfId="280" priority="224" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="expression" dxfId="279" priority="225">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="cellIs" dxfId="278" priority="227" operator="equal">
+  <conditionalFormatting sqref="C64:C65 C67:C68 C70:C77">
+    <cfRule type="expression" dxfId="199" priority="357">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D65 A67:D68 A66:B66 D66 A70:D77 A69:B69 D69 A79:D83 A78:B78 D78 A84:C84">
+    <cfRule type="expression" dxfId="198" priority="361">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D65 A67:D68 A66:B66 D66 A70:D77 A69:B69 D69 A78:B78 D78">
+    <cfRule type="expression" dxfId="197" priority="362">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77">
+    <cfRule type="expression" dxfId="196" priority="368">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77 E87:E88">
+    <cfRule type="expression" dxfId="195" priority="369">
+      <formula>AND($E64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77 E87:E88">
+    <cfRule type="expression" dxfId="194" priority="370">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $E64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77 E87:E88">
+    <cfRule type="expression" dxfId="193" priority="371">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $E64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65 E67:E68 E70:E77">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="containsText" dxfId="191" priority="123" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="190" priority="124">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="189" priority="125">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="cellIs" dxfId="188" priority="126" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="277" priority="234" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="276" priority="235" operator="equal">
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="187" priority="127">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="186" priority="128">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="containsText" dxfId="185" priority="129" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="expression" dxfId="184" priority="130">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="183" priority="131">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="cellIs" dxfId="182" priority="132" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="275" priority="236">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="274" priority="237">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" dxfId="273" priority="238" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="272" priority="239">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="271" priority="240">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="270" priority="241" operator="equal">
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="expression" dxfId="181" priority="133">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="180" priority="134">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="179" priority="135">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="178" priority="136">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", #REF! = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="177" priority="137">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="176" priority="138">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", #REF! = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="containsText" dxfId="175" priority="117" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="174" priority="118">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="173" priority="119">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="172" priority="120" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="269" priority="242">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="268" priority="243">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="267" priority="244" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="266" priority="245">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="265" priority="246">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="264" priority="247" operator="equal">
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="171" priority="121">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="170" priority="122">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="169" priority="111" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="168" priority="112">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="167" priority="113">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="166" priority="114" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="263" priority="248">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="262" priority="249">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" dxfId="261" priority="262" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="260" priority="263">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="165" priority="115">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="164" priority="116">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="containsText" dxfId="163" priority="104" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="162" priority="105">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="161" priority="106">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="160" priority="107" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="159" priority="108" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="158" priority="109">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="157" priority="110">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="containsText" dxfId="156" priority="98" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="155" priority="99">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="154" priority="100">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="153" priority="101" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="152" priority="102">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="151" priority="103">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34 I34:N34">
+    <cfRule type="expression" dxfId="150" priority="469">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", #REF! = "", #REF! = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:N33">
+    <cfRule type="expression" dxfId="149" priority="471">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G32 = "", $H32 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34 I34:N34">
+    <cfRule type="expression" dxfId="148" priority="483">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", #REF! = "", #REF! = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:N33">
+    <cfRule type="expression" dxfId="147" priority="485">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G32 = "", $H32 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="146" priority="92">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="145" priority="93">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="144" priority="94">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="143" priority="95">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="containsText" dxfId="142" priority="96" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="cellIs" dxfId="141" priority="97" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="140" priority="85">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="139" priority="86">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="138" priority="87">
+      <formula>AND(NOT($G32 = ""), $H32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="137" priority="88">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="136" priority="89">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="containsText" dxfId="135" priority="90" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="cellIs" dxfId="134" priority="91" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="133" priority="630">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="132" priority="632">
+      <formula>AND($A17="end group", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="131" priority="642">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="130" priority="644">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="129" priority="646">
+      <formula>AND($A17="end repeat", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="128" priority="657">
+      <formula>AND($C19 = "", $A17 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="127" priority="659">
+      <formula>AND($A17="end repeat", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C19 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="126" priority="661">
+      <formula>AND($A17="end group", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C19 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="125" priority="905">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="124" priority="907">
+      <formula>AND($A19="end group", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="123" priority="909">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="122" priority="911">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="121" priority="913">
+      <formula>AND($A19="end repeat", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="120" priority="915">
+      <formula>AND($C23 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="119" priority="917">
+      <formula>AND($A19="end repeat", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C23 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="118" priority="919">
+      <formula>AND($A19="end group", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C23 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="117" priority="926">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="116" priority="932">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 D15:N15">
+    <cfRule type="expression" dxfId="115" priority="948">
+      <formula>AND($A15="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 D15:N15">
+    <cfRule type="expression" dxfId="114" priority="964">
+      <formula>AND($A15="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="113" priority="992">
+      <formula>AND($A19="end group", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="112" priority="993">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="111" priority="994">
+      <formula>AND($A19="end repeat", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="110" priority="995">
+      <formula>AND($C15 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="109" priority="996">
+      <formula>AND($A19="end repeat", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C15 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="108" priority="997">
+      <formula>AND($A19="end group", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C15 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="107" priority="64" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="106" priority="62" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="105" priority="63" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="104" priority="65">
+      <formula>AND($A15="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="103" priority="66">
+      <formula>AND($A15="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="102" priority="55" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="101" priority="57" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="100" priority="56" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="99" priority="1016">
+      <formula>AND($A19="end group", $B19 = "", $C24 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="98" priority="1017">
+      <formula>AND($A19="end repeat", $B19 = "", $C24 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="97" priority="1021">
+      <formula>AND($A23="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 D23:N23">
+    <cfRule type="expression" dxfId="96" priority="1022">
+      <formula>AND(#REF!="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="95" priority="1025">
+      <formula>AND($I22 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="94" priority="1026">
+      <formula>AND($I23 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="93" priority="1028">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="92" priority="1032">
+      <formula>AND($A23="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 D23:N23">
+    <cfRule type="expression" dxfId="91" priority="1033">
+      <formula>AND(#REF!="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="90" priority="1047">
+      <formula>AND($A23="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="expression" dxfId="89" priority="1048">
+      <formula>AND($A23="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="88" priority="1049">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="87" priority="1050">
+      <formula>AND($A23="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="expression" dxfId="86" priority="1051">
+      <formula>AND($A23="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="85" priority="50">
+      <formula>AND($A23="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="84" priority="51">
+      <formula>AND($A23="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="83" priority="48">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="82" priority="49">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="81" priority="46">
+      <formula>AND($A23="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="80" priority="47">
+      <formula>AND($A23="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="79" priority="44">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="78" priority="45">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="77" priority="1069">
+      <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $D24 = "", $E23 = "", $F24 = "", $G24 = "", $H24 = "", $C24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="76" priority="1071">
+      <formula>AND($A24="end group", $B24 = "", $C24 = "", $D24 = "", $E23 = "", $F24 = "", $G24 = "", $H24 = "", $C24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:B46 F46:J46">
+    <cfRule type="expression" dxfId="75" priority="1106">
+      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="74" priority="1131">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="73" priority="1132">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="72" priority="1146">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="71" priority="1147">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="70" priority="1148">
+      <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="69" priority="38" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="68" priority="39" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="67" priority="40">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="66" priority="41">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="259" priority="264">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="258" priority="265" operator="equal">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="65" priority="42">
+      <formula>AND(#REF!="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="64" priority="43">
+      <formula>AND(#REF!="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B937 B2:B21 A15 C15 A23:C23">
+    <cfRule type="expression" dxfId="63" priority="1163">
+      <formula>COUNTIF($B$2:$B$945,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="containsText" dxfId="62" priority="31" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="cellIs" dxfId="61" priority="32" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="257" priority="266">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="256" priority="267">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" dxfId="255" priority="274" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="254" priority="275">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="253" priority="276">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="252" priority="277" operator="equal">
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="60" priority="33">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="59" priority="34">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="58" priority="35">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="57" priority="36">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C66 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="56" priority="37">
+      <formula>AND(#REF!="end group", #REF! = "", $C66 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="251" priority="278">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="250" priority="279">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="249" priority="286" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="248" priority="287">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="247" priority="288">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="246" priority="289" operator="equal">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="53" priority="27">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="52" priority="28">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="51" priority="29">
+      <formula>AND(#REF!="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="50" priority="30">
+      <formula>AND(#REF!="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="expression" dxfId="48" priority="21">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="245" priority="290">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="244" priority="291">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="243" priority="292" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="242" priority="293">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="241" priority="294">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="240" priority="295" operator="equal">
+  <conditionalFormatting sqref="C69">
+    <cfRule type="expression" dxfId="46" priority="23">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="expression" dxfId="45" priority="24">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="43" priority="17">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="239" priority="296">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="238" priority="297">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="237" priority="298" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="236" priority="299">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="235" priority="300">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="234" priority="301" operator="equal">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="41" priority="19">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="233" priority="302">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="232" priority="303">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="231" priority="304" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="230" priority="305">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="229" priority="306">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="228" priority="307" operator="equal">
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="38" priority="11">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="37" priority="12">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="36" priority="13">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="35" priority="14">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C78 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="34" priority="15">
+      <formula>AND(#REF!="end group", #REF! = "", $C78 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="227" priority="308">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="226" priority="309">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="225" priority="310" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="224" priority="311">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="223" priority="312">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="222" priority="313" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="221" priority="314">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="220" priority="315">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="219" priority="316" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="218" priority="317">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="217" priority="318">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="216" priority="319" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="215" priority="320">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="214" priority="321">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="213" priority="322" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="212" priority="323">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="211" priority="324">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="210" priority="325" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="209" priority="326">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="208" priority="327">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="207" priority="328" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="206" priority="329">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="205" priority="330">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="204" priority="331" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="203" priority="332">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="202" priority="333">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D60 A62:D63 A61:B61 D61 A65:D72 A64:B64 D64 A74:D78 A73:B73 D73 A79:C79">
-    <cfRule type="containsText" dxfId="201" priority="352" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D60 A62:D63 A61:B61 D61 A65:D72 A64:B64 D64 A74:D78 A73:B73 D73 A79:C79">
-    <cfRule type="expression" dxfId="200" priority="353">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D60 A62:D63 A61:B61 D61 A65:D72 A64:B64 D64 A73:B73 D73">
-    <cfRule type="expression" dxfId="199" priority="354">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D60 A62:D63 A61:B61 D61 A65:D72 A64:B64 D64 A74:D78 A73:B73 D73 A79:C79">
-    <cfRule type="cellIs" dxfId="198" priority="355" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C60 C62:C63 C65:C72">
-    <cfRule type="expression" dxfId="197" priority="357">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D60 A62:D63 A61:B61 D61 A65:D72 A64:B64 D64 A74:D78 A73:B73 D73 A79:C79">
-    <cfRule type="expression" dxfId="196" priority="361">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D60 A62:D63 A61:B61 D61 A65:D72 A64:B64 D64 A73:B73 D73">
-    <cfRule type="expression" dxfId="195" priority="362">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72">
-    <cfRule type="expression" dxfId="194" priority="368">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72 E82:E83">
-    <cfRule type="expression" dxfId="193" priority="369">
-      <formula>AND($E59 = "", $A59 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72 E82:E83">
-    <cfRule type="expression" dxfId="192" priority="370">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $E59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72 E82:E83">
-    <cfRule type="expression" dxfId="191" priority="371">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $E59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60 E62:E63 E65:E72">
-    <cfRule type="containsText" dxfId="190" priority="372" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="189" priority="123" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" dxfId="188" priority="124">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" dxfId="187" priority="125">
-      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="cellIs" dxfId="186" priority="126" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" dxfId="185" priority="127">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" dxfId="184" priority="128">
-      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24">
-    <cfRule type="containsText" dxfId="183" priority="129" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24">
-    <cfRule type="expression" dxfId="182" priority="130">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="181" priority="131">
-      <formula>AND($A24="end group", $B24 = "", $C24 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24">
-    <cfRule type="cellIs" dxfId="180" priority="132" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24">
-    <cfRule type="expression" dxfId="179" priority="133">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="178" priority="134">
-      <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="177" priority="135">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K22 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="176" priority="136">
-      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", #REF! = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="175" priority="137">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K22 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="174" priority="138">
-      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", #REF! = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="containsText" dxfId="173" priority="117" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="172" priority="118">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="171" priority="119">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="170" priority="120" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="169" priority="121">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="168" priority="122">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="167" priority="111" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="166" priority="112">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="165" priority="113">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="164" priority="114" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="163" priority="115">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="162" priority="116">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="161" priority="104" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="160" priority="105">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="159" priority="106">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="158" priority="107" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="157" priority="108" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="156" priority="109">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="155" priority="110">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="154" priority="98" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="153" priority="99">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="152" priority="100">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="151" priority="101" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="150" priority="102">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="149" priority="103">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:F29 I29:N29">
-    <cfRule type="expression" dxfId="148" priority="469">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", #REF! = "", #REF! = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:N28">
-    <cfRule type="expression" dxfId="147" priority="471">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G27 = "", $H27 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:F29 I29:N29">
-    <cfRule type="expression" dxfId="146" priority="483">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", #REF! = "", #REF! = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:N28">
-    <cfRule type="expression" dxfId="145" priority="485">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G27 = "", $H27 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="expression" dxfId="144" priority="92">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="expression" dxfId="143" priority="93">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="expression" dxfId="142" priority="94">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="expression" dxfId="141" priority="95">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="containsText" dxfId="140" priority="96" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="139" priority="97" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="expression" dxfId="138" priority="85">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="expression" dxfId="137" priority="86">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="expression" dxfId="136" priority="87">
-      <formula>AND(NOT($G27 = ""), $H27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="expression" dxfId="135" priority="88">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="expression" dxfId="134" priority="89">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="containsText" dxfId="133" priority="90" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="132" priority="91" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="131" priority="630">
-      <formula>AND($A13="begin group", NOT($B13 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="130" priority="632">
-      <formula>AND($A13="end group", $B13 = "", $C15 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $I13 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="129" priority="642">
-      <formula>AND(AND(NOT($A13 = "end group"), NOT($A13 = "end repeat"), NOT($A13 = "")), $C15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="128" priority="644">
-      <formula>AND($A13="begin repeat", NOT($B13 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="127" priority="646">
-      <formula>AND($A13="end repeat", $B13 = "", $C15 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $I13 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="126" priority="657">
-      <formula>AND($C15 = "", $A13 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="125" priority="659">
-      <formula>AND($A13="end repeat", $B13 = "", $C15 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $C15 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="124" priority="661">
-      <formula>AND($A13="end group", $B13 = "", $C15 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $C15 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="123" priority="905">
-      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="122" priority="907">
-      <formula>AND($A15="end group", $B15 = "", $C19 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="121" priority="909">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="120" priority="911">
-      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="119" priority="913">
-      <formula>AND($A15="end repeat", $B15 = "", $C19 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="118" priority="915">
-      <formula>AND($C19 = "", $A15 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="117" priority="917">
-      <formula>AND($A15="end repeat", $B15 = "", $C19 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C19 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="116" priority="919">
-      <formula>AND($A15="end group", $B15 = "", $C19 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C19 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="115" priority="926">
-      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="114" priority="932">
-      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11 D11:N11">
-    <cfRule type="expression" dxfId="113" priority="948">
-      <formula>AND($A11="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11 D11:N11">
-    <cfRule type="expression" dxfId="112" priority="964">
-      <formula>AND($A11="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="111" priority="992">
-      <formula>AND($A15="end group", $B15 = "", $C11 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="110" priority="993">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C11 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="109" priority="994">
-      <formula>AND($A15="end repeat", $B15 = "", $C11 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="108" priority="995">
-      <formula>AND($C11 = "", $A15 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="107" priority="996">
-      <formula>AND($A15="end repeat", $B15 = "", $C11 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C11 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="106" priority="997">
-      <formula>AND($A15="end group", $B15 = "", $C11 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C11 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="105" priority="64" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="104" priority="62" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="103" priority="63" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="102" priority="65">
-      <formula>AND($A11="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="101" priority="66">
-      <formula>AND($A11="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
-    <cfRule type="containsText" dxfId="100" priority="55" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="98" priority="56" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="97" priority="1016">
-      <formula>AND($A15="end group", $B15 = "", $C20 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="96" priority="1017">
-      <formula>AND($A15="end repeat", $B15 = "", $C20 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="95" priority="1021">
-      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 D19:N19">
-    <cfRule type="expression" dxfId="94" priority="1022">
-      <formula>AND(#REF!="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="93" priority="1025">
-      <formula>AND($I18 = "", $A19 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="92" priority="1026">
-      <formula>AND($I19 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="91" priority="1028">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="90" priority="1032">
-      <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 D19:N19">
-    <cfRule type="expression" dxfId="89" priority="1033">
-      <formula>AND(#REF!="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11">
-    <cfRule type="expression" dxfId="88" priority="1047">
-      <formula>AND($A19="begin group", NOT($B11 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:N18">
-    <cfRule type="expression" dxfId="87" priority="1048">
-      <formula>AND($A19="begin group", NOT($B11 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11">
-    <cfRule type="expression" dxfId="86" priority="1049">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B11 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11">
-    <cfRule type="expression" dxfId="85" priority="1050">
-      <formula>AND($A19="begin repeat", NOT($B11 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:N18">
-    <cfRule type="expression" dxfId="84" priority="1051">
-      <formula>AND($A19="begin repeat", NOT($B11 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="83" priority="1062">
-      <formula>AND($A19="end group", $B11 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="82" priority="1063">
-      <formula>AND($A19="end repeat", $B11 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="81" priority="50">
-      <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="80" priority="51">
-      <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="79" priority="52">
-      <formula>AND($A27="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="78" priority="53">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="77" priority="54">
-      <formula>AND($A27="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="76" priority="48">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="75" priority="49">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
-    <cfRule type="expression" dxfId="74" priority="46">
-      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
-    <cfRule type="expression" dxfId="73" priority="47">
-      <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
-    <cfRule type="expression" dxfId="72" priority="44">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
-    <cfRule type="expression" dxfId="71" priority="45">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="70" priority="1069">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E19 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="69" priority="1071">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E19 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="68" priority="1083">
-      <formula>AND(#REF!="end group", $B19 = "", $C22 = "", $D19 = "", #REF! = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="67" priority="1084">
-      <formula>AND(#REF!="end repeat", $B19 = "", $C22 = "", $D19 = "", #REF! = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B41 F41:J41">
-    <cfRule type="expression" dxfId="66" priority="1106">
-      <formula>AND($A41="end group", $B41 = "", #REF! = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="65" priority="1131">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="64" priority="1132">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="63" priority="1146">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="62" priority="1147">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C41 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="61" priority="1148">
-      <formula>AND(#REF!="end group", #REF! = "", $C41 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="60" priority="38" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="59" priority="39" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="58" priority="40">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="57" priority="41">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="56" priority="42">
-      <formula>AND(#REF!="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="55" priority="43">
-      <formula>AND(#REF!="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B932 B2:B17 A11 C11 A19:C19">
-    <cfRule type="expression" dxfId="54" priority="1163">
-      <formula>COUNTIF($B$2:$B$940,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="51" priority="33">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="50" priority="34">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="49" priority="35">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="48" priority="36">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C61 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="47" priority="37">
-      <formula>AND(#REF!="end group", #REF! = "", $C61 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="44" priority="27">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="43" priority="28">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="42" priority="29">
-      <formula>AND(#REF!="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="41" priority="30">
-      <formula>AND(#REF!="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="39" priority="21">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="37" priority="23">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="36" priority="24">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="34" priority="17">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="32" priority="19">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="29" priority="11">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="28" priority="12">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="27" priority="13">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="26" priority="14">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C73 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="25" priority="15">
-      <formula>AND(#REF!="end group", #REF! = "", $C73 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="21" priority="6">
-      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="20" priority="7">
-      <formula>AND(#REF!="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="19" priority="8">
-      <formula>AND(#REF!="begin repeat", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:N81 A74:C81">
-    <cfRule type="expression" dxfId="18" priority="1235">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", #REF! = "", $D74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:N81 A74:C81">
-    <cfRule type="expression" dxfId="17" priority="1240">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", #REF! = "", $D74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D78 D80:D81">
-    <cfRule type="expression" dxfId="16" priority="1246">
-      <formula>AND($D74 = "", $A74 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D78 D80:D81">
-    <cfRule type="expression" dxfId="15" priority="1248">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", #REF! = "", $D74 = "", $F74 = "", $G74 = "", $H74 = "", $D74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D78 D80:D81">
-    <cfRule type="expression" dxfId="14" priority="1250">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", #REF! = "", $D74 = "", $F74 = "", $G74 = "", $H74 = "", $D74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26 B20:B83">
-    <cfRule type="expression" dxfId="13" priority="1303">
-      <formula>COUNTIF($B$2:$B$979,B20)&gt;1</formula>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="31" priority="5">
+      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="30" priority="6">
+      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>AND(#REF!="begin group", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>AND(#REF!="begin repeat", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:N86 A79:C86">
+    <cfRule type="expression" dxfId="27" priority="1235">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", #REF! = "", $D79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:N86 A79:C86">
+    <cfRule type="expression" dxfId="26" priority="1240">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", #REF! = "", $D79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D83 D85:D86">
+    <cfRule type="expression" dxfId="25" priority="1246">
+      <formula>AND($D79 = "", $A79 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D83 D85:D86">
+    <cfRule type="expression" dxfId="24" priority="1248">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", #REF! = "", $D79 = "", $F79 = "", $G79 = "", $H79 = "", $D79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D83 D85:D86">
+    <cfRule type="expression" dxfId="23" priority="1250">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", #REF! = "", $D79 = "", $F79 = "", $G79 = "", $H79 = "", $D79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31 B24:B88">
+    <cfRule type="expression" dxfId="22" priority="1303">
+      <formula>COUNTIF($B$2:$B$984,B24)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F83">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F83">
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="19" priority="1309">
+      <formula>AND($A21="end group", $B21 = "", $C27 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="18" priority="1311">
+      <formula>AND($A21="end repeat", $B21 = "", $C27 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="17" priority="1351">
+      <formula>AND($A23="end group", $B15 = "", $C27 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="16" priority="1352">
+      <formula>AND($A23="end repeat", $B15 = "", $C27 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="15" priority="1353">
+      <formula>AND($A32="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="14" priority="1354">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="13" priority="1355">
+      <formula>AND($A32="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="12" priority="1358">
+      <formula>AND(#REF!="end group", $B23 = "", $C27 = "", $D23 = "", #REF! = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="11" priority="1359">
+      <formula>AND(#REF!="end repeat", $B23 = "", $C27 = "", $D23 = "", #REF! = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="12" priority="1306">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$941, "begin group") = COUNTIF($A$1:$A$941, "end group"))</formula>
+    <cfRule type="expression" dxfId="10" priority="1366">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$946, "begin group") = COUNTIF($A$1:$A$946, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="11" priority="1307">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$932, "begin group") = COUNTIF($A$1:$A$941, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:F78">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:F78">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    <cfRule type="expression" dxfId="9" priority="1367">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$937, "begin group") = COUNTIF($A$1:$A$946, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D89">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D94">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10035,7 +10182,7 @@
       <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="31.109375" customWidth="1"/>
@@ -15732,14 +15879,14 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="1025" width="14.44140625" customWidth="1"/>
@@ -15780,7 +15927,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44475.982701388886</v>
+        <v>44476.39464583333</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059A32B7-600E-4607-A976-601A1F0A03EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$41</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="709">
   <si>
     <t>type</t>
   </si>
@@ -2191,11 +2190,56 @@
   <si>
     <t>Please copy this identifier onto the specimen vial: **${specimen_id}**</t>
   </si>
+  <si>
+    <t>labs</t>
+  </si>
+  <si>
+    <t>Ag-RDT</t>
+  </si>
+  <si>
+    <t>AMPATH Care Lab Eldoret</t>
+  </si>
+  <si>
+    <t>Aga Khan</t>
+  </si>
+  <si>
+    <t>Coast Provincial General Hospital Molecular Lab</t>
+  </si>
+  <si>
+    <t>EDARP Nairobi</t>
+  </si>
+  <si>
+    <t>KEMRI Alupe HIV Lab</t>
+  </si>
+  <si>
+    <t>KEMRI Nairobi</t>
+  </si>
+  <si>
+    <t>KEMRI Kilifi</t>
+  </si>
+  <si>
+    <t>KEMRI CDC Kisumu</t>
+  </si>
+  <si>
+    <t>KEMRI Walter Reed Kericho</t>
+  </si>
+  <si>
+    <t>Kenyatta National Hospial Lab Nairobi</t>
+  </si>
+  <si>
+    <t>Lancet</t>
+  </si>
+  <si>
+    <t>NPHL</t>
+  </si>
+  <si>
+    <t>Nyumbani Diagnostic Lab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -2430,7 +2474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2544,6 +2588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -2551,6 +2596,87 @@
   </cellStyles>
   <dxfs count="355">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
@@ -2745,87 +2871,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6409,32 +6454,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="73.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="14" width="29.7109375" customWidth="1"/>
-    <col min="15" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="73.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="14" width="29.6640625" customWidth="1"/>
+    <col min="15" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6481,7 +6526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -6506,7 +6551,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -6528,7 +6573,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -6550,7 +6595,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -6572,7 +6617,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -6594,7 +6639,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -6612,7 +6657,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6630,7 +6675,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -6654,7 +6699,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -6676,7 +6721,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -6698,7 +6743,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -6720,7 +6765,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -6742,7 +6787,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -6764,7 +6809,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -6786,7 +6831,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -6808,7 +6853,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -6834,7 +6879,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -6858,7 +6903,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -6886,7 +6931,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -6910,7 +6955,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -6928,7 +6973,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6941,7 +6986,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -6965,7 +7010,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -6986,7 +7031,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>225</v>
       </c>
@@ -7014,7 +7059,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -7036,7 +7081,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -7064,7 +7109,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -7089,7 +7134,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -7117,7 +7162,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -7139,7 +7184,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -7159,7 +7204,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -7187,7 +7232,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -7215,7 +7260,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -7241,7 +7286,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
@@ -7265,7 +7310,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>49</v>
       </c>
@@ -7289,7 +7334,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -7315,7 +7360,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>55</v>
       </c>
@@ -7341,7 +7386,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
@@ -7369,7 +7414,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
@@ -7399,7 +7444,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>68</v>
       </c>
@@ -7423,7 +7468,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -7447,7 +7492,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>29</v>
       </c>
@@ -7469,7 +7514,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>21</v>
       </c>
@@ -7487,7 +7532,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7503,7 +7548,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>14</v>
       </c>
@@ -7527,7 +7572,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7594,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>78</v>
       </c>
@@ -7573,7 +7618,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>72</v>
       </c>
@@ -7603,7 +7648,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>72</v>
       </c>
@@ -7633,7 +7678,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -7659,7 +7704,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>87</v>
       </c>
@@ -7687,7 +7732,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>237</v>
       </c>
@@ -7715,7 +7760,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
@@ -7739,7 +7784,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
@@ -7763,7 +7808,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>18</v>
       </c>
@@ -7787,7 +7832,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
@@ -7811,7 +7856,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
@@ -7833,7 +7878,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -7855,7 +7900,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
@@ -7879,7 +7924,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>101</v>
       </c>
@@ -7905,7 +7950,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
@@ -7929,7 +7974,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
@@ -7955,7 +8000,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
@@ -7973,7 +8018,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
@@ -7995,7 +8040,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -8011,7 +8056,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -8035,7 +8080,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -8299,7 +8344,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8339,7 +8384,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>29</v>
       </c>
@@ -8532,7 +8577,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>29</v>
       </c>
@@ -8556,7 +8601,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -8574,7 +8619,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -8614,7 +8659,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>29</v>
       </c>
@@ -8635,7 +8680,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>14</v>
       </c>
@@ -8657,7 +8702,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
@@ -8679,7 +8724,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
         <v>29</v>
       </c>
@@ -8701,7 +8746,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
         <v>29</v>
       </c>
@@ -8723,7 +8768,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
         <v>29</v>
       </c>
@@ -8745,7 +8790,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>21</v>
       </c>
@@ -8763,7 +8808,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -8779,7 +8824,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="37" t="s">
         <v>14</v>
       </c>
@@ -8801,7 +8846,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="37" t="s">
         <v>29</v>
       </c>
@@ -9021,7 +9066,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="37" t="s">
         <v>21</v>
       </c>
@@ -9039,7 +9084,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -9055,7 +9100,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="37" t="s">
         <v>14</v>
       </c>
@@ -9077,7 +9122,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
         <v>29</v>
       </c>
@@ -9101,7 +9146,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>29</v>
       </c>
@@ -9125,7 +9170,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
         <v>29</v>
       </c>
@@ -9149,7 +9194,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="37" t="s">
         <v>21</v>
       </c>
@@ -9167,7 +9212,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
@@ -9183,7 +9228,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
     </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
@@ -9199,7 +9244,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="37" t="s">
         <v>14</v>
       </c>
@@ -9223,7 +9268,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="44" t="s">
         <v>49</v>
       </c>
@@ -9247,7 +9292,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
         <v>49</v>
       </c>
@@ -9271,7 +9316,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
     </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="44" t="s">
         <v>29</v>
       </c>
@@ -9293,7 +9338,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
     </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="44" t="s">
         <v>58</v>
       </c>
@@ -9321,7 +9366,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
     </row>
-    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="44" t="s">
         <v>641</v>
       </c>
@@ -9343,7 +9388,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="49"/>
@@ -9359,7 +9404,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
     </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="37" t="s">
         <v>21</v>
       </c>
@@ -9377,7 +9422,7 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -9507,14 +9552,14 @@
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="45" t="s">
         <v>14</v>
       </c>
@@ -9538,7 +9583,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="51" t="s">
         <v>29</v>
       </c>
@@ -9562,7 +9607,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="54" t="s">
         <v>29</v>
       </c>
@@ -9586,7 +9631,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="53" t="s">
         <v>29</v>
       </c>
@@ -9608,7 +9653,7 @@
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
     </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="38" t="s">
         <v>29</v>
       </c>
@@ -9627,7 +9672,7 @@
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
     </row>
-    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
         <v>29</v>
       </c>
@@ -9646,7 +9691,7 @@
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
     </row>
-    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>29</v>
       </c>
@@ -9665,7 +9710,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="57" t="s">
         <v>29</v>
       </c>
@@ -9689,7 +9734,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="52" t="s">
         <v>29</v>
       </c>
@@ -9710,7 +9755,7 @@
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="52" t="s">
         <v>29</v>
       </c>
@@ -9731,7 +9776,7 @@
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
     </row>
-    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="52" t="s">
         <v>29</v>
       </c>
@@ -9752,7 +9797,7 @@
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
     </row>
-    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="52" t="s">
         <v>29</v>
       </c>
@@ -9773,7 +9818,7 @@
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
     </row>
-    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="52" t="s">
         <v>29</v>
       </c>
@@ -9794,7 +9839,7 @@
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
     </row>
-    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="52" t="s">
         <v>29</v>
       </c>
@@ -9815,7 +9860,7 @@
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
     </row>
-    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="52" t="s">
         <v>29</v>
       </c>
@@ -9836,7 +9881,7 @@
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
     </row>
-    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="52" t="s">
         <v>29</v>
       </c>
@@ -9857,7 +9902,7 @@
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="52" t="s">
         <v>29</v>
       </c>
@@ -9878,7 +9923,7 @@
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
     </row>
-    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="52" t="s">
         <v>29</v>
       </c>
@@ -9899,7 +9944,7 @@
       <c r="H156" s="51"/>
       <c r="I156" s="51"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="52" t="s">
         <v>29</v>
       </c>
@@ -9920,7 +9965,7 @@
       <c r="H157" s="51"/>
       <c r="I157" s="51"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="52" t="s">
         <v>29</v>
       </c>
@@ -9941,7 +9986,7 @@
       <c r="H158" s="51"/>
       <c r="I158" s="51"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="52" t="s">
         <v>29</v>
       </c>
@@ -9962,7 +10007,7 @@
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
     </row>
-    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="52" t="s">
         <v>29</v>
       </c>
@@ -9983,7 +10028,7 @@
       <c r="H160" s="51"/>
       <c r="I160" s="51"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="52" t="s">
         <v>29</v>
       </c>
@@ -10004,7 +10049,7 @@
       <c r="H161" s="51"/>
       <c r="I161" s="51"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="52" t="s">
         <v>29</v>
       </c>
@@ -10025,7 +10070,7 @@
       <c r="H162" s="51"/>
       <c r="I162" s="51"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="52" t="s">
         <v>29</v>
       </c>
@@ -10038,7 +10083,7 @@
       <c r="H163" s="51"/>
       <c r="I163" s="51"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="52" t="s">
         <v>29</v>
       </c>
@@ -10055,7 +10100,7 @@
       <c r="H164" s="62"/>
       <c r="I164" s="52"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="45" t="s">
         <v>21</v>
       </c>
@@ -10068,830 +10113,830 @@
       <c r="H165" s="45"/>
       <c r="I165" s="45"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A41:K41 A35:J40 K29:K40 D22:N22 E25:E26 A23:N23 L27:N53 F42:K48 A1:N21 A166:N989 A54:D62 F54:N62 A63:N64 D82:D86 E90:E92 F65:N113 J24:N26 F24:H26 A24:D26 A42:D50 C67:C68 C81 A88:D93 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165">
     <cfRule type="containsText" dxfId="354" priority="162" operator="containsText" text="calculate"/>
@@ -12443,114 +12488,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="20" priority="1403">
+    <cfRule type="expression" dxfId="29" priority="1403">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="19" priority="1404">
+    <cfRule type="expression" dxfId="28" priority="1404">
       <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="18" priority="1409">
+    <cfRule type="expression" dxfId="27" priority="1409">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="17" priority="1410">
+    <cfRule type="expression" dxfId="26" priority="1410">
       <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D146" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D146">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" display="mailto:info@agra.org" xr:uid="{2ADBFA35-0BE7-4C47-851B-8BC5A0F70966}"/>
+    <hyperlink ref="C111" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12558,23 +12603,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A267" sqref="A267:C286"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="5" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="5" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>107</v>
       </c>
@@ -12612,7 +12657,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -12645,7 +12690,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -12678,7 +12723,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -12705,7 +12750,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>26</v>
       </c>
@@ -12738,7 +12783,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>26</v>
       </c>
@@ -12771,7 +12816,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -12798,7 +12843,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
@@ -12831,7 +12876,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
@@ -12864,7 +12909,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -12891,7 +12936,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>69</v>
       </c>
@@ -12924,7 +12969,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>69</v>
       </c>
@@ -12957,7 +13002,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>69</v>
       </c>
@@ -12990,7 +13035,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>69</v>
       </c>
@@ -13023,7 +13068,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
@@ -13056,7 +13101,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
@@ -13089,7 +13134,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -13116,7 +13161,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -13143,7 +13188,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
@@ -13176,7 +13221,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>74</v>
       </c>
@@ -13209,7 +13254,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>74</v>
       </c>
@@ -13242,7 +13287,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
@@ -13275,7 +13320,7 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -13302,7 +13347,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>138</v>
       </c>
@@ -13335,7 +13380,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>138</v>
       </c>
@@ -13368,7 +13413,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>138</v>
       </c>
@@ -13401,7 +13446,7 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>138</v>
       </c>
@@ -13434,7 +13479,7 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>138</v>
       </c>
@@ -13467,7 +13512,7 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -13500,7 +13545,7 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>138</v>
       </c>
@@ -13533,7 +13578,7 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>138</v>
       </c>
@@ -13566,7 +13611,7 @@
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>138</v>
       </c>
@@ -13599,7 +13644,7 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>138</v>
       </c>
@@ -13632,7 +13677,7 @@
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -13659,7 +13704,7 @@
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
@@ -13694,7 +13739,7 @@
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>148</v>
       </c>
@@ -13729,7 +13774,7 @@
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>148</v>
       </c>
@@ -13764,7 +13809,7 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>148</v>
       </c>
@@ -13799,7 +13844,7 @@
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -13834,7 +13879,7 @@
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>148</v>
       </c>
@@ -13869,7 +13914,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>148</v>
       </c>
@@ -13904,7 +13949,7 @@
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>148</v>
       </c>
@@ -13939,7 +13984,7 @@
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>148</v>
       </c>
@@ -13974,7 +14019,7 @@
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>148</v>
       </c>
@@ -14009,7 +14054,7 @@
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>148</v>
       </c>
@@ -14044,7 +14089,7 @@
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>148</v>
       </c>
@@ -14079,7 +14124,7 @@
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>148</v>
       </c>
@@ -14114,7 +14159,7 @@
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>148</v>
       </c>
@@ -14149,7 +14194,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>148</v>
       </c>
@@ -14184,7 +14229,7 @@
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>148</v>
       </c>
@@ -14219,7 +14264,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>148</v>
       </c>
@@ -14254,7 +14299,7 @@
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>148</v>
       </c>
@@ -14289,7 +14334,7 @@
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>148</v>
       </c>
@@ -14324,7 +14369,7 @@
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>148</v>
       </c>
@@ -14359,7 +14404,7 @@
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>148</v>
       </c>
@@ -14394,7 +14439,7 @@
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>148</v>
       </c>
@@ -14429,7 +14474,7 @@
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>148</v>
       </c>
@@ -14464,7 +14509,7 @@
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>148</v>
       </c>
@@ -14499,7 +14544,7 @@
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>148</v>
       </c>
@@ -14534,7 +14579,7 @@
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>148</v>
       </c>
@@ -14569,7 +14614,7 @@
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>148</v>
       </c>
@@ -14604,7 +14649,7 @@
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>148</v>
       </c>
@@ -14639,7 +14684,7 @@
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>148</v>
       </c>
@@ -14674,7 +14719,7 @@
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>148</v>
       </c>
@@ -14709,7 +14754,7 @@
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>148</v>
       </c>
@@ -14744,12 +14789,12 @@
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
     </row>
-    <row r="66" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>153</v>
       </c>
@@ -14782,7 +14827,7 @@
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>153</v>
       </c>
@@ -14815,7 +14860,7 @@
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>153</v>
       </c>
@@ -14848,7 +14893,7 @@
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>153</v>
       </c>
@@ -14881,7 +14926,7 @@
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -14908,7 +14953,7 @@
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>154</v>
       </c>
@@ -14941,7 +14986,7 @@
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>154</v>
       </c>
@@ -14974,7 +15019,7 @@
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>154</v>
       </c>
@@ -15007,7 +15052,7 @@
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>154</v>
       </c>
@@ -15040,7 +15085,7 @@
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>154</v>
       </c>
@@ -15073,7 +15118,7 @@
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -15100,7 +15145,7 @@
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>165</v>
       </c>
@@ -15133,7 +15178,7 @@
       <c r="Y78" s="10"/>
       <c r="Z78" s="10"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>165</v>
       </c>
@@ -15166,7 +15211,7 @@
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>165</v>
       </c>
@@ -15199,7 +15244,7 @@
       <c r="Y80" s="10"/>
       <c r="Z80" s="10"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>165</v>
       </c>
@@ -15232,7 +15277,7 @@
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>165</v>
       </c>
@@ -15265,7 +15310,7 @@
       <c r="Y82" s="10"/>
       <c r="Z82" s="10"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>165</v>
       </c>
@@ -15298,7 +15343,7 @@
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>165</v>
       </c>
@@ -15331,7 +15376,7 @@
       <c r="Y84" s="10"/>
       <c r="Z84" s="10"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>165</v>
       </c>
@@ -15364,7 +15409,7 @@
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>165</v>
       </c>
@@ -15397,7 +15442,7 @@
       <c r="Y86" s="10"/>
       <c r="Z86" s="10"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>165</v>
       </c>
@@ -15430,7 +15475,7 @@
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>165</v>
       </c>
@@ -15463,7 +15508,7 @@
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>165</v>
       </c>
@@ -15496,7 +15541,7 @@
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>165</v>
       </c>
@@ -15529,7 +15574,7 @@
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -15556,7 +15601,7 @@
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
         <v>28</v>
       </c>
@@ -15589,7 +15634,7 @@
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>28</v>
       </c>
@@ -15622,7 +15667,7 @@
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -15649,7 +15694,7 @@
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>194</v>
       </c>
@@ -15682,7 +15727,7 @@
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>194</v>
       </c>
@@ -15715,7 +15760,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>194</v>
       </c>
@@ -15748,7 +15793,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>194</v>
       </c>
@@ -15781,7 +15826,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="10"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -15808,7 +15853,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
         <v>199</v>
       </c>
@@ -15841,7 +15886,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="10"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>199</v>
       </c>
@@ -15874,7 +15919,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="10"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>199</v>
       </c>
@@ -15907,7 +15952,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="10"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -15934,7 +15979,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="10"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>27</v>
       </c>
@@ -15967,7 +16012,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="10"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>27</v>
       </c>
@@ -16000,8 +16045,8 @@
       <c r="Y105" s="10"/>
       <c r="Z105" s="10"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>228</v>
       </c>
@@ -16012,7 +16057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>228</v>
       </c>
@@ -16023,7 +16068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>228</v>
       </c>
@@ -16034,8 +16079,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>239</v>
       </c>
@@ -16049,7 +16094,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>239</v>
       </c>
@@ -16063,7 +16108,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -16077,7 +16122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -16091,7 +16136,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -16105,7 +16150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -16119,7 +16164,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -16133,7 +16178,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -16147,7 +16192,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -16161,7 +16206,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -16175,7 +16220,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -16189,7 +16234,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -16203,7 +16248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>239</v>
       </c>
@@ -16217,7 +16262,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -16231,7 +16276,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -16245,7 +16290,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -16259,7 +16304,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -16273,7 +16318,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>239</v>
       </c>
@@ -16287,7 +16332,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -16301,7 +16346,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>239</v>
       </c>
@@ -16315,7 +16360,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -16329,7 +16374,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -16343,7 +16388,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -16357,7 +16402,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>239</v>
       </c>
@@ -16371,7 +16416,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>239</v>
       </c>
@@ -16385,7 +16430,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -16399,7 +16444,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>239</v>
       </c>
@@ -16413,7 +16458,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>239</v>
       </c>
@@ -16427,7 +16472,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -16441,7 +16486,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>239</v>
       </c>
@@ -16455,7 +16500,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>239</v>
       </c>
@@ -16469,7 +16514,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>239</v>
       </c>
@@ -16483,7 +16528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>239</v>
       </c>
@@ -16497,7 +16542,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>239</v>
       </c>
@@ -16511,7 +16556,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>239</v>
       </c>
@@ -16525,7 +16570,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>239</v>
       </c>
@@ -16539,7 +16584,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>239</v>
       </c>
@@ -16553,7 +16598,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>239</v>
       </c>
@@ -16567,7 +16612,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -16581,7 +16626,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>239</v>
       </c>
@@ -16595,7 +16640,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>239</v>
       </c>
@@ -16609,7 +16654,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>239</v>
       </c>
@@ -16623,7 +16668,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -16637,7 +16682,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>239</v>
       </c>
@@ -16651,7 +16696,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>239</v>
       </c>
@@ -16665,7 +16710,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>239</v>
       </c>
@@ -16679,7 +16724,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -16693,7 +16738,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -16707,7 +16752,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>239</v>
       </c>
@@ -16721,7 +16766,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -16735,7 +16780,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>239</v>
       </c>
@@ -16749,7 +16794,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>239</v>
       </c>
@@ -16763,7 +16808,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>239</v>
       </c>
@@ -16777,7 +16822,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>239</v>
       </c>
@@ -16791,7 +16836,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>239</v>
       </c>
@@ -16805,7 +16850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>239</v>
       </c>
@@ -16819,7 +16864,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>239</v>
       </c>
@@ -16833,7 +16878,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>239</v>
       </c>
@@ -16847,7 +16892,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>239</v>
       </c>
@@ -16861,7 +16906,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>239</v>
       </c>
@@ -16875,7 +16920,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>239</v>
       </c>
@@ -16889,7 +16934,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>239</v>
       </c>
@@ -16903,7 +16948,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>239</v>
       </c>
@@ -16917,7 +16962,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>239</v>
       </c>
@@ -16931,7 +16976,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>239</v>
       </c>
@@ -16945,7 +16990,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>239</v>
       </c>
@@ -16959,7 +17004,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>239</v>
       </c>
@@ -16973,7 +17018,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>239</v>
       </c>
@@ -16987,7 +17032,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -17001,7 +17046,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>239</v>
       </c>
@@ -17015,7 +17060,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -17029,7 +17074,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>239</v>
       </c>
@@ -17043,7 +17088,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>239</v>
       </c>
@@ -17057,7 +17102,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>239</v>
       </c>
@@ -17071,7 +17116,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>239</v>
       </c>
@@ -17085,7 +17130,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -17099,7 +17144,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -17113,7 +17158,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>239</v>
       </c>
@@ -17127,7 +17172,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>239</v>
       </c>
@@ -17141,7 +17186,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>239</v>
       </c>
@@ -17155,7 +17200,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>239</v>
       </c>
@@ -17169,7 +17214,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>239</v>
       </c>
@@ -17183,7 +17228,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>239</v>
       </c>
@@ -17197,7 +17242,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>239</v>
       </c>
@@ -17211,7 +17256,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>239</v>
       </c>
@@ -17225,7 +17270,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -17239,7 +17284,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>239</v>
       </c>
@@ -17253,7 +17298,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>239</v>
       </c>
@@ -17267,7 +17312,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>239</v>
       </c>
@@ -17281,7 +17326,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>239</v>
       </c>
@@ -17295,7 +17340,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>239</v>
       </c>
@@ -17309,7 +17354,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>239</v>
       </c>
@@ -17323,7 +17368,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>239</v>
       </c>
@@ -17337,7 +17382,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>239</v>
       </c>
@@ -17351,7 +17396,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>239</v>
       </c>
@@ -17365,7 +17410,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -17379,7 +17424,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>239</v>
       </c>
@@ -17393,7 +17438,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>239</v>
       </c>
@@ -17407,7 +17452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>239</v>
       </c>
@@ -17421,7 +17466,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -17435,7 +17480,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>239</v>
       </c>
@@ -17449,7 +17494,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>239</v>
       </c>
@@ -17463,7 +17508,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -17477,7 +17522,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>239</v>
       </c>
@@ -17491,7 +17536,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>239</v>
       </c>
@@ -17505,7 +17550,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -17519,7 +17564,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>239</v>
       </c>
@@ -17533,7 +17578,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -17547,7 +17592,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -17561,7 +17606,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>239</v>
       </c>
@@ -17575,7 +17620,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -17589,7 +17634,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>239</v>
       </c>
@@ -17603,7 +17648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -17617,7 +17662,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -17631,7 +17676,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -17645,7 +17690,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>239</v>
       </c>
@@ -17659,7 +17704,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -17673,7 +17718,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -17687,7 +17732,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -17701,7 +17746,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -17715,7 +17760,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -17729,7 +17774,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -17743,7 +17788,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -17757,7 +17802,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -17771,7 +17816,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>239</v>
       </c>
@@ -17785,7 +17830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -17799,7 +17844,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -17813,7 +17858,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -17827,7 +17872,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -17841,7 +17886,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17855,7 +17900,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -17869,7 +17914,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -17883,7 +17928,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -17897,7 +17942,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>239</v>
       </c>
@@ -17911,7 +17956,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>239</v>
       </c>
@@ -17925,7 +17970,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>239</v>
       </c>
@@ -17939,7 +17984,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>239</v>
       </c>
@@ -17953,7 +17998,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>239</v>
       </c>
@@ -17967,7 +18012,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>239</v>
       </c>
@@ -17981,7 +18026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>239</v>
       </c>
@@ -17995,7 +18040,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>239</v>
       </c>
@@ -18009,7 +18054,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -18023,7 +18068,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>239</v>
       </c>
@@ -18037,7 +18082,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>239</v>
       </c>
@@ -18051,7 +18096,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -18065,7 +18110,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>239</v>
       </c>
@@ -18079,7 +18124,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>239</v>
       </c>
@@ -18093,7 +18138,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>239</v>
       </c>
@@ -18107,7 +18152,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>239</v>
       </c>
@@ -18121,7 +18166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>239</v>
       </c>
@@ -18135,7 +18180,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>239</v>
       </c>
@@ -18149,7 +18194,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -18163,7 +18208,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -18177,7 +18222,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -18191,7 +18236,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>239</v>
       </c>
@@ -18205,7 +18250,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A267" s="40" t="s">
         <v>581</v>
       </c>
@@ -18216,7 +18261,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A268" s="40" t="s">
         <v>581</v>
       </c>
@@ -18227,7 +18272,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A269" s="40" t="s">
         <v>581</v>
       </c>
@@ -18238,7 +18283,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A270" s="40" t="s">
         <v>588</v>
       </c>
@@ -18249,7 +18294,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A271" s="40" t="s">
         <v>588</v>
       </c>
@@ -18260,7 +18305,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A272" s="40" t="s">
         <v>588</v>
       </c>
@@ -18271,7 +18316,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A273" s="40" t="s">
         <v>588</v>
       </c>
@@ -18282,7 +18327,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A274" s="40" t="s">
         <v>588</v>
       </c>
@@ -18293,7 +18338,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A275" s="40" t="s">
         <v>588</v>
       </c>
@@ -18304,7 +18349,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A276" s="40" t="s">
         <v>588</v>
       </c>
@@ -18315,7 +18360,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A277" s="40" t="s">
         <v>588</v>
       </c>
@@ -18326,7 +18371,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A278" s="40" t="s">
         <v>588</v>
       </c>
@@ -18337,7 +18382,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A279" s="40" t="s">
         <v>588</v>
       </c>
@@ -18348,7 +18393,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A280" s="40" t="s">
         <v>608</v>
       </c>
@@ -18359,7 +18404,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A281" s="40" t="s">
         <v>608</v>
       </c>
@@ -18370,7 +18415,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A282" s="40" t="s">
         <v>608</v>
       </c>
@@ -18381,12 +18426,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="41"/>
       <c r="B283" s="41"/>
       <c r="C283" s="41"/>
     </row>
-    <row r="284" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="41" t="s">
         <v>615</v>
       </c>
@@ -18397,7 +18442,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="41" t="s">
         <v>615</v>
       </c>
@@ -18408,7 +18453,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="41" t="s">
         <v>615</v>
       </c>
@@ -18419,47 +18464,201 @@
         <v>618</v>
       </c>
     </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="B288" s="63" t="s">
+        <v>695</v>
+      </c>
+      <c r="C288" s="63" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>694</v>
+      </c>
+      <c r="B289" t="s">
+        <v>696</v>
+      </c>
+      <c r="C289" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>694</v>
+      </c>
+      <c r="B290" t="s">
+        <v>697</v>
+      </c>
+      <c r="C290" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>694</v>
+      </c>
+      <c r="B291" t="s">
+        <v>698</v>
+      </c>
+      <c r="C291" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>694</v>
+      </c>
+      <c r="B292" t="s">
+        <v>699</v>
+      </c>
+      <c r="C292" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>694</v>
+      </c>
+      <c r="B293" t="s">
+        <v>700</v>
+      </c>
+      <c r="C293" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>694</v>
+      </c>
+      <c r="B294" t="s">
+        <v>701</v>
+      </c>
+      <c r="C294" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>694</v>
+      </c>
+      <c r="B295" t="s">
+        <v>702</v>
+      </c>
+      <c r="C295" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>694</v>
+      </c>
+      <c r="B296" t="s">
+        <v>703</v>
+      </c>
+      <c r="C296" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>694</v>
+      </c>
+      <c r="B297" t="s">
+        <v>704</v>
+      </c>
+      <c r="C297" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>694</v>
+      </c>
+      <c r="B298" t="s">
+        <v>705</v>
+      </c>
+      <c r="C298" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>694</v>
+      </c>
+      <c r="B299" t="s">
+        <v>706</v>
+      </c>
+      <c r="C299" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>694</v>
+      </c>
+      <c r="B300" t="s">
+        <v>707</v>
+      </c>
+      <c r="C300" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>694</v>
+      </c>
+      <c r="B301" t="s">
+        <v>708</v>
+      </c>
+      <c r="C301" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="23" priority="362">
+    <cfRule type="expression" dxfId="2" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="22" priority="363">
+    <cfRule type="expression" dxfId="1" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="21" priority="773">
+    <cfRule type="expression" dxfId="0" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18469,7 +18668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -18477,17 +18676,17 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18516,7 +18715,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -18525,7 +18724,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44476.570022222222</v>
+        <v>44476.590286921295</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>214</v>
@@ -18559,1004 +18758,1004 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\Revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F1E41-1074-41C8-9B8E-0BFD09A94B2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$41</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2239,7 +2240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -2596,87 +2597,6 @@
   </cellStyles>
   <dxfs count="355">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
@@ -2871,6 +2791,87 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6454,32 +6455,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N989"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
-    <col min="9" max="9" width="73.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="14" width="29.6640625" customWidth="1"/>
-    <col min="15" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="73.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="14" width="29.7109375" customWidth="1"/>
+    <col min="15" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -6551,7 +6552,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -6573,7 +6574,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -6595,7 +6596,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -6617,7 +6618,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -6639,7 +6640,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -6657,7 +6658,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6675,7 +6676,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -6721,7 +6722,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -6743,7 +6744,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -6765,7 +6766,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -6787,7 +6788,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -6809,7 +6810,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -6831,7 +6832,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -6853,7 +6854,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -6879,7 +6880,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -6903,7 +6904,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -6931,7 +6932,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -6955,7 +6956,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -6973,7 +6974,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6986,7 +6987,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -7010,7 +7011,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -7031,7 +7032,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>225</v>
       </c>
@@ -7059,7 +7060,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -7081,7 +7082,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -7109,7 +7110,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -7134,7 +7135,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -7162,7 +7163,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -7184,7 +7185,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -7204,7 +7205,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -7232,7 +7233,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -7260,7 +7261,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -7286,7 +7287,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
@@ -7310,7 +7311,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>49</v>
       </c>
@@ -7334,7 +7335,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -7360,7 +7361,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>55</v>
       </c>
@@ -7386,7 +7387,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
@@ -7414,7 +7415,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
@@ -7444,7 +7445,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>68</v>
       </c>
@@ -7468,7 +7469,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -7492,7 +7493,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>29</v>
       </c>
@@ -7514,7 +7515,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7533,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7548,7 +7549,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>14</v>
       </c>
@@ -7572,7 +7573,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>29</v>
       </c>
@@ -7594,7 +7595,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>78</v>
       </c>
@@ -7618,7 +7619,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>72</v>
       </c>
@@ -7648,7 +7649,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>72</v>
       </c>
@@ -7678,7 +7679,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -7704,7 +7705,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>87</v>
       </c>
@@ -7732,7 +7733,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>237</v>
       </c>
@@ -7760,7 +7761,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
@@ -7784,7 +7785,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
@@ -7808,7 +7809,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>18</v>
       </c>
@@ -7832,7 +7833,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
@@ -7856,7 +7857,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
@@ -7878,7 +7879,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -7900,7 +7901,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
@@ -7924,7 +7925,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>101</v>
       </c>
@@ -7950,7 +7951,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
@@ -7974,7 +7975,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
@@ -8000,7 +8001,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
@@ -8018,7 +8019,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
@@ -8040,7 +8041,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -8056,7 +8057,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -8080,7 +8081,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -8344,7 +8345,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8384,7 +8385,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>29</v>
       </c>
@@ -8577,7 +8578,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>29</v>
       </c>
@@ -8601,7 +8602,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -8619,7 +8620,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -8659,7 +8660,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>29</v>
       </c>
@@ -8680,7 +8681,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>14</v>
       </c>
@@ -8702,7 +8703,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
@@ -8724,7 +8725,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
         <v>29</v>
       </c>
@@ -8746,7 +8747,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
         <v>29</v>
       </c>
@@ -8768,7 +8769,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
         <v>29</v>
       </c>
@@ -8790,7 +8791,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>21</v>
       </c>
@@ -8808,7 +8809,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -8824,7 +8825,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
         <v>14</v>
       </c>
@@ -8846,7 +8847,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
         <v>29</v>
       </c>
@@ -9066,7 +9067,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
         <v>21</v>
       </c>
@@ -9084,7 +9085,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -9100,7 +9101,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
         <v>14</v>
       </c>
@@ -9122,7 +9123,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>29</v>
       </c>
@@ -9146,7 +9147,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>29</v>
       </c>
@@ -9170,7 +9171,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>29</v>
       </c>
@@ -9194,7 +9195,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
         <v>21</v>
       </c>
@@ -9212,7 +9213,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
@@ -9228,7 +9229,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
     </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
@@ -9244,7 +9245,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="37" t="s">
         <v>14</v>
       </c>
@@ -9268,7 +9269,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="s">
         <v>49</v>
       </c>
@@ -9292,7 +9293,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="s">
         <v>49</v>
       </c>
@@ -9316,7 +9317,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
     </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="s">
         <v>29</v>
       </c>
@@ -9338,7 +9339,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
     </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="s">
         <v>58</v>
       </c>
@@ -9366,7 +9367,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
     </row>
-    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="s">
         <v>641</v>
       </c>
@@ -9388,7 +9389,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="49"/>
@@ -9404,7 +9405,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
     </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
         <v>21</v>
       </c>
@@ -9422,7 +9423,7 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -9552,14 +9553,14 @@
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45" t="s">
         <v>14</v>
       </c>
@@ -9583,7 +9584,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="51" t="s">
         <v>29</v>
       </c>
@@ -9607,7 +9608,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="54" t="s">
         <v>29</v>
       </c>
@@ -9631,7 +9632,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="53" t="s">
         <v>29</v>
       </c>
@@ -9653,7 +9654,7 @@
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
     </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
         <v>29</v>
       </c>
@@ -9672,7 +9673,7 @@
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
     </row>
-    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
         <v>29</v>
       </c>
@@ -9691,7 +9692,7 @@
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
     </row>
-    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
         <v>29</v>
       </c>
@@ -9710,7 +9711,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
         <v>29</v>
       </c>
@@ -9734,7 +9735,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="52" t="s">
         <v>29</v>
       </c>
@@ -9755,7 +9756,7 @@
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="52" t="s">
         <v>29</v>
       </c>
@@ -9776,7 +9777,7 @@
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
     </row>
-    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="52" t="s">
         <v>29</v>
       </c>
@@ -9797,7 +9798,7 @@
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
     </row>
-    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="52" t="s">
         <v>29</v>
       </c>
@@ -9818,7 +9819,7 @@
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
     </row>
-    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="52" t="s">
         <v>29</v>
       </c>
@@ -9839,7 +9840,7 @@
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
     </row>
-    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="52" t="s">
         <v>29</v>
       </c>
@@ -9860,7 +9861,7 @@
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
     </row>
-    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="52" t="s">
         <v>29</v>
       </c>
@@ -9881,7 +9882,7 @@
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
     </row>
-    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="52" t="s">
         <v>29</v>
       </c>
@@ -9902,7 +9903,7 @@
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="52" t="s">
         <v>29</v>
       </c>
@@ -9923,7 +9924,7 @@
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
     </row>
-    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="52" t="s">
         <v>29</v>
       </c>
@@ -9944,7 +9945,7 @@
       <c r="H156" s="51"/>
       <c r="I156" s="51"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="52" t="s">
         <v>29</v>
       </c>
@@ -9965,7 +9966,7 @@
       <c r="H157" s="51"/>
       <c r="I157" s="51"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="52" t="s">
         <v>29</v>
       </c>
@@ -9986,7 +9987,7 @@
       <c r="H158" s="51"/>
       <c r="I158" s="51"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="52" t="s">
         <v>29</v>
       </c>
@@ -10007,7 +10008,7 @@
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
     </row>
-    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="52" t="s">
         <v>29</v>
       </c>
@@ -10028,7 +10029,7 @@
       <c r="H160" s="51"/>
       <c r="I160" s="51"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="52" t="s">
         <v>29</v>
       </c>
@@ -10049,7 +10050,7 @@
       <c r="H161" s="51"/>
       <c r="I161" s="51"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="52" t="s">
         <v>29</v>
       </c>
@@ -10070,7 +10071,7 @@
       <c r="H162" s="51"/>
       <c r="I162" s="51"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="52" t="s">
         <v>29</v>
       </c>
@@ -10083,7 +10084,7 @@
       <c r="H163" s="51"/>
       <c r="I163" s="51"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="52" t="s">
         <v>29</v>
       </c>
@@ -10100,7 +10101,7 @@
       <c r="H164" s="62"/>
       <c r="I164" s="52"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="45" t="s">
         <v>21</v>
       </c>
@@ -10113,830 +10114,830 @@
       <c r="H165" s="45"/>
       <c r="I165" s="45"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A41:K41 A35:J40 K29:K40 D22:N22 E25:E26 A23:N23 L27:N53 F42:K48 A1:N21 A166:N989 A54:D62 F54:N62 A63:N64 D82:D86 E90:E92 F65:N113 J24:N26 F24:H26 A24:D26 A42:D50 C67:C68 C81 A88:D93 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165">
     <cfRule type="containsText" dxfId="354" priority="162" operator="containsText" text="calculate"/>
@@ -12488,114 +12489,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="29" priority="1403">
+    <cfRule type="expression" dxfId="20" priority="1403">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="28" priority="1404">
+    <cfRule type="expression" dxfId="19" priority="1404">
       <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="27" priority="1409">
+    <cfRule type="expression" dxfId="18" priority="1409">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="26" priority="1410">
+    <cfRule type="expression" dxfId="17" priority="1410">
       <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D146">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D146" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="C111" r:id="rId1" display="mailto:info@agra.org" xr:uid="{2ADBFA35-0BE7-4C47-851B-8BC5A0F70966}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12603,23 +12604,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
-    <col min="5" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="5" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>107</v>
       </c>
@@ -12657,7 +12658,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -12690,7 +12691,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -12723,7 +12724,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -12750,7 +12751,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>26</v>
       </c>
@@ -12783,7 +12784,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>26</v>
       </c>
@@ -12816,7 +12817,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -12843,7 +12844,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
@@ -12876,7 +12877,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
@@ -12909,7 +12910,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -12936,7 +12937,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>69</v>
       </c>
@@ -12969,7 +12970,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>69</v>
       </c>
@@ -13002,7 +13003,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>69</v>
       </c>
@@ -13035,7 +13036,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>69</v>
       </c>
@@ -13068,7 +13069,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
@@ -13101,7 +13102,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
@@ -13134,7 +13135,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -13161,7 +13162,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -13188,7 +13189,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
@@ -13221,7 +13222,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>74</v>
       </c>
@@ -13254,7 +13255,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>74</v>
       </c>
@@ -13287,7 +13288,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
@@ -13320,7 +13321,7 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -13347,7 +13348,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>138</v>
       </c>
@@ -13380,7 +13381,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>138</v>
       </c>
@@ -13413,7 +13414,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>138</v>
       </c>
@@ -13446,7 +13447,7 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>138</v>
       </c>
@@ -13479,7 +13480,7 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>138</v>
       </c>
@@ -13512,7 +13513,7 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -13545,7 +13546,7 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>138</v>
       </c>
@@ -13578,7 +13579,7 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>138</v>
       </c>
@@ -13611,7 +13612,7 @@
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>138</v>
       </c>
@@ -13644,7 +13645,7 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>138</v>
       </c>
@@ -13677,7 +13678,7 @@
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -13704,7 +13705,7 @@
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
@@ -13739,7 +13740,7 @@
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>148</v>
       </c>
@@ -13774,7 +13775,7 @@
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>148</v>
       </c>
@@ -13809,7 +13810,7 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>148</v>
       </c>
@@ -13844,7 +13845,7 @@
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>148</v>
       </c>
@@ -13879,7 +13880,7 @@
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>148</v>
       </c>
@@ -13914,7 +13915,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>148</v>
       </c>
@@ -13949,7 +13950,7 @@
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>148</v>
       </c>
@@ -13984,7 +13985,7 @@
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>148</v>
       </c>
@@ -14019,7 +14020,7 @@
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>148</v>
       </c>
@@ -14054,7 +14055,7 @@
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>148</v>
       </c>
@@ -14089,7 +14090,7 @@
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>148</v>
       </c>
@@ -14124,7 +14125,7 @@
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>148</v>
       </c>
@@ -14159,7 +14160,7 @@
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>148</v>
       </c>
@@ -14194,7 +14195,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>148</v>
       </c>
@@ -14229,7 +14230,7 @@
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>148</v>
       </c>
@@ -14264,7 +14265,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>148</v>
       </c>
@@ -14299,7 +14300,7 @@
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>148</v>
       </c>
@@ -14334,7 +14335,7 @@
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>148</v>
       </c>
@@ -14369,7 +14370,7 @@
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>148</v>
       </c>
@@ -14404,7 +14405,7 @@
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>148</v>
       </c>
@@ -14439,7 +14440,7 @@
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>148</v>
       </c>
@@ -14474,7 +14475,7 @@
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>148</v>
       </c>
@@ -14509,7 +14510,7 @@
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>148</v>
       </c>
@@ -14544,7 +14545,7 @@
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>148</v>
       </c>
@@ -14579,7 +14580,7 @@
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>148</v>
       </c>
@@ -14614,7 +14615,7 @@
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>148</v>
       </c>
@@ -14649,7 +14650,7 @@
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>148</v>
       </c>
@@ -14684,7 +14685,7 @@
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>148</v>
       </c>
@@ -14719,7 +14720,7 @@
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>148</v>
       </c>
@@ -14754,7 +14755,7 @@
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>148</v>
       </c>
@@ -14789,12 +14790,12 @@
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
     </row>
-    <row r="66" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>153</v>
       </c>
@@ -14827,7 +14828,7 @@
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>153</v>
       </c>
@@ -14860,7 +14861,7 @@
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>153</v>
       </c>
@@ -14893,7 +14894,7 @@
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
         <v>153</v>
       </c>
@@ -14926,7 +14927,7 @@
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -14953,7 +14954,7 @@
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>154</v>
       </c>
@@ -14986,7 +14987,7 @@
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>154</v>
       </c>
@@ -15019,7 +15020,7 @@
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>154</v>
       </c>
@@ -15052,7 +15053,7 @@
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>154</v>
       </c>
@@ -15085,7 +15086,7 @@
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>154</v>
       </c>
@@ -15118,7 +15119,7 @@
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -15145,7 +15146,7 @@
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>165</v>
       </c>
@@ -15178,7 +15179,7 @@
       <c r="Y78" s="10"/>
       <c r="Z78" s="10"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>165</v>
       </c>
@@ -15211,7 +15212,7 @@
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>165</v>
       </c>
@@ -15244,7 +15245,7 @@
       <c r="Y80" s="10"/>
       <c r="Z80" s="10"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>165</v>
       </c>
@@ -15277,7 +15278,7 @@
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
         <v>165</v>
       </c>
@@ -15310,7 +15311,7 @@
       <c r="Y82" s="10"/>
       <c r="Z82" s="10"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>165</v>
       </c>
@@ -15343,7 +15344,7 @@
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>165</v>
       </c>
@@ -15376,7 +15377,7 @@
       <c r="Y84" s="10"/>
       <c r="Z84" s="10"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>165</v>
       </c>
@@ -15409,7 +15410,7 @@
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>165</v>
       </c>
@@ -15442,7 +15443,7 @@
       <c r="Y86" s="10"/>
       <c r="Z86" s="10"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>165</v>
       </c>
@@ -15475,7 +15476,7 @@
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
         <v>165</v>
       </c>
@@ -15508,7 +15509,7 @@
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>165</v>
       </c>
@@ -15541,7 +15542,7 @@
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>165</v>
       </c>
@@ -15574,7 +15575,7 @@
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -15601,7 +15602,7 @@
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>28</v>
       </c>
@@ -15634,7 +15635,7 @@
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>28</v>
       </c>
@@ -15667,7 +15668,7 @@
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -15694,7 +15695,7 @@
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>194</v>
       </c>
@@ -15727,7 +15728,7 @@
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>194</v>
       </c>
@@ -15760,7 +15761,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>194</v>
       </c>
@@ -15793,7 +15794,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>194</v>
       </c>
@@ -15826,7 +15827,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="10"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -15853,7 +15854,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>199</v>
       </c>
@@ -15886,7 +15887,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="10"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>199</v>
       </c>
@@ -15919,7 +15920,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="10"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>199</v>
       </c>
@@ -15952,7 +15953,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="10"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -15979,7 +15980,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="10"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>27</v>
       </c>
@@ -16012,7 +16013,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="10"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>27</v>
       </c>
@@ -16045,8 +16046,8 @@
       <c r="Y105" s="10"/>
       <c r="Z105" s="10"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>228</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>228</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>228</v>
       </c>
@@ -16079,8 +16080,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>239</v>
       </c>
@@ -16094,7 +16095,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>239</v>
       </c>
@@ -16108,7 +16109,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -16122,7 +16123,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -16136,7 +16137,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -16150,7 +16151,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -16164,7 +16165,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -16220,7 +16221,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -16234,7 +16235,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>239</v>
       </c>
@@ -16262,7 +16263,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -16276,7 +16277,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -16290,7 +16291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -16304,7 +16305,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>239</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -16346,7 +16347,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>239</v>
       </c>
@@ -16360,7 +16361,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -16388,7 +16389,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>239</v>
       </c>
@@ -16416,7 +16417,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>239</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>239</v>
       </c>
@@ -16458,7 +16459,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>239</v>
       </c>
@@ -16472,7 +16473,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -16486,7 +16487,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>239</v>
       </c>
@@ -16500,7 +16501,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>239</v>
       </c>
@@ -16514,7 +16515,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>239</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>239</v>
       </c>
@@ -16542,7 +16543,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>239</v>
       </c>
@@ -16556,7 +16557,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>239</v>
       </c>
@@ -16570,7 +16571,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>239</v>
       </c>
@@ -16584,7 +16585,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>239</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>239</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -16626,7 +16627,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>239</v>
       </c>
@@ -16640,7 +16641,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>239</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>239</v>
       </c>
@@ -16668,7 +16669,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -16682,7 +16683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>239</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>239</v>
       </c>
@@ -16710,7 +16711,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>239</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -16738,7 +16739,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -16752,7 +16753,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>239</v>
       </c>
@@ -16766,7 +16767,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -16780,7 +16781,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>239</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>239</v>
       </c>
@@ -16808,7 +16809,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>239</v>
       </c>
@@ -16822,7 +16823,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>239</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>239</v>
       </c>
@@ -16850,7 +16851,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>239</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>239</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>239</v>
       </c>
@@ -16892,7 +16893,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>239</v>
       </c>
@@ -16906,7 +16907,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>239</v>
       </c>
@@ -16920,7 +16921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>239</v>
       </c>
@@ -16934,7 +16935,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>239</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>239</v>
       </c>
@@ -16962,7 +16963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>239</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>239</v>
       </c>
@@ -16990,7 +16991,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>239</v>
       </c>
@@ -17004,7 +17005,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>239</v>
       </c>
@@ -17018,7 +17019,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>239</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -17046,7 +17047,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>239</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>239</v>
       </c>
@@ -17088,7 +17089,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>239</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>239</v>
       </c>
@@ -17116,7 +17117,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>239</v>
       </c>
@@ -17130,7 +17131,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -17144,7 +17145,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -17158,7 +17159,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>239</v>
       </c>
@@ -17172,7 +17173,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>239</v>
       </c>
@@ -17186,7 +17187,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>239</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>239</v>
       </c>
@@ -17214,7 +17215,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>239</v>
       </c>
@@ -17228,7 +17229,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>239</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>239</v>
       </c>
@@ -17256,7 +17257,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>239</v>
       </c>
@@ -17270,7 +17271,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -17284,7 +17285,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>239</v>
       </c>
@@ -17298,7 +17299,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>239</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>239</v>
       </c>
@@ -17326,7 +17327,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>239</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>239</v>
       </c>
@@ -17354,7 +17355,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>239</v>
       </c>
@@ -17368,7 +17369,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>239</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>239</v>
       </c>
@@ -17396,7 +17397,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>239</v>
       </c>
@@ -17410,7 +17411,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>239</v>
       </c>
@@ -17438,7 +17439,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>239</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>239</v>
       </c>
@@ -17466,7 +17467,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>239</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>239</v>
       </c>
@@ -17508,7 +17509,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>239</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>239</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -17564,7 +17565,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>239</v>
       </c>
@@ -17578,7 +17579,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -17592,7 +17593,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -17606,7 +17607,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>239</v>
       </c>
@@ -17620,7 +17621,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -17634,7 +17635,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>239</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -17676,7 +17677,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -17690,7 +17691,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>239</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -17718,7 +17719,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -17732,7 +17733,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -17760,7 +17761,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -17774,7 +17775,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -17788,7 +17789,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -17802,7 +17803,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>239</v>
       </c>
@@ -17830,7 +17831,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -17858,7 +17859,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -17886,7 +17887,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -17928,7 +17929,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -17942,7 +17943,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>239</v>
       </c>
@@ -17956,7 +17957,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>239</v>
       </c>
@@ -17970,7 +17971,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>239</v>
       </c>
@@ -17984,7 +17985,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>239</v>
       </c>
@@ -17998,7 +17999,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>239</v>
       </c>
@@ -18012,7 +18013,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>239</v>
       </c>
@@ -18026,7 +18027,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>239</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>239</v>
       </c>
@@ -18054,7 +18055,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -18068,7 +18069,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>239</v>
       </c>
@@ -18082,7 +18083,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>239</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -18110,7 +18111,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>239</v>
       </c>
@@ -18124,7 +18125,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>239</v>
       </c>
@@ -18138,7 +18139,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>239</v>
       </c>
@@ -18152,7 +18153,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>239</v>
       </c>
@@ -18166,7 +18167,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>239</v>
       </c>
@@ -18180,7 +18181,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>239</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -18222,7 +18223,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -18236,7 +18237,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>239</v>
       </c>
@@ -18250,7 +18251,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="40" t="s">
         <v>581</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="40" t="s">
         <v>581</v>
       </c>
@@ -18272,7 +18273,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="40" t="s">
         <v>581</v>
       </c>
@@ -18283,7 +18284,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="40" t="s">
         <v>588</v>
       </c>
@@ -18294,7 +18295,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="40" t="s">
         <v>588</v>
       </c>
@@ -18305,7 +18306,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="40" t="s">
         <v>588</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="40" t="s">
         <v>588</v>
       </c>
@@ -18327,7 +18328,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="40" t="s">
         <v>588</v>
       </c>
@@ -18338,7 +18339,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="40" t="s">
         <v>588</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="40" t="s">
         <v>588</v>
       </c>
@@ -18360,7 +18361,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="40" t="s">
         <v>588</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="40" t="s">
         <v>588</v>
       </c>
@@ -18382,7 +18383,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="40" t="s">
         <v>588</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="40" t="s">
         <v>608</v>
       </c>
@@ -18404,7 +18405,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="40" t="s">
         <v>608</v>
       </c>
@@ -18415,7 +18416,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="40" t="s">
         <v>608</v>
       </c>
@@ -18426,12 +18427,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A283" s="41"/>
       <c r="B283" s="41"/>
       <c r="C283" s="41"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A284" s="41" t="s">
         <v>615</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A285" s="41" t="s">
         <v>615</v>
       </c>
@@ -18453,7 +18454,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A286" s="41" t="s">
         <v>615</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="63" t="s">
         <v>694</v>
       </c>
@@ -18475,7 +18476,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>694</v>
       </c>
@@ -18486,7 +18487,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>694</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>694</v>
       </c>
@@ -18508,7 +18509,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>694</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>694</v>
       </c>
@@ -18530,7 +18531,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>694</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>694</v>
       </c>
@@ -18552,7 +18553,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>694</v>
       </c>
@@ -18563,7 +18564,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>694</v>
       </c>
@@ -18574,7 +18575,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>694</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>694</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>694</v>
       </c>
@@ -18607,7 +18608,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>694</v>
       </c>
@@ -18620,45 +18621,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="2" priority="362">
+    <cfRule type="expression" dxfId="23" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="1" priority="363">
+    <cfRule type="expression" dxfId="22" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="0" priority="773">
+    <cfRule type="expression" dxfId="21" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18668,7 +18669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -18676,17 +18677,17 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18715,7 +18716,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -18724,7 +18725,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44476.590286921295</v>
+        <v>44476.578758796299</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>214</v>
@@ -18758,1004 +18759,1004 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="709">
   <si>
     <t>type</t>
   </si>
@@ -2594,6 +2594,137 @@
   <dxfs count="355">
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -2611,87 +2742,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
@@ -5862,16 +5912,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -6011,16 +6051,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -6041,36 +6071,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6452,13 +6452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N989"/>
+  <dimension ref="A1:N990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6655,42 +6655,38 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -6705,7 +6701,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -6727,7 +6723,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>528</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -6749,10 +6745,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>528</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>529</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
@@ -6767,36 +6763,36 @@
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -6812,13 +6808,13 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -6834,21 +6830,17 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -6860,19 +6852,21 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>462</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -6884,23 +6878,19 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -6910,21 +6900,25 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>465</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -6934,14 +6928,20 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+    <row r="20" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -6953,6 +6953,11 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6966,19 +6971,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -6990,20 +6984,23 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -7012,23 +7009,16 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="11"/>
@@ -7040,17 +7030,23 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>530</v>
+        <v>226</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="11"/>
@@ -7060,55 +7056,52 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>530</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>231</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="6"/>
+      <c r="K27" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -7118,47 +7111,50 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>38</v>
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -7168,14 +7164,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -7184,26 +7182,18 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
+      <c r="A31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>457</v>
-      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -7216,10 +7206,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
@@ -7244,12 +7234,14 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="28" t="s">
@@ -7266,23 +7258,25 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>526</v>
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G34" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -7293,8 +7287,8 @@
       <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
+      <c r="B35" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
@@ -7305,7 +7299,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="3" t="s">
-        <v>527</v>
+        <v>50</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -7314,25 +7308,23 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
+      <c r="A36" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -7341,13 +7333,13 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>44</v>
@@ -7367,25 +7359,23 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -7395,26 +7385,24 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>531</v>
+        <v>61</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -7425,21 +7413,27 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -7449,13 +7443,13 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
@@ -7472,18 +7466,20 @@
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>29</v>
+      <c r="A42" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -7495,10 +7491,14 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="16"/>
@@ -7512,7 +7512,9 @@
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -7528,19 +7530,11 @@
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>534</v>
-      </c>
+      <c r="A45" s="12"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="16"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -7551,18 +7545,20 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -7573,21 +7569,19 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>78</v>
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F47" s="16"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -7599,30 +7593,24 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="F48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -7632,13 +7620,13 @@
         <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -7659,39 +7647,43 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="K50" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>44</v>
@@ -7703,9 +7695,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -7713,16 +7703,16 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
@@ -7732,7 +7722,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -7741,23 +7731,27 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>532</v>
+        <v>223</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -7768,13 +7762,13 @@
         <v>18</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>473</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -7792,21 +7786,21 @@
         <v>18</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>92</v>
+        <v>473</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>474</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -7816,56 +7810,58 @@
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -7881,17 +7877,15 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -7905,21 +7899,19 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -7931,19 +7923,21 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -7955,21 +7949,19 @@
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>482</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>483</v>
+        <v>105</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -7981,13 +7973,21 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -7999,14 +7999,10 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -8020,9 +8016,15 @@
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -8036,19 +8038,11 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -8059,18 +8053,20 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -8081,28 +8077,24 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="30" t="s">
-        <v>504</v>
-      </c>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -8112,10 +8104,10 @@
         <v>486</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>44</v>
@@ -8127,7 +8119,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -8135,65 +8127,63 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
-        <v>49</v>
+        <v>486</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>488</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="30" t="s">
-        <v>507</v>
-      </c>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="30" t="s">
+        <v>505</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>490</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="30" t="s">
+        <v>507</v>
+      </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="30" t="s">
-        <v>506</v>
-      </c>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>486</v>
+        <v>29</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>44</v>
@@ -8204,20 +8194,24 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="30" t="s">
+        <v>506</v>
+      </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>486</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>44</v>
@@ -8235,13 +8229,13 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>62</v>
+        <v>486</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
@@ -8262,10 +8256,10 @@
         <v>62</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>44</v>
@@ -8286,10 +8280,10 @@
         <v>62</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>44</v>
@@ -8307,11 +8301,17 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -8324,9 +8324,11 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -8340,19 +8342,11 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>538</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -8363,18 +8357,20 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>538</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -8385,22 +8381,19 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -8415,10 +8408,10 @@
         <v>55</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>44</v>
@@ -8440,10 +8433,10 @@
         <v>55</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>44</v>
@@ -8465,10 +8458,10 @@
         <v>55</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D84" s="30" t="s">
         <v>44</v>
@@ -8490,16 +8483,13 @@
         <v>55</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>515</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>71</v>
@@ -8508,68 +8498,72 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="30" t="s">
-        <v>524</v>
-      </c>
+      <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
-        <v>49</v>
+      <c r="A86" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="F86" s="3"/>
+        <v>514</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="33" t="s">
-        <v>523</v>
-      </c>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="30" t="s">
+        <v>524</v>
+      </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="D87" s="30"/>
+        <v>516</v>
+      </c>
+      <c r="C87" s="31"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="33" t="s">
+        <v>523</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>540</v>
+      <c r="B88" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>522</v>
       </c>
       <c r="D88" s="30"/>
-      <c r="E88" s="35" t="s">
-        <v>539</v>
-      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -8580,14 +8574,20 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+    <row r="89" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="D89" s="30"/>
+      <c r="E89" s="35" t="s">
+        <v>539</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -8617,7 +8617,9 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -8633,19 +8635,11 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>543</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="35" t="s">
-        <v>546</v>
-      </c>
+      <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -8656,17 +8650,20 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D93" s="3"/>
+      <c r="E93" s="35" t="s">
+        <v>546</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -8679,16 +8676,15 @@
     </row>
     <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C94" t="s">
-        <v>548</v>
+        <v>544</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -8699,15 +8695,15 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="C95" t="s">
+        <v>548</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8721,15 +8717,15 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C96" t="s">
-        <v>552</v>
+      <c r="B96" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>550</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8748,10 +8744,10 @@
         <v>29</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C97" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8770,10 +8766,10 @@
         <v>29</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C98" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8788,11 +8784,15 @@
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C99" t="s">
+        <v>556</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -8806,7 +8806,9 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8821,16 +8823,10 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="C101" t="s">
-        <v>558</v>
-      </c>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -8845,13 +8841,13 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>560</v>
+        <v>557</v>
+      </c>
+      <c r="C102" t="s">
+        <v>558</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8865,15 +8861,15 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>563</v>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>560</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8889,13 +8885,13 @@
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8911,13 +8907,13 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8933,13 +8929,13 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>29</v>
+        <v>567</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8958,10 +8954,10 @@
         <v>29</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8980,10 +8976,10 @@
         <v>29</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -9002,10 +8998,10 @@
         <v>29</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>113</v>
+        <v>574</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -9024,10 +9020,10 @@
         <v>29</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>577</v>
+        <v>113</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -9046,10 +9042,10 @@
         <v>29</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>578</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9063,12 +9059,16 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>580</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -9081,10 +9081,12 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -9097,22 +9099,16 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="36" t="s">
-        <v>619</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>620</v>
-      </c>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -9120,19 +9116,17 @@
       <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>622</v>
+      <c r="A115" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>620</v>
       </c>
       <c r="D115" s="41"/>
-      <c r="E115" s="33" t="s">
-        <v>623</v>
-      </c>
+      <c r="E115" s="41"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="41"/>
@@ -9148,14 +9142,14 @@
         <v>29</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C116" s="31" t="s">
         <v>622</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
@@ -9172,14 +9166,14 @@
         <v>29</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
@@ -9192,13 +9186,19 @@
       <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
+      <c r="A118" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>627</v>
+      </c>
       <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
+      <c r="E118" s="33" t="s">
+        <v>628</v>
+      </c>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="41"/>
@@ -9210,9 +9210,11 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="41"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
+      <c r="A119" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
       <c r="F119" s="41"/>
@@ -9242,23 +9244,15 @@
       <c r="N120" s="3"/>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="36" t="s">
-        <v>629</v>
-      </c>
-      <c r="C121" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -9266,23 +9260,23 @@
       <c r="N121" s="3"/>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="43"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="37" t="s">
-        <v>632</v>
-      </c>
+      <c r="A122" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -9294,7 +9288,7 @@
         <v>49</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C123" s="44" t="s">
         <v>16</v>
@@ -9305,7 +9299,7 @@
       <c r="G123" s="41"/>
       <c r="H123" s="41"/>
       <c r="I123" s="37" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -9315,20 +9309,22 @@
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="C124" s="45" t="s">
-        <v>636</v>
+        <v>633</v>
+      </c>
+      <c r="C124" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="D124" s="43"/>
       <c r="E124" s="45"/>
       <c r="F124" s="37"/>
       <c r="G124" s="41"/>
       <c r="H124" s="41"/>
-      <c r="I124" s="37"/>
+      <c r="I124" s="37" t="s">
+        <v>634</v>
+      </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -9337,25 +9333,19 @@
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>637</v>
-      </c>
-      <c r="C125" s="46" t="s">
-        <v>638</v>
-      </c>
-      <c r="D125" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="43"/>
+        <v>635</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="D125" s="43"/>
+      <c r="E125" s="45"/>
       <c r="F125" s="37"/>
-      <c r="G125" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="H125" s="41" t="s">
-        <v>640</v>
-      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
       <c r="I125" s="37"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -9365,19 +9355,25 @@
     </row>
     <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43" t="s">
-        <v>641</v>
+        <v>58</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="D126" s="47"/>
+        <v>637</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>44</v>
+      </c>
       <c r="E126" s="43"/>
       <c r="F126" s="37"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
+      <c r="G126" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="H126" s="41" t="s">
+        <v>640</v>
+      </c>
       <c r="I126" s="37"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -9386,9 +9382,15 @@
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="48"/>
+      <c r="A127" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>643</v>
+      </c>
       <c r="D127" s="47"/>
       <c r="E127" s="43"/>
       <c r="F127" s="37"/>
@@ -9402,24 +9404,33 @@
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="37"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -9427,15 +9438,6 @@
       <c r="N129" s="3"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="C130" s="49" t="s">
-        <v>645</v>
-      </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -9443,17 +9445,14 @@
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>649</v>
+      <c r="A131" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>645</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -9463,16 +9462,16 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
-        <v>29</v>
+        <v>646</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -9481,11 +9480,18 @@
       <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
+      <c r="A133" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>652</v>
+      </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -9493,9 +9499,11 @@
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="A134" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -9503,15 +9511,9 @@
       <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="49" t="s">
-        <v>653</v>
-      </c>
-      <c r="C135" s="49" t="s">
-        <v>654</v>
-      </c>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -9519,17 +9521,14 @@
       <c r="N135" s="3"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="C136" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>657</v>
+      <c r="A136" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="C136" s="49" t="s">
+        <v>654</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -9538,11 +9537,18 @@
       <c r="N136" s="3"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="49"/>
-      <c r="C137" s="49"/>
+      <c r="A137" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>657</v>
+      </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -9550,30 +9556,18 @@
       <c r="N137" s="3"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="C139" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" s="44"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -9581,23 +9575,23 @@
       <c r="N139" s="3"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B140" s="51" t="s">
-        <v>660</v>
-      </c>
-      <c r="C140" s="52" t="s">
-        <v>661</v>
-      </c>
-      <c r="D140" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="52"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
+      <c r="A140" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="C140" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="44"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -9605,64 +9599,69 @@
       <c r="N140" s="3"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="D141" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="52"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="C141" s="54" t="s">
+      <c r="C142" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="D141" s="53"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="53" t="s">
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53" t="s">
         <v>663</v>
       </c>
-      <c r="G141" s="53"/>
-      <c r="H141" s="53"/>
-      <c r="I141" s="53"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="16"/>
-    </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52" t="s">
+      <c r="G142" s="53"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B143" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C143" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-    </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C143" s="55" t="s">
-        <v>666</v>
-      </c>
-      <c r="E143" t="s">
-        <v>667</v>
-      </c>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="50"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -9674,13 +9673,13 @@
         <v>29</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E144" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -9693,38 +9692,33 @@
         <v>29</v>
       </c>
       <c r="B145" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="C145" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="E145" t="s">
+        <v>669</v>
+      </c>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="C145" s="55" t="s">
+      <c r="C146" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E146" t="s">
         <v>671</v>
       </c>
-      <c r="J145" s="16"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="16"/>
-    </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B146" s="57" t="s">
-        <v>672</v>
-      </c>
-      <c r="C146" s="58" t="s">
-        <v>673</v>
-      </c>
-      <c r="D146" s="56"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="G146" s="56"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="56"/>
       <c r="J146" s="16"/>
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
@@ -9732,41 +9726,44 @@
       <c r="N146" s="16"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="51" t="s">
+      <c r="A147" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="C147" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="D147" s="37"/>
-      <c r="E147" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="F147" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="G147" s="50"/>
-      <c r="H147" s="50"/>
-      <c r="I147" s="50"/>
+      <c r="B147" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="G147" s="56"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
     </row>
     <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D148" s="37"/>
       <c r="E148" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="F148" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="F148" s="59" t="s">
         <v>676</v>
       </c>
       <c r="G148" s="50"/>
@@ -9778,14 +9775,14 @@
         <v>29</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D149" s="37"/>
       <c r="E149" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F149" s="50" t="s">
         <v>676</v>
@@ -9799,14 +9796,14 @@
         <v>29</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D150" s="37"/>
       <c r="E150" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F150" s="50" t="s">
         <v>676</v>
@@ -9820,14 +9817,14 @@
         <v>29</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D151" s="37"/>
       <c r="E151" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F151" s="50" t="s">
         <v>676</v>
@@ -9841,14 +9838,14 @@
         <v>29</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D152" s="37"/>
       <c r="E152" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F152" s="50" t="s">
         <v>676</v>
@@ -9862,14 +9859,14 @@
         <v>29</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D153" s="37"/>
       <c r="E153" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F153" s="50" t="s">
         <v>676</v>
@@ -9883,14 +9880,14 @@
         <v>29</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D154" s="37"/>
       <c r="E154" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F154" s="50" t="s">
         <v>676</v>
@@ -9904,14 +9901,14 @@
         <v>29</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D155" s="37"/>
       <c r="E155" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F155" s="50" t="s">
         <v>676</v>
@@ -9925,14 +9922,14 @@
         <v>29</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D156" s="37"/>
       <c r="E156" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F156" s="50" t="s">
         <v>676</v>
@@ -9946,14 +9943,14 @@
         <v>29</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D157" s="37"/>
       <c r="E157" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F157" s="50" t="s">
         <v>676</v>
@@ -9967,14 +9964,14 @@
         <v>29</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D158" s="37"/>
       <c r="E158" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F158" s="50" t="s">
         <v>676</v>
@@ -9988,14 +9985,14 @@
         <v>29</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>26</v>
+        <v>605</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D159" s="37"/>
       <c r="E159" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F159" s="50" t="s">
         <v>676</v>
@@ -10008,15 +10005,15 @@
       <c r="A160" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="30" t="s">
-        <v>609</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>610</v>
+      <c r="B160" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>607</v>
       </c>
       <c r="D160" s="37"/>
       <c r="E160" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F160" s="50" t="s">
         <v>676</v>
@@ -10030,14 +10027,14 @@
         <v>29</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D161" s="37"/>
       <c r="E161" s="45" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F161" s="50" t="s">
         <v>676</v>
@@ -10051,14 +10048,14 @@
         <v>29</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D162" s="37"/>
       <c r="E162" s="45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F162" s="50" t="s">
         <v>676</v>
@@ -10071,11 +10068,19 @@
       <c r="A163" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B163" s="51"/>
-      <c r="C163" s="60"/>
+      <c r="B163" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>614</v>
+      </c>
       <c r="D163" s="37"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="50"/>
+      <c r="E163" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="F163" s="50" t="s">
+        <v>676</v>
+      </c>
       <c r="G163" s="50"/>
       <c r="H163" s="50"/>
       <c r="I163" s="50"/>
@@ -10084,36 +10089,48 @@
       <c r="A164" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B164" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="C164" s="45" t="s">
-        <v>693</v>
-      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="37"/>
       <c r="E164" s="45"/>
-      <c r="F164" s="61"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="51"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="50"/>
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="44" t="s">
+      <c r="A165" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="C165" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="D165" s="37"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="51"/>
+    </row>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-    </row>
-    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="51"/>
-    </row>
-    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+    </row>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="51"/>
+    </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10936,1665 +10953,1666 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A29:J29 A30:F33 I30:J33 A40:K40 A34:J39 K28:K39 D21:N21 E24:E25 A22:N22 L26:N52 F41:K47 A166:N989 A53:D61 F53:N61 A62:N63 D81:D85 E89:E92 F64:N113 J23:N25 F23:H25 A23:D25 A41:D49 C66:C67 C80 A87:D93 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N20">
-    <cfRule type="containsText" dxfId="354" priority="162" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52 K52:N52 A29:H29 A30:F33 F26:H28 A50:H51 C16:C17 I26:J39 A34:H40 K28:K39 L26:N39 A15:N15 A16:B20 A20:C20 A24:H25 A41:D44 A47:D49 I40:N51 A45:B46 D45:D46 F41:H47 D16:N20 A166:N989 I53:N61 A53:D61 F52:H61 A62:N63 D81:D85 E89:E92 A87:D93 F64:N113 J23:N25 A23:D23 F23:H23 C45 C66 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N13">
-    <cfRule type="expression" dxfId="353" priority="163">
+  <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A41:K41 A35:J40 K29:K40 D22:N22 E25:E26 A23:N23 L27:N53 F42:K48 A167:N990 A54:D62 F54:N62 A63:N64 D82:D86 E90:E93 F65:N114 J24:N26 F24:H26 A24:D26 A42:D50 C67:C68 C81 A88:D94 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N21">
+    <cfRule type="containsText" dxfId="4" priority="162" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53 K53:N53 A30:H30 A31:F34 F27:H29 A51:H52 C17:C18 I27:J40 A35:H41 K29:K40 L27:N40 A16:N16 A17:B21 A21:C21 A25:H26 A42:D45 A48:D50 I41:N52 A46:B47 D46:D47 F42:H48 D17:N21 A167:N990 I54:N62 A54:D62 F53:H62 A63:N64 D82:D86 E90:E93 A88:D94 F65:N114 J24:N26 A24:D24 F24:H24 C46 C67 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N14">
+    <cfRule type="expression" dxfId="3" priority="163">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:J29 A30:F33 I30:J33 A34:J40 K28:K39 L26:N39 D21:N21 E24:E25 A22:N22 K40:N52 F41:J47 A166:N989 A53:D61 F53:N61 A62:N63 D81:D85 E89:E92 F64:N113 J23:N25 F23:H25 A23:D25 A41:D49 C66:C67 C80 A87:D93 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N20">
-    <cfRule type="cellIs" dxfId="352" priority="165" operator="equal">
+  <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A35:J41 K29:K40 L27:N40 D22:N22 E25:E26 A23:N23 K41:N53 F42:J48 A167:N990 A54:D62 F54:N62 A63:N64 D82:D86 E90:E93 F65:N114 J24:N26 F24:H26 A24:D26 A42:D50 C67:C68 C81 A88:D94 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N21">
+    <cfRule type="cellIs" dxfId="2" priority="165" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I113 I166:I989 I1:I20">
-    <cfRule type="expression" dxfId="351" priority="166">
+  <conditionalFormatting sqref="I27:I114 I167:I990 I1:I21">
+    <cfRule type="expression" dxfId="354" priority="166">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C47:C63 C81:C93 C23:C45 C66 C100 C113 C166:C989 C1:C13">
-    <cfRule type="expression" dxfId="350" priority="167">
+  <conditionalFormatting sqref="C16:C18 C48:C64 C82:C94 C24:C46 C67 C101 C114 C167:C990 C1:C14">
+    <cfRule type="expression" dxfId="353" priority="167">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B20 B23:B93 B100 B113 B166:B989 B1:B13">
-    <cfRule type="expression" dxfId="349" priority="168">
+  <conditionalFormatting sqref="B16:B21 B24:B94 B101 B114 B167:B990 B1:B14">
+    <cfRule type="expression" dxfId="352" priority="168">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22 A53:A93 A22:A51 A100 A113 A166:A989 A1:A20">
-    <cfRule type="cellIs" dxfId="348" priority="169" operator="equal">
+  <conditionalFormatting sqref="A23:C23 A54:A94 A23:A52 A101 A114 A167:A990 A1:A21">
+    <cfRule type="cellIs" dxfId="1" priority="169" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="347" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="351" priority="171" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="346" priority="172" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="350" priority="172" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="345" priority="173" operator="notEqual">
+    <cfRule type="cellIs" dxfId="349" priority="173" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="344" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="348" priority="174" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="343" priority="175" operator="notEqual">
+    <cfRule type="cellIs" dxfId="347" priority="175" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="342" priority="176" operator="notEqual">
+    <cfRule type="cellIs" dxfId="346" priority="176" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="341" priority="177" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="345" priority="177" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="340" priority="178" operator="notEqual">
+    <cfRule type="cellIs" dxfId="344" priority="178" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="339" priority="179" operator="notEqual">
+    <cfRule type="cellIs" dxfId="343" priority="179" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="338" priority="180" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="342" priority="180" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="337" priority="181" operator="notEqual">
+    <cfRule type="cellIs" dxfId="341" priority="181" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="336" priority="182" operator="notEqual">
+    <cfRule type="cellIs" dxfId="340" priority="182" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H113 H166:H989 H1:H29">
-    <cfRule type="expression" dxfId="335" priority="183">
+  <conditionalFormatting sqref="H35:H114 H167:H990 H1:H30">
+    <cfRule type="expression" dxfId="339" priority="183">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52 K52:N52 A29:H29 A30:F33 F26:H28 A50:H51 C16:C17 I26:J39 A34:H40 K28:K39 L26:N39 A15:N15 A16:B20 A20:C20 A24:H25 A41:D44 A47:D49 I40:N51 A45:B46 D45:D46 F41:H47 D16:N20 A166:N989 I53:N61 A53:D61 F52:H61 A62:N63 D81:D85 E89:E92 A87:D93 F64:N113 J23:N25 A23:D23 F23:H23 C45 C66 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N13">
-    <cfRule type="expression" dxfId="334" priority="184">
+  <conditionalFormatting sqref="I53 K53:N53 A30:H30 A31:F34 F27:H29 A51:H52 C17:C18 I27:J40 A35:H41 K29:K40 L27:N40 A16:N16 A17:B21 A21:C21 A25:H26 A42:D45 A48:D50 I41:N52 A46:B47 D46:D47 F42:H48 D17:N21 A167:N990 I54:N62 A54:D62 F53:H62 A63:N64 D82:D86 E90:E93 A88:D94 F65:N114 J24:N26 A24:D24 F24:H24 C46 C67 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N14">
+    <cfRule type="expression" dxfId="0" priority="184">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="expression" dxfId="333" priority="186">
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="expression" dxfId="338" priority="186">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:J42 A42:D45 A48:D50 F48:J48 E43:J45 A54:D62 F54:J62 A63:J64 C46 F65:N66 C67 F69:N79 F95:N114 F90:N92 A101:D101 A90:D92 D95:D100 A114:D114 D102:D113 J115:N141">
+    <cfRule type="expression" dxfId="337" priority="187">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="336" priority="188">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:J42 A42:D45 A48:D50 E48:J48 E43:J45 A54:D62 F54:J62 A63:J64 C46 F65:N66 C67 F69:N79 F95:N114 F90:N92 A101:D101 A90:D92 D95:D100 A114:D114 D102:D113 J115:N141">
+    <cfRule type="expression" dxfId="335" priority="189">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="expression" dxfId="334" priority="192">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="cellIs" dxfId="333" priority="193" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="332" priority="196">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 E23">
+    <cfRule type="expression" dxfId="331" priority="197">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="330" priority="198">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 E23">
+    <cfRule type="expression" dxfId="329" priority="199">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C24:C26">
+    <cfRule type="expression" dxfId="328" priority="200">
+      <formula>AND($C14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C25:C26">
+    <cfRule type="expression" dxfId="327" priority="201">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C25:C26">
+    <cfRule type="expression" dxfId="326" priority="202">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 F27:J29 A51:K52 A27:C29 F49:F50 H49:K50 B53:D53 F53:I53 K53">
+    <cfRule type="containsText" dxfId="325" priority="203" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F49:F50 H49:H50 B53:D53">
+    <cfRule type="expression" dxfId="324" priority="204">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F27:J29 F49:F50 H49:J50 B53:D53 F53:I53">
+    <cfRule type="expression" dxfId="323" priority="205">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 F27:J29 A51:J52 A27:C29 F49:F50 H49:J50 B53:D53 F53:I53">
+    <cfRule type="cellIs" dxfId="322" priority="206" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="321" priority="209">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F49:F50 H49:H50 B53:D53">
+    <cfRule type="expression" dxfId="320" priority="212">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F27:J29 F49:F50 H49:J50 B53:D53 F53:I53">
+    <cfRule type="expression" dxfId="319" priority="213">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" dxfId="318" priority="226" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="317" priority="227" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" dxfId="316" priority="234" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="315" priority="235">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="314" priority="236">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="313" priority="237" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="312" priority="238">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:J41 A41:D44 A47:D49 F47:J47 E42:J44 A53:D61 F53:J61 A62:J63 C45 F64:N65 C66 F68:N78 F94:N113 F89:N91 A100:D100 A89:D91 D94:D99 A113:D113 D101:D112 J114:N140">
-    <cfRule type="expression" dxfId="332" priority="187">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="331" priority="188">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:J41 A41:D44 A47:D49 E47:J47 E42:J44 A53:D61 F53:J61 A62:J63 C45 F64:N65 C66 F68:N78 F94:N113 F89:N91 A100:D100 A89:D91 D94:D99 A113:D113 D101:D112 J114:N140">
-    <cfRule type="expression" dxfId="330" priority="189">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="expression" dxfId="329" priority="192">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="cellIs" dxfId="328" priority="193" operator="equal">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="311" priority="239">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="containsText" dxfId="310" priority="246" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="expression" dxfId="309" priority="247">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="cellIs" dxfId="308" priority="249" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="327" priority="196">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 E22">
-    <cfRule type="expression" dxfId="326" priority="197">
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="307" priority="256" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="306" priority="257" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="305" priority="258">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="304" priority="259">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="303" priority="260" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="302" priority="261">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="301" priority="262">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="300" priority="263" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="299" priority="264">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="298" priority="265">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" dxfId="297" priority="266" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="296" priority="267">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="295" priority="268">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="294" priority="269" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="293" priority="270">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="292" priority="271">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="291" priority="284" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="290" priority="285">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="289" priority="286">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="288" priority="287" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="287" priority="288">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="286" priority="289">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="285" priority="296" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="284" priority="297">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="283" priority="298">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="282" priority="299" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="281" priority="300">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="280" priority="301">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" dxfId="279" priority="308" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="278" priority="309">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="277" priority="310">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="276" priority="311" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="275" priority="312">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="274" priority="313">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="273" priority="314" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="272" priority="315">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="271" priority="316">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="270" priority="317" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="269" priority="318">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="268" priority="319">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="267" priority="320" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="266" priority="321">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="265" priority="322">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="264" priority="323" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="263" priority="324">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="262" priority="325">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="261" priority="326" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="260" priority="327">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="259" priority="328">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="258" priority="329" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="257" priority="330">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="256" priority="331">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="255" priority="332" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="254" priority="333">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="253" priority="334">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="252" priority="335" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="251" priority="336">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="250" priority="337">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="249" priority="338" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="248" priority="339">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="247" priority="340">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="246" priority="341" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="245" priority="342">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="244" priority="343">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" dxfId="243" priority="344" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="242" priority="345">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="241" priority="346">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="240" priority="347" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="239" priority="348">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="238" priority="349">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="237" priority="350" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="236" priority="351">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="235" priority="352">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="234" priority="353" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="233" priority="354">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="232" priority="355">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="containsText" dxfId="231" priority="374" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="expression" dxfId="230" priority="375">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A72:D79 A71:B71 D71 C80">
+    <cfRule type="expression" dxfId="229" priority="376">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="cellIs" dxfId="228" priority="377" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:C66 C69:C70 C72:C80">
+    <cfRule type="expression" dxfId="227" priority="379">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="expression" dxfId="226" priority="383">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A72:D79 A71:B71 D71 C80">
+    <cfRule type="expression" dxfId="225" priority="384">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="expression" dxfId="224" priority="390">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79 E95:E114 E90:E92">
+    <cfRule type="expression" dxfId="223" priority="391">
+      <formula>AND($E65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79 E95:E114 E90:E92">
+    <cfRule type="expression" dxfId="222" priority="392">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $E65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79 E95:E114 E90:E92">
+    <cfRule type="expression" dxfId="221" priority="393">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $E65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="containsText" dxfId="220" priority="394" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="containsText" dxfId="219" priority="145" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="218" priority="146">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="217" priority="147">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="cellIs" dxfId="216" priority="148" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="215" priority="149">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="214" priority="150">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="containsText" dxfId="213" priority="151" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="expression" dxfId="212" priority="152">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="211" priority="153">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="cellIs" dxfId="210" priority="154" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="expression" dxfId="209" priority="155">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="208" priority="156">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="207" priority="157">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="206" priority="158">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", #REF! = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="205" priority="159">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="204" priority="160">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", #REF! = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="203" priority="139" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="202" priority="140">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="201" priority="141">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="200" priority="142" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="199" priority="143">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="198" priority="144">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="containsText" dxfId="197" priority="133" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="196" priority="134">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="195" priority="135">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="194" priority="136" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="193" priority="137">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="192" priority="138">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="containsText" dxfId="191" priority="126" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="190" priority="127">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="189" priority="128">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="188" priority="129" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="187" priority="130" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="186" priority="131">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="185" priority="132">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="containsText" dxfId="184" priority="120" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="183" priority="121">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="182" priority="122">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="181" priority="123" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="180" priority="124">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="179" priority="125">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34 I34:N34">
+    <cfRule type="expression" dxfId="178" priority="491">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", #REF! = "", #REF! = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:N33">
+    <cfRule type="expression" dxfId="177" priority="493">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G32 = "", $H32 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34 I34:N34">
+    <cfRule type="expression" dxfId="176" priority="505">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", #REF! = "", #REF! = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:N33">
+    <cfRule type="expression" dxfId="175" priority="507">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G32 = "", $H32 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="174" priority="114">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="173" priority="115">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="172" priority="116">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="171" priority="117">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="containsText" dxfId="170" priority="118" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="cellIs" dxfId="169" priority="119" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="168" priority="107">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="167" priority="108">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="166" priority="109">
+      <formula>AND(NOT($G32 = ""), $H32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="165" priority="110">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="164" priority="111">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="containsText" dxfId="163" priority="112" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="cellIs" dxfId="162" priority="113" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="161" priority="652">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="160" priority="654">
+      <formula>AND($A17="end group", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="159" priority="664">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="158" priority="666">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="157" priority="668">
+      <formula>AND($A17="end repeat", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="156" priority="679">
+      <formula>AND($C19 = "", $A17 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="155" priority="681">
+      <formula>AND($A17="end repeat", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C19 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="154" priority="683">
+      <formula>AND($A17="end group", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C19 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="153" priority="927">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="152" priority="929">
+      <formula>AND($A19="end group", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="151" priority="931">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="150" priority="933">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="149" priority="935">
+      <formula>AND($A19="end repeat", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="148" priority="937">
+      <formula>AND($C23 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="147" priority="939">
+      <formula>AND($A19="end repeat", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C23 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="146" priority="941">
+      <formula>AND($A19="end group", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C23 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="145" priority="948">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="144" priority="954">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 D15:N15">
+    <cfRule type="expression" dxfId="143" priority="970">
+      <formula>AND($A15="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 D15:N15">
+    <cfRule type="expression" dxfId="142" priority="986">
+      <formula>AND($A15="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="141" priority="1014">
+      <formula>AND($A19="end group", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="140" priority="1015">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="139" priority="1016">
+      <formula>AND($A19="end repeat", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="138" priority="1017">
+      <formula>AND($C15 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="137" priority="1018">
+      <formula>AND($A19="end repeat", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C15 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="136" priority="1019">
+      <formula>AND($A19="end group", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C15 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="135" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="134" priority="84" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="133" priority="85" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="132" priority="87">
+      <formula>AND($A15="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="131" priority="88">
+      <formula>AND($A15="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="130" priority="77" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="129" priority="79" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="128" priority="78" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="127" priority="1038">
+      <formula>AND($A19="end group", $B19 = "", $C24 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="126" priority="1039">
+      <formula>AND($A19="end repeat", $B19 = "", $C24 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="125" priority="1043">
+      <formula>AND($A23="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 D23:N23">
+    <cfRule type="expression" dxfId="124" priority="1044">
+      <formula>AND(#REF!="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="123" priority="1047">
+      <formula>AND($I22 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="122" priority="1048">
+      <formula>AND($I23 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="121" priority="1050">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="120" priority="1054">
+      <formula>AND($A23="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 D23:N23">
+    <cfRule type="expression" dxfId="119" priority="1055">
+      <formula>AND(#REF!="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="118" priority="1069">
+      <formula>AND($A23="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="expression" dxfId="117" priority="1070">
+      <formula>AND($A23="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="116" priority="1071">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="115" priority="1072">
+      <formula>AND($A23="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="expression" dxfId="114" priority="1073">
+      <formula>AND($A23="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="113" priority="72">
+      <formula>AND($A23="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="112" priority="73">
+      <formula>AND($A23="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="111" priority="70">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="110" priority="71">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="325" priority="198">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 E22">
-    <cfRule type="expression" dxfId="324" priority="199">
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="109" priority="68">
+      <formula>AND($A23="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="108" priority="69">
+      <formula>AND($A23="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="107" priority="66">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C13 C23:C25">
-    <cfRule type="expression" dxfId="323" priority="200">
-      <formula>AND($C13 = "", $A13 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C13 C24:C25">
-    <cfRule type="expression" dxfId="322" priority="201">
-      <formula>AND($A13="end repeat", $B13 = "", $C13 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $C13 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C13 C24:C25">
-    <cfRule type="expression" dxfId="321" priority="202">
-      <formula>AND($A13="end group", $B13 = "", $C13 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $C13 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 F26:J28 A50:K51 A26:C28 F48:F49 H48:K49 B52:D52 F52:I52 K52">
-    <cfRule type="containsText" dxfId="320" priority="203" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F48:F49 H48:H49 B52:D52">
-    <cfRule type="expression" dxfId="319" priority="204">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F26:J28 F48:F49 H48:J49 B52:D52 F52:I52">
-    <cfRule type="expression" dxfId="318" priority="205">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 F26:J28 A50:J51 A26:C28 F48:F49 H48:J49 B52:D52 F52:I52">
-    <cfRule type="cellIs" dxfId="317" priority="206" operator="equal">
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="106" priority="67">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="105" priority="1091">
+      <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $D24 = "", $E23 = "", $F24 = "", $G24 = "", $H24 = "", $C24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="104" priority="1093">
+      <formula>AND($A24="end group", $B24 = "", $C24 = "", $D24 = "", $E23 = "", $F24 = "", $G24 = "", $H24 = "", $C24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:B47 F46:J47">
+    <cfRule type="expression" dxfId="103" priority="1128">
+      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="102" priority="1153">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="101" priority="1154">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="100" priority="1168">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="99" priority="1169">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="98" priority="1170">
+      <formula>AND(#REF!="end group", #REF! = "", $C47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="containsText" dxfId="97" priority="60" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="96" priority="61" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="316" priority="209">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F48:F49 H48:H49 B52:D52">
-    <cfRule type="expression" dxfId="315" priority="212">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F26:J28 F48:F49 H48:J49 B52:D52 F52:I52">
-    <cfRule type="expression" dxfId="314" priority="213">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" dxfId="313" priority="226" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="312" priority="227" operator="equal">
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="95" priority="62">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="94" priority="63">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="93" priority="64">
+      <formula>AND(#REF!="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="92" priority="65">
+      <formula>AND(#REF!="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B990 B2:B21 A15 C15 A23:C23">
+    <cfRule type="expression" dxfId="91" priority="1185">
+      <formula>COUNTIF($B$2:$B$998,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C81">
+    <cfRule type="expression" dxfId="90" priority="55">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C81">
+    <cfRule type="expression" dxfId="89" priority="56">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="88" priority="57">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="87" priority="58">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C68 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C81">
+    <cfRule type="expression" dxfId="86" priority="59">
+      <formula>AND(#REF!="end group", #REF! = "", $C68 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsText" dxfId="85" priority="47" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="cellIs" dxfId="84" priority="48" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="311" priority="234" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="310" priority="235">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="309" priority="236">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="308" priority="237" operator="equal">
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="83" priority="49">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="82" priority="50">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="81" priority="51">
+      <formula>AND(#REF!="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="80" priority="52">
+      <formula>AND(#REF!="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="79" priority="42" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="78" priority="43">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="77" priority="44" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="307" priority="238">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="306" priority="239">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="containsText" dxfId="305" priority="246" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="expression" dxfId="304" priority="247">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="303" priority="249" operator="equal">
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="76" priority="45">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="75" priority="46">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="73" priority="39">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" dxfId="302" priority="256" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="301" priority="257" operator="equal">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="71" priority="41">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="70" priority="35">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="69" priority="36">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C81 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="300" priority="258">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="299" priority="259">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" dxfId="298" priority="260" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="297" priority="261">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="296" priority="262">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="295" priority="263" operator="equal">
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="66" priority="27">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="65" priority="28">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="64" priority="29">
+      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="63" priority="30">
+      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:N89 A82:C89">
+    <cfRule type="expression" dxfId="62" priority="1257">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:N89 A82:C89">
+    <cfRule type="expression" dxfId="61" priority="1262">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D86 D88:D89">
+    <cfRule type="expression" dxfId="60" priority="1268">
+      <formula>AND($D82 = "", $A82 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D86 D88:D89">
+    <cfRule type="expression" dxfId="59" priority="1270">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $D82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D86 D88:D89">
+    <cfRule type="expression" dxfId="58" priority="1272">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $D82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31 B24:B94 B101 B114">
+    <cfRule type="expression" dxfId="57" priority="1325">
+      <formula>COUNTIF($B$2:$B$1037,B24)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:F86">
+    <cfRule type="expression" dxfId="56" priority="23">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:F86">
+    <cfRule type="expression" dxfId="55" priority="24">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="54" priority="1331">
+      <formula>AND($A21="end group", $B21 = "", $C27 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="53" priority="1333">
+      <formula>AND($A21="end repeat", $B21 = "", $C27 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="52" priority="1373">
+      <formula>AND($A23="end group", $B15 = "", $C27 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="51" priority="1374">
+      <formula>AND($A23="end repeat", $B15 = "", $C27 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="50" priority="1375">
+      <formula>AND($A32="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="49" priority="1376">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="48" priority="1377">
+      <formula>AND($A32="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="47" priority="1380">
+      <formula>AND(#REF!="end group", $B23 = "", $C27 = "", $D23 = "", #REF! = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="46" priority="1381">
+      <formula>AND(#REF!="end repeat", $B23 = "", $C27 = "", $D23 = "", #REF! = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47 F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
+    <cfRule type="expression" dxfId="45" priority="1395">
+      <formula>AND($A47="end group", $B47 = "", #REF! = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46 F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
+    <cfRule type="expression" dxfId="44" priority="1396">
+      <formula>AND($A46="end group", $B46 = "", $C47 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
+    <cfRule type="expression" dxfId="43" priority="1399">
+      <formula>AND($A67="end repeat", $B67 = "", $C68 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
+    <cfRule type="expression" dxfId="42" priority="1400">
+      <formula>AND($A68="end repeat", $B68 = "", #REF! = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="41" priority="20">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="39" priority="22">
+      <formula>AND(#REF!="end group", #REF! = "", $C94 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="37" priority="19">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C94 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:N94 A94:D94">
+    <cfRule type="expression" dxfId="36" priority="1403">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E93 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:N93 A93:D93">
+    <cfRule type="expression" dxfId="35" priority="1404">
+      <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", #REF! = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:N94 A94:D94">
+    <cfRule type="expression" dxfId="34" priority="1409">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E93 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:N93 A93:D93">
+    <cfRule type="expression" dxfId="33" priority="1410">
+      <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", #REF! = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="31" priority="12">
+      <formula>AND($A95="begin group", NOT($B95 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="294" priority="264">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="293" priority="265">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="292" priority="266" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="291" priority="267">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="290" priority="268">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="289" priority="269" operator="equal">
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="28" priority="15">
+      <formula>AND($A95="begin repeat", NOT($B95 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", #REF! = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="26" priority="17">
+      <formula>AND($A95="end group", $B95 = "", $C95 = "", $D95 = "", #REF! = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="288" priority="270">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="287" priority="271">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="286" priority="284" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="285" priority="285">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="284" priority="286">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="283" priority="287" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="282" priority="288">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="281" priority="289">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="280" priority="296" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="279" priority="297">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="278" priority="298">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="277" priority="299" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="276" priority="300">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="275" priority="301">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="274" priority="308" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="273" priority="309">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="272" priority="310">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="271" priority="311" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="270" priority="312">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="269" priority="313">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="268" priority="314" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="267" priority="315">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="266" priority="316">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="265" priority="317" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="264" priority="318">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="263" priority="319">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="262" priority="320" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="261" priority="321">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="260" priority="322">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="259" priority="323" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="258" priority="324">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="257" priority="325">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="256" priority="326" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="255" priority="327">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="254" priority="328">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="253" priority="329" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="252" priority="330">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="251" priority="331">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="250" priority="332" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="249" priority="333">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="248" priority="334">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="247" priority="335" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="246" priority="336">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="245" priority="337">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="244" priority="338" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="243" priority="339">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="242" priority="340">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="241" priority="341" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="240" priority="342">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="239" priority="343">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="238" priority="344" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="237" priority="345">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="236" priority="346">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="235" priority="347" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="234" priority="348">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="233" priority="349">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="232" priority="350" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="231" priority="351">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="230" priority="352">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="229" priority="353" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="228" priority="354">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="227" priority="355">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="containsText" dxfId="226" priority="374" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="expression" dxfId="225" priority="375">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A71:D78 A70:B70 D70 C79">
-    <cfRule type="expression" dxfId="224" priority="376">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="cellIs" dxfId="223" priority="377" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C65 C68:C69 C71:C79">
-    <cfRule type="expression" dxfId="222" priority="379">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="expression" dxfId="221" priority="383">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A71:D78 A70:B70 D70 C79">
-    <cfRule type="expression" dxfId="220" priority="384">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="expression" dxfId="219" priority="390">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78 E94:E113 E89:E91">
-    <cfRule type="expression" dxfId="218" priority="391">
-      <formula>AND($E64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78 E94:E113 E89:E91">
-    <cfRule type="expression" dxfId="217" priority="392">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $E64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78 E94:E113 E89:E91">
-    <cfRule type="expression" dxfId="216" priority="393">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $E64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="containsText" dxfId="215" priority="394" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="containsText" dxfId="214" priority="145" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="213" priority="146">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="212" priority="147">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="cellIs" dxfId="211" priority="148" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="210" priority="149">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="209" priority="150">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="containsText" dxfId="208" priority="151" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="expression" dxfId="207" priority="152">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="206" priority="153">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="cellIs" dxfId="205" priority="154" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="expression" dxfId="204" priority="155">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="203" priority="156">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="202" priority="157">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="201" priority="158">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", #REF! = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="200" priority="159">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="199" priority="160">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", #REF! = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="198" priority="139" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="197" priority="140">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="196" priority="141">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="195" priority="142" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="194" priority="143">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="193" priority="144">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="192" priority="133" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="191" priority="134">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="190" priority="135">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="189" priority="136" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="188" priority="137">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="187" priority="138">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="186" priority="126" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="185" priority="127">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="184" priority="128">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="183" priority="129" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="182" priority="130" operator="equal">
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="181" priority="131">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="180" priority="132">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="179" priority="120" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="178" priority="121">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="177" priority="122">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="176" priority="123" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="175" priority="124">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="174" priority="125">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33 I33:N33">
-    <cfRule type="expression" dxfId="173" priority="491">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", #REF! = "", #REF! = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:N32">
-    <cfRule type="expression" dxfId="172" priority="493">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G31 = "", $H31 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33 I33:N33">
-    <cfRule type="expression" dxfId="171" priority="505">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", #REF! = "", #REF! = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:N32">
-    <cfRule type="expression" dxfId="170" priority="507">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G31 = "", $H31 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="169" priority="114">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="168" priority="115">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="167" priority="116">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="166" priority="117">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="containsText" dxfId="165" priority="118" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="cellIs" dxfId="164" priority="119" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="163" priority="107">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="162" priority="108">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="161" priority="109">
-      <formula>AND(NOT($G31 = ""), $H31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="160" priority="110">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="159" priority="111">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="containsText" dxfId="158" priority="112" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="cellIs" dxfId="157" priority="113" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="156" priority="652">
-      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="155" priority="654">
-      <formula>AND($A16="end group", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="154" priority="664">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="153" priority="666">
-      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="152" priority="668">
-      <formula>AND($A16="end repeat", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="151" priority="679">
-      <formula>AND($C18 = "", $A16 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="150" priority="681">
-      <formula>AND($A16="end repeat", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $C18 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="149" priority="683">
-      <formula>AND($A16="end group", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $C18 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="148" priority="927">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="147" priority="929">
-      <formula>AND($A18="end group", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="146" priority="931">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="145" priority="933">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="144" priority="935">
-      <formula>AND($A18="end repeat", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="143" priority="937">
-      <formula>AND($C22 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="142" priority="939">
-      <formula>AND($A18="end repeat", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C22 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="141" priority="941">
-      <formula>AND($A18="end group", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C22 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="140" priority="948">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="139" priority="954">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14 D14:N14">
-    <cfRule type="expression" dxfId="138" priority="970">
-      <formula>AND($A14="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14 D14:N14">
-    <cfRule type="expression" dxfId="137" priority="986">
-      <formula>AND($A14="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="136" priority="1014">
-      <formula>AND($A18="end group", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="135" priority="1015">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="134" priority="1016">
-      <formula>AND($A18="end repeat", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="133" priority="1017">
-      <formula>AND($C14 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="132" priority="1018">
-      <formula>AND($A18="end repeat", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C14 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="131" priority="1019">
-      <formula>AND($A18="end group", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C14 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="130" priority="86" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="129" priority="84" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="128" priority="85" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="127" priority="87">
-      <formula>AND($A14="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="126" priority="88">
-      <formula>AND($A14="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="containsText" dxfId="125" priority="77" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="124" priority="79" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="123" priority="78" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="122" priority="1038">
-      <formula>AND($A18="end group", $B18 = "", $C23 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="121" priority="1039">
-      <formula>AND($A18="end repeat", $B18 = "", $C23 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="120" priority="1043">
-      <formula>AND($A22="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 D22:N22">
-    <cfRule type="expression" dxfId="119" priority="1044">
-      <formula>AND(#REF!="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="118" priority="1047">
-      <formula>AND($I21 = "", $A22 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="117" priority="1048">
-      <formula>AND($I22 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="116" priority="1050">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="115" priority="1054">
-      <formula>AND($A22="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 D22:N22">
-    <cfRule type="expression" dxfId="114" priority="1055">
-      <formula>AND(#REF!="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="113" priority="1069">
-      <formula>AND($A22="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:N21">
-    <cfRule type="expression" dxfId="112" priority="1070">
-      <formula>AND($A22="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="111" priority="1071">
-      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="110" priority="1072">
-      <formula>AND($A22="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:N21">
-    <cfRule type="expression" dxfId="109" priority="1073">
-      <formula>AND($A22="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="108" priority="72">
-      <formula>AND($A22="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="107" priority="73">
-      <formula>AND($A22="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="106" priority="70">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="105" priority="71">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="104" priority="68">
-      <formula>AND($A22="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="103" priority="69">
-      <formula>AND($A22="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="102" priority="66">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="101" priority="67">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="100" priority="1091">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E22 = "", $F23 = "", $G23 = "", $H23 = "", $C23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="99" priority="1093">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E22 = "", $F23 = "", $G23 = "", $H23 = "", $C23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46 F45:J46">
-    <cfRule type="expression" dxfId="98" priority="1128">
-      <formula>AND($A45="end group", $B45 = "", #REF! = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="97" priority="1153">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="96" priority="1154">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="95" priority="1168">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="94" priority="1169">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="93" priority="1170">
-      <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="containsText" dxfId="92" priority="60" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="cellIs" dxfId="91" priority="61" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="90" priority="62">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="89" priority="63">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="88" priority="64">
-      <formula>AND(#REF!="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="87" priority="65">
-      <formula>AND(#REF!="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B166:B989 B2:B20 A14 C14 A22:C22">
-    <cfRule type="expression" dxfId="86" priority="1185">
-      <formula>COUNTIF($B$2:$B$997,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67 C80">
-    <cfRule type="expression" dxfId="85" priority="55">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67 C80">
-    <cfRule type="expression" dxfId="84" priority="56">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="83" priority="57">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="82" priority="58">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C67 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67 C80">
-    <cfRule type="expression" dxfId="81" priority="59">
-      <formula>AND(#REF!="end group", #REF! = "", $C67 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="containsText" dxfId="80" priority="47" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="79" priority="48" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="78" priority="49">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="77" priority="50">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="76" priority="51">
-      <formula>AND(#REF!="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="75" priority="52">
-      <formula>AND(#REF!="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="containsText" dxfId="74" priority="42" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="73" priority="43">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="71" priority="45">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="70" priority="46">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="69" priority="38" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="68" priority="39">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="67" priority="40" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="66" priority="41">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="65" priority="35">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="64" priority="36">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C80 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="61" priority="27">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="60" priority="28">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="59" priority="29">
-      <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="58" priority="30">
-      <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:N88 A81:C88">
-    <cfRule type="expression" dxfId="57" priority="1257">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:N88 A81:C88">
-    <cfRule type="expression" dxfId="56" priority="1262">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85 D87:D88">
-    <cfRule type="expression" dxfId="55" priority="1268">
-      <formula>AND($D81 = "", $A81 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85 D87:D88">
-    <cfRule type="expression" dxfId="54" priority="1270">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $D81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85 D87:D88">
-    <cfRule type="expression" dxfId="53" priority="1272">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $D81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30 B23:B93 B100 B113">
-    <cfRule type="expression" dxfId="52" priority="1325">
-      <formula>COUNTIF($B$2:$B$1036,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F85">
-    <cfRule type="expression" dxfId="51" priority="23">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F85">
-    <cfRule type="expression" dxfId="50" priority="24">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="49" priority="1331">
-      <formula>AND($A20="end group", $B20 = "", $C26 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="48" priority="1333">
-      <formula>AND($A20="end repeat", $B20 = "", $C26 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="47" priority="1373">
-      <formula>AND($A22="end group", $B14 = "", $C26 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="46" priority="1374">
-      <formula>AND($A22="end repeat", $B14 = "", $C26 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="45" priority="1375">
-      <formula>AND($A31="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="44" priority="1376">
-      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="43" priority="1377">
-      <formula>AND($A31="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="42" priority="1380">
-      <formula>AND(#REF!="end group", $B22 = "", $C26 = "", $D22 = "", #REF! = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="41" priority="1381">
-      <formula>AND(#REF!="end repeat", $B22 = "", $C26 = "", $D22 = "", #REF! = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46 F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
-    <cfRule type="expression" dxfId="40" priority="1395">
-      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45 F66:N66 A66:B66 D66 F79:N79 A79:B79 D79">
-    <cfRule type="expression" dxfId="39" priority="1396">
-      <formula>AND($A45="end group", $B45 = "", $C46 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66:N66 A66:B66 D66 F79:N79 A79:B79 D79">
-    <cfRule type="expression" dxfId="38" priority="1399">
-      <formula>AND($A66="end repeat", $B66 = "", $C67 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
-    <cfRule type="expression" dxfId="37" priority="1400">
-      <formula>AND($A67="end repeat", $B67 = "", #REF! = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="36" priority="20">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="35" priority="21">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="34" priority="22">
-      <formula>AND(#REF!="end group", #REF! = "", $C93 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="33" priority="18">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="32" priority="19">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C93 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="31" priority="1403">
-      <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="30" priority="1404">
-      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="29" priority="1409">
-      <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="28" priority="1410">
-      <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="26" priority="12">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="23" priority="15">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="22" priority="16">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="21" priority="17">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="19" priority="5">
-      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="21" priority="8">
+      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="20" priority="9">
+      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1437">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$998, "begin group") = COUNTIF($A$1:$A$998, "end group"))</formula>
+    <cfRule type="expression" dxfId="15" priority="1437">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$999, "begin group") = COUNTIF($A$1:$A$999, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1438">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$989, "begin group") = COUNTIF($A$1:$A$998, "end group")))</formula>
+    <cfRule type="expression" dxfId="14" priority="1438">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$999, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D146">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D147">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="C112" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12605,7 +12623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
     </sheetView>
@@ -18619,45 +18637,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="4" priority="362">
+    <cfRule type="expression" dxfId="7" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="363">
+    <cfRule type="expression" dxfId="6" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="773">
+    <cfRule type="expression" dxfId="5" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18723,7 +18741,7 @@
       </c>
       <c r="C2" s="26">
         <f ca="1">NOW()</f>
-        <v>44476.619666087965</v>
+        <v>44476.635772222224</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>214</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="548">
   <si>
     <t>type</t>
   </si>
@@ -1627,12 +1627,6 @@
     <t>elig</t>
   </si>
   <si>
-    <t>p_name</t>
-  </si>
-  <si>
-    <t>../p_name</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
@@ -1676,6 +1670,9 @@
   </si>
   <si>
     <t>&lt;b&gt;In that case this marks the end of your participation in this study. Thank you for your time, and remember to stay safe and adhere to COVID-19 and TB safety measures&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>../name</t>
   </si>
 </sst>
 </file>
@@ -5543,10 +5540,10 @@
   <dimension ref="A1:N940"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5833,7 +5830,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
@@ -5858,7 +5855,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
@@ -6024,7 +6021,7 @@
         <v>477</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -6149,7 +6146,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
@@ -6376,7 +6373,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
@@ -6411,7 +6408,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -6520,7 +6517,7 @@
         <v>65</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -6641,7 +6638,7 @@
         <v>485</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -6662,7 +6659,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>77</v>
@@ -6853,7 +6850,7 @@
         <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>66</v>
@@ -7149,7 +7146,7 @@
         <v>490</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
@@ -7170,7 +7167,7 @@
         <v>29</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>491</v>
@@ -7453,7 +7450,7 @@
         <v>514</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
@@ -7474,7 +7471,7 @@
         <v>29</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>515</v>
@@ -7670,11 +7667,11 @@
         <v>29</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D89" s="31"/>
       <c r="E89" s="36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -7725,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="17"/>
@@ -15983,7 +15980,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44476.689458912035</v>
+        <v>44476.861425578703</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiplangatvictor/Documents/Visortech/Living Goods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiplangatvictor/Documents/Visortech/Bodaboda/config-boda-moh-ke-master/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E4BAD-FFB6-8148-BE0E-02E7C33FE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7D24A-E9F3-424C-AED5-095FEB905827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="22400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="555">
   <si>
     <t>type</t>
   </si>
@@ -1686,6 +1686,24 @@
   </si>
   <si>
     <t>${patient_name}</t>
+  </si>
+  <si>
+    <t>${national_id}</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>${phone}</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1952,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="337">
+  <dxfs count="364">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF76A5AF"/>
@@ -1947,6 +2003,77 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1957,6 +2084,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -1966,6 +2103,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFEAD1DC"/>
@@ -1973,6 +2120,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -1983,8 +2137,42 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
@@ -1993,6 +2181,40 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2008,6 +2230,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2018,31 +2290,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5618,13 +5870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N944"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5976,20 +6228,22 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" t="s">
+        <v>549</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -5998,20 +6252,22 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" t="s">
+        <v>552</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -6020,20 +6276,22 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" t="s">
+        <v>554</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -6042,21 +6300,17 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -6068,18 +6322,16 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>475</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -6092,23 +6344,17 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -6118,21 +6364,23 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -6143,13 +6391,19 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -6161,9 +6415,24 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -6173,19 +6442,19 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>484</v>
+    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6198,20 +6467,17 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -6219,27 +6485,12 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -6247,146 +6498,149 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>40</v>
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -6396,50 +6650,44 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
+      <c r="A34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -6448,24 +6696,18 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>47</v>
+      <c r="A35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>463</v>
-      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -6474,23 +6716,27 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>1</v>
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G36" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -6498,23 +6744,27 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>49</v>
+      <c r="A37" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="3" t="s">
-        <v>547</v>
-      </c>
+      <c r="G37" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6523,23 +6773,23 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>463</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -6548,25 +6798,23 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>56</v>
+      <c r="A39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -6574,27 +6822,23 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>58</v>
+      <c r="A40" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -6603,27 +6847,23 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -6633,15 +6873,17 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>71</v>
@@ -6657,21 +6899,25 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -6680,20 +6926,28 @@
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>29</v>
+      <c r="A44" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -6702,14 +6956,20 @@
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6720,12 +6980,20 @@
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6737,18 +7005,16 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>539</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="17"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -6759,16 +7025,12 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="17"/>
@@ -6782,20 +7044,12 @@
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A49" s="13"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F49" s="17"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6806,78 +7060,62 @@
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>72</v>
+      <c r="A50" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>72</v>
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>538</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>71</v>
@@ -6893,75 +7131,81 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I54" s="7"/>
-      <c r="J54" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>537</v>
+        <v>227</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6973,23 +7217,27 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>479</v>
+        <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>480</v>
+        <v>228</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="J56" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -6997,24 +7245,28 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="J57" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -7024,13 +7276,13 @@
         <v>18</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>95</v>
+        <v>537</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -7043,91 +7295,91 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>479</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>480</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -7139,17 +7391,15 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -7163,21 +7413,19 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>488</v>
+        <v>99</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>489</v>
+        <v>100</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -7189,13 +7437,21 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -7207,15 +7463,17 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -7228,12 +7486,22 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -7245,18 +7513,12 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>541</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -7267,15 +7529,15 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>491</v>
+        <v>39</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7290,75 +7552,61 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="31" t="s">
-        <v>510</v>
-      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="31" t="s">
-        <v>511</v>
-      </c>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>495</v>
+    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>491</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="31" t="s">
-        <v>513</v>
-      </c>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -7367,13 +7615,13 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="32" t="s">
-        <v>29</v>
+        <v>492</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>44</v>
@@ -7385,23 +7633,21 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32" t="s">
         <v>492</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
@@ -7412,29 +7658,31 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="K74" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32" t="s">
-        <v>492</v>
+        <v>49</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="31" t="s">
+        <v>513</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -7443,13 +7691,13 @@
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>44</v>
@@ -7460,20 +7708,24 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
+      <c r="N76" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>44</v>
@@ -7491,13 +7743,13 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>44</v>
@@ -7515,11 +7767,17 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -7532,10 +7790,18 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -7548,19 +7814,19 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>514</v>
+      <c r="A81" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>505</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>478</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -7571,16 +7837,12 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>515</v>
-      </c>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -7594,21 +7856,12 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -7619,21 +7872,20 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -7643,22 +7895,19 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -7673,10 +7922,10 @@
         <v>55</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>44</v>
@@ -7698,16 +7947,13 @@
         <v>55</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D87" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>521</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>71</v>
@@ -7716,27 +7962,30 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="31" t="s">
-        <v>530</v>
-      </c>
+      <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="31" t="s">
-        <v>49</v>
+      <c r="A88" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="F88" s="3"/>
+        <v>518</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="34" t="s">
-        <v>529</v>
-      </c>
+      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -7744,17 +7993,21 @@
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="31" t="s">
-        <v>29</v>
+      <c r="A89" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="D89" s="31"/>
-      <c r="F89" s="3"/>
+        <v>519</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -7764,42 +8017,50 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="45" x14ac:dyDescent="0.15">
-      <c r="A90" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="F90" s="3"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="K90" s="31" t="s">
+        <v>530</v>
+      </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="A91" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C91" s="32"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="I91" s="34" t="s">
+        <v>529</v>
+      </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -7807,11 +8068,16 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="A92" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D92" s="31"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -7822,139 +8088,194 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:14" ht="45" x14ac:dyDescent="0.15">
+      <c r="A93" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="5" t="s">
+      <c r="C96" s="5"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="3" t="s">
+      <c r="D97" s="7"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="3" t="s">
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="3" t="s">
+      <c r="D99" s="7"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+    </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8795,1573 +9116,1705 @@
     <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="A31:J31 A32:F35 I32:J35 A42:K42 A36:J41 K30:K41 D23:N23 E26:E27 A24:N24 L28:N54 F43:K49 A1:N13 A93:N941 A55:D63 F55:N63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 F25:H27 A25:D27 A43:D51 C68:C69 C82 A14:H14 J14:N14 A15:N22">
-    <cfRule type="containsText" dxfId="336" priority="150" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54 K54:N54 A31:H31 A32:F35 F28:H30 A52:H53 C18:C19 I28:J41 A36:H42 K30:K41 L28:N41 A1:N13 A17:N17 A18:B22 A22:C22 A26:H27 A43:D46 A49:D51 I42:N53 A47:B48 D47:D48 F43:H49 D18:N22 A93:N941 I55:N63 A55:D63 F54:H63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 A25:D25 F25:H25 C47 C68 A15:N15 A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="335" priority="151">
+  <conditionalFormatting sqref="A34:J34 A35:F38 I35:J38 A45:K45 A39:J44 K33:K44 D26:N26 E29:E30 A27:N27 L31:N57 F46:K52 A1:N13 A96:N944 A58:D66 F58:N66 A67:N68 D86:D90 E94:E95 A92:D95 F69:N95 J28:N30 F28:H30 A28:D30 A46:D54 C71:C72 C85 A17:H17 J17:N17 A18:N25">
+    <cfRule type="containsText" dxfId="363" priority="177" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57 K57:N57 A34:H34 A35:F38 F31:H33 A55:H56 C21:C22 I31:J44 A39:H45 K33:K44 L31:N44 A1:N13 A20:N20 A21:B25 A25:C25 A29:H30 A46:D49 A52:D54 I45:N56 A50:B51 D50:D51 F46:H52 D21:N25 A96:N944 I58:N66 A58:D66 F57:H66 A67:N68 D86:D90 E94:E95 A92:D95 F69:N95 J28:N30 A28:D28 F28:H28 C50 C71 A18:N18 A17:H17 J17:N17">
+    <cfRule type="expression" dxfId="362" priority="178">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:J31 A32:F35 I32:J35 A36:J42 K30:K41 L28:N41 D23:N23 E26:E27 A24:N24 K42:N54 F43:J49 A1:N13 A93:N941 A55:D63 F55:N63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 F25:H27 A25:D27 A43:D51 C68:C69 C82 A14:H14 J14:N14 A15:N22">
-    <cfRule type="cellIs" dxfId="334" priority="153" operator="equal">
+  <conditionalFormatting sqref="A34:J34 A35:F38 I35:J38 A39:J45 K33:K44 L31:N44 D26:N26 E29:E30 A27:N27 K45:N57 F46:J52 A1:N13 A96:N944 A58:D66 F58:N66 A67:N68 D86:D90 E94:E95 A92:D95 F69:N95 J28:N30 F28:H30 A28:D30 A46:D54 C71:C72 C85 A17:H17 J17:N17 A18:N25">
+    <cfRule type="cellIs" dxfId="361" priority="180" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I13 I28:I941 I16:I22">
-    <cfRule type="expression" dxfId="333" priority="154">
+  <conditionalFormatting sqref="I1:I13 I31:I944 I19:I25">
+    <cfRule type="expression" dxfId="360" priority="181">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C17:C19 C49:C65 C83:C941 C25:C47 C68 C15">
-    <cfRule type="expression" dxfId="332" priority="155">
+  <conditionalFormatting sqref="C1:C13 C20:C22 C52:C68 C86:C944 C28:C50 C71 C18">
+    <cfRule type="expression" dxfId="359" priority="182">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B17:B22 B25:B941 B15">
-    <cfRule type="expression" dxfId="331" priority="156">
+  <conditionalFormatting sqref="B1:B13 B20:B25 B28:B944 B18">
+    <cfRule type="expression" dxfId="358" priority="183">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13 A24:C24 A55:A941 A24:A53 A15:A22">
-    <cfRule type="cellIs" dxfId="330" priority="157" operator="equal">
+  <conditionalFormatting sqref="A1:A13 A27:C27 A58:A944 A27:A56 A18:A25">
+    <cfRule type="cellIs" dxfId="357" priority="184" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="329" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="356" priority="186" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="328" priority="160" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="355" priority="187" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="327" priority="161" operator="notEqual">
+    <cfRule type="cellIs" dxfId="354" priority="188" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="326" priority="162" operator="notEqual">
+    <cfRule type="cellIs" dxfId="353" priority="189" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="325" priority="163" operator="notEqual">
+    <cfRule type="cellIs" dxfId="352" priority="190" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="324" priority="164" operator="notEqual">
+    <cfRule type="cellIs" dxfId="351" priority="191" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="323" priority="165" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="350" priority="192" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="322" priority="166" operator="notEqual">
+    <cfRule type="cellIs" dxfId="349" priority="193" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="321" priority="167" operator="notEqual">
+    <cfRule type="cellIs" dxfId="348" priority="194" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="320" priority="168" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="347" priority="195" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="319" priority="169" operator="notEqual">
+    <cfRule type="cellIs" dxfId="346" priority="196" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="318" priority="170" operator="notEqual">
+    <cfRule type="cellIs" dxfId="345" priority="197" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H941 H1:H13 H15:H31">
-    <cfRule type="expression" dxfId="317" priority="171">
+  <conditionalFormatting sqref="H39:H944 H1:H13 H18:H34">
+    <cfRule type="expression" dxfId="344" priority="198">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54 K54:N54 A31:H31 A32:F35 F28:H30 A52:H53 C18:C19 I28:J41 A36:H42 K30:K41 L28:N41 A1:N13 A17:N17 A18:B22 A22:C22 A26:H27 A43:D46 A49:D51 I42:N53 A47:B48 D47:D48 F43:H49 D18:N22 A93:N941 I55:N63 A55:D63 F54:H63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 A25:D25 F25:H25 C47 C68 A15:N15 A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="316" priority="172">
+  <conditionalFormatting sqref="I57 K57:N57 A34:H34 A35:F38 F31:H33 A55:H56 C21:C22 I31:J44 A39:H45 K33:K44 L31:N44 A1:N13 A20:N20 A21:B25 A25:C25 A29:H30 A46:D49 A52:D54 I45:N56 A50:B51 D50:D51 F46:H52 D21:N25 A96:N944 I58:N66 A58:D66 F57:H66 A67:N68 D86:D90 E94:E95 A92:D95 F69:N95 J28:N30 A28:D28 F28:H28 C50 C71 A18:N18 A17:H17 J17:N17">
+    <cfRule type="expression" dxfId="343" priority="199">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="expression" dxfId="315" priority="174">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:J43 A43:D46 A49:D51 F49:J49 E44:J46 A55:D63 F55:J63 A64:J65 F91:N92 A91:D92 C47 F66:N67 C68 F70:N80">
-    <cfRule type="expression" dxfId="314" priority="175">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="313" priority="176">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:J43 A43:D46 A49:D51 E49:J49 E44:J46 A55:D63 F55:J63 A64:J65 F91:N92 A91:D92 C47 F66:N67 C68 F70:N80">
-    <cfRule type="expression" dxfId="312" priority="177">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="expression" dxfId="311" priority="180">
+  <conditionalFormatting sqref="E47:E49">
+    <cfRule type="expression" dxfId="342" priority="201">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:J46 A46:D49 A52:D54 F52:J52 E47:J49 A58:D66 F58:J66 A67:J68 F94:N95 A94:D95 C50 F69:N70 C71 F73:N83">
+    <cfRule type="expression" dxfId="341" priority="202">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="340" priority="203">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:J46 A46:D49 A52:D54 E52:J52 E47:J49 A58:D66 F58:J66 A67:J68 F94:N95 A94:D95 C50 F69:N70 C71 F73:N83">
+    <cfRule type="expression" dxfId="339" priority="204">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83">
+    <cfRule type="expression" dxfId="338" priority="207">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83">
+    <cfRule type="cellIs" dxfId="337" priority="208" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="expression" dxfId="336" priority="211">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K31 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31 E27">
+    <cfRule type="expression" dxfId="335" priority="212">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="expression" dxfId="334" priority="213">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K31 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31 E27">
+    <cfRule type="expression" dxfId="333" priority="214">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C22 C18 C28:C30">
+    <cfRule type="expression" dxfId="332" priority="215">
+      <formula>AND($C18 = "", $A18 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C22 C29:C30 C18">
+    <cfRule type="expression" dxfId="331" priority="216">
+      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C22 C29:C30 C18">
+    <cfRule type="expression" dxfId="330" priority="217">
+      <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31 F31:J33 A55:K56 A31:C33 F53:F54 H53:K54 B57:D57 F57:I57 K57">
+    <cfRule type="containsText" dxfId="329" priority="218" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C33 F53:F54 H53:H54 B57:D57">
+    <cfRule type="expression" dxfId="328" priority="219">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C33 F31:J33 F53:F54 H53:J54 B57:D57 F57:I57">
+    <cfRule type="expression" dxfId="327" priority="220">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31 F31:J33 A55:J56 A31:C33 F53:F54 H53:J54 B57:D57 F57:I57">
+    <cfRule type="cellIs" dxfId="326" priority="221" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="325" priority="224">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C33 F53:F54 H53:H54 B57:D57">
+    <cfRule type="expression" dxfId="324" priority="227">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C33 F31:J33 F53:F54 H53:J54 B57:D57 F57:I57">
+    <cfRule type="expression" dxfId="323" priority="228">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" dxfId="322" priority="241" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="321" priority="242" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="320" priority="249" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="319" priority="250">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="318" priority="251">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="317" priority="252" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="316" priority="253">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="315" priority="254">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E49">
+    <cfRule type="containsText" dxfId="314" priority="261" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E49">
+    <cfRule type="expression" dxfId="313" priority="262">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E49">
+    <cfRule type="cellIs" dxfId="312" priority="264" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="311" priority="271" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="310" priority="272" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="309" priority="273">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="308" priority="274">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="307" priority="275" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="306" priority="276">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="305" priority="277">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="304" priority="278" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="303" priority="279">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="302" priority="280">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="301" priority="281" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="300" priority="282">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="299" priority="283">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="298" priority="284" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="297" priority="285">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="296" priority="286">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="295" priority="299" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="294" priority="300">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="293" priority="301">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="292" priority="302" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="291" priority="303">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="290" priority="304">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="289" priority="311" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="288" priority="312">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="287" priority="313">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="286" priority="314" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="285" priority="315">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="284" priority="316">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="283" priority="323" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="282" priority="324">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="281" priority="325">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="280" priority="326" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="279" priority="327">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="278" priority="328">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="277" priority="329" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="276" priority="330">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="275" priority="331">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="274" priority="332" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="273" priority="333">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="272" priority="334">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" dxfId="271" priority="335" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="270" priority="336">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="269" priority="337">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="268" priority="338" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="267" priority="339">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="266" priority="340">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="265" priority="341" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="264" priority="342">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="263" priority="343">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="262" priority="344" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="261" priority="345">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="260" priority="346">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="containsText" dxfId="259" priority="347" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="258" priority="348">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="257" priority="349">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="256" priority="350" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="255" priority="351">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="254" priority="352">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="253" priority="353" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="252" priority="354">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="251" priority="355">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="250" priority="356" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="249" priority="357">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="248" priority="358">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" dxfId="247" priority="359" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="246" priority="360">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="245" priority="361">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="244" priority="362" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="243" priority="363">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="242" priority="364">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="241" priority="365" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="240" priority="366">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="cellIs" dxfId="310" priority="181" operator="equal">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="239" priority="367">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="238" priority="368" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="309" priority="184">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 E24">
-    <cfRule type="expression" dxfId="308" priority="185">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="307" priority="186">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 E24">
-    <cfRule type="expression" dxfId="306" priority="187">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19 C15 C25:C27">
-    <cfRule type="expression" dxfId="305" priority="188">
-      <formula>AND($C15 = "", $A15 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19 C26:C27 C15">
-    <cfRule type="expression" dxfId="304" priority="189">
-      <formula>AND($A15="end repeat", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19 C26:C27 C15">
-    <cfRule type="expression" dxfId="303" priority="190">
-      <formula>AND($A15="end group", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 F28:J30 A52:K53 A28:C30 F50:F51 H50:K51 B54:D54 F54:I54 K54">
-    <cfRule type="containsText" dxfId="302" priority="191" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F50:F51 H50:H51 B54:D54">
-    <cfRule type="expression" dxfId="301" priority="192">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F28:J30 F50:F51 H50:J51 B54:D54 F54:I54">
-    <cfRule type="expression" dxfId="300" priority="193">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 F28:J30 A52:J53 A28:C30 F50:F51 H50:J51 B54:D54 F54:I54">
-    <cfRule type="cellIs" dxfId="299" priority="194" operator="equal">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="237" priority="369">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="236" priority="370">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70 A73:D74 A71:B72 D71:D72 A76:D83 A75:B75 D75 A86:D90 A84:B85 D84:D85 A91:C91 C84">
+    <cfRule type="containsText" dxfId="235" priority="389" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70 A73:D74 A71:B72 D71:D72 A76:D83 A75:B75 D75 A86:D90 A84:B85 D84:D85 A91:C91 C84">
+    <cfRule type="expression" dxfId="234" priority="390">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70 A73:D74 A76:D83 A75:B75 D75 C84">
+    <cfRule type="expression" dxfId="233" priority="391">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70 A73:D74 A71:B72 D71:D72 A76:D83 A75:B75 D75 A86:D90 A84:B85 D84:D85 A91:C91 C84">
+    <cfRule type="cellIs" dxfId="232" priority="392" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="298" priority="197">
-      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F50:F51 H50:H51 B54:D54">
-    <cfRule type="expression" dxfId="297" priority="200">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F28:J30 F50:F51 H50:J51 B54:D54 F54:I54">
-    <cfRule type="expression" dxfId="296" priority="201">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="295" priority="214" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="294" priority="215" operator="equal">
+  <conditionalFormatting sqref="C69:C70 C73:C74 C76:C84">
+    <cfRule type="expression" dxfId="231" priority="394">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70 A73:D74 A71:B72 D71:D72 A76:D83 A75:B75 D75 A86:D90 A84:B85 D84:D85 A91:C91 C84">
+    <cfRule type="expression" dxfId="230" priority="398">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70 A73:D74 A76:D83 A75:B75 D75 C84">
+    <cfRule type="expression" dxfId="229" priority="399">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83">
+    <cfRule type="expression" dxfId="228" priority="405">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83 E94:E95">
+    <cfRule type="expression" dxfId="227" priority="406">
+      <formula>AND($E69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83 E94:E95">
+    <cfRule type="expression" dxfId="226" priority="407">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $E69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83 E94:E95">
+    <cfRule type="expression" dxfId="225" priority="408">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $E69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E73:E74 E76:E83">
+    <cfRule type="containsText" dxfId="224" priority="409" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="containsText" dxfId="223" priority="160" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="expression" dxfId="222" priority="161">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="expression" dxfId="221" priority="162">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="cellIs" dxfId="220" priority="163" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" dxfId="293" priority="222" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="292" priority="223">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="291" priority="224">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="290" priority="225" operator="equal">
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="expression" dxfId="219" priority="164">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="expression" dxfId="218" priority="165">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E33">
+    <cfRule type="containsText" dxfId="217" priority="166" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E33">
+    <cfRule type="expression" dxfId="216" priority="167">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="215" priority="168">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E33">
+    <cfRule type="cellIs" dxfId="214" priority="169" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="289" priority="226">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="288" priority="227">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="containsText" dxfId="287" priority="234" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="expression" dxfId="286" priority="235">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="cellIs" dxfId="285" priority="237" operator="equal">
+  <conditionalFormatting sqref="E31:E33">
+    <cfRule type="expression" dxfId="213" priority="170">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="212" priority="171">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="211" priority="172">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K31 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="210" priority="173">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", #REF! = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="209" priority="174">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K31 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="208" priority="175">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", #REF! = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="containsText" dxfId="207" priority="154" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="206" priority="155">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="205" priority="156">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="cellIs" dxfId="204" priority="157" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="284" priority="244" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="283" priority="245" operator="equal">
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="203" priority="158">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="202" priority="159">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="containsText" dxfId="201" priority="148" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="200" priority="149">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="199" priority="150">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="198" priority="151" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="282" priority="246">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="281" priority="247">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="280" priority="248" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="279" priority="249">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="278" priority="250">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="277" priority="251" operator="equal">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="197" priority="152">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="196" priority="153">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="containsText" dxfId="195" priority="141" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="194" priority="142">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="193" priority="143">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="192" priority="144" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="276" priority="252">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="275" priority="253">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="274" priority="254" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="273" priority="255">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="272" priority="256">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="271" priority="257" operator="equal">
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="191" priority="145" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="190" priority="146">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="189" priority="147">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="containsText" dxfId="188" priority="135" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="187" priority="136">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="186" priority="137">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="185" priority="138" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="270" priority="258">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="269" priority="259">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="267" priority="273">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="266" priority="274">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="265" priority="275" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="184" priority="139">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="183" priority="140">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:F38 I38:N38">
+    <cfRule type="expression" dxfId="182" priority="506">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", #REF! = "", #REF! = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:N37">
+    <cfRule type="expression" dxfId="181" priority="508">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G36 = "", $H36 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:F38 I38:N38">
+    <cfRule type="expression" dxfId="180" priority="520">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", #REF! = "", #REF! = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:N37">
+    <cfRule type="expression" dxfId="179" priority="522">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G36 = "", $H36 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="expression" dxfId="178" priority="129">
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="expression" dxfId="177" priority="130">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="expression" dxfId="176" priority="131">
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="expression" dxfId="175" priority="132">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="containsText" dxfId="174" priority="133" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="cellIs" dxfId="173" priority="134" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="264" priority="276">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="263" priority="277">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="262" priority="284" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="261" priority="285">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="260" priority="286">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="259" priority="287" operator="equal">
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="expression" dxfId="172" priority="122">
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="expression" dxfId="171" priority="123">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="expression" dxfId="170" priority="124">
+      <formula>AND(NOT($G36 = ""), $H36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="expression" dxfId="169" priority="125">
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="expression" dxfId="168" priority="126">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="containsText" dxfId="167" priority="127" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H38">
+    <cfRule type="cellIs" dxfId="166" priority="128" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="258" priority="288">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="257" priority="289">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="256" priority="296" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="255" priority="297">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="254" priority="298">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="253" priority="299" operator="equal">
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="165" priority="667">
+      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="164" priority="669">
+      <formula>AND($A21="end group", $B21 = "", $C23 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="163" priority="679">
+      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $C23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="162" priority="681">
+      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="161" priority="683">
+      <formula>AND($A21="end repeat", $B21 = "", $C23 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="160" priority="694">
+      <formula>AND($C23 = "", $A21 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="159" priority="696">
+      <formula>AND($A21="end repeat", $B21 = "", $C23 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $C23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="expression" dxfId="158" priority="698">
+      <formula>AND($A21="end group", $B21 = "", $C23 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $C23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="157" priority="942">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="156" priority="944">
+      <formula>AND($A23="end group", $B23 = "", $C27 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="155" priority="946">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="154" priority="948">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="153" priority="950">
+      <formula>AND($A23="end repeat", $B23 = "", $C27 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="152" priority="952">
+      <formula>AND($C27 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="151" priority="954">
+      <formula>AND($A23="end repeat", $B23 = "", $C27 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C27 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="150" priority="956">
+      <formula>AND($A23="end group", $B23 = "", $C27 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C27 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="149" priority="963">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="148" priority="969">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 D19:N19">
+    <cfRule type="expression" dxfId="147" priority="985">
+      <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 D19:N19">
+    <cfRule type="expression" dxfId="146" priority="1001">
+      <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="145" priority="1029">
+      <formula>AND($A23="end group", $B23 = "", $C19 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="144" priority="1030">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="143" priority="1031">
+      <formula>AND($A23="end repeat", $B23 = "", $C19 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="142" priority="1032">
+      <formula>AND($C19 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="141" priority="1033">
+      <formula>AND($A23="end repeat", $B23 = "", $C19 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C19 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="140" priority="1034">
+      <formula>AND($A23="end group", $B23 = "", $C19 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C19 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="139" priority="101" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="138" priority="99" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="137" priority="100" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="252" priority="300">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="251" priority="301">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="250" priority="302" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="249" priority="303">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="248" priority="304">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="247" priority="305" operator="equal">
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="136" priority="102">
+      <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="135" priority="103">
+      <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="containsText" dxfId="134" priority="92" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="cellIs" dxfId="133" priority="94" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="cellIs" dxfId="132" priority="93" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="246" priority="306">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="245" priority="307">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="244" priority="308" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="243" priority="309">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="242" priority="310">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="241" priority="311" operator="equal">
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="expression" dxfId="131" priority="1053">
+      <formula>AND($A23="end group", $B23 = "", $C28 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="expression" dxfId="130" priority="1054">
+      <formula>AND($A23="end repeat", $B23 = "", $C28 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="129" priority="1058">
+      <formula>AND($A27="begin group", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27 D27:N27">
+    <cfRule type="expression" dxfId="128" priority="1059">
+      <formula>AND(#REF!="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="127" priority="1062">
+      <formula>AND($I26 = "", $A27 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="126" priority="1063">
+      <formula>AND($I27 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="125" priority="1065">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="124" priority="1069">
+      <formula>AND($A27="begin repeat", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27 D27:N27">
+    <cfRule type="expression" dxfId="123" priority="1070">
+      <formula>AND(#REF!="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="122" priority="1084">
+      <formula>AND($A27="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:N26">
+    <cfRule type="expression" dxfId="121" priority="1085">
+      <formula>AND($A27="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="120" priority="1086">
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C19">
+    <cfRule type="expression" dxfId="119" priority="1087">
+      <formula>AND($A27="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:N26">
+    <cfRule type="expression" dxfId="118" priority="1088">
+      <formula>AND($A27="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="117" priority="87">
+      <formula>AND($A27="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="116" priority="88">
+      <formula>AND($A27="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="115" priority="85">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="114" priority="86">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="expression" dxfId="113" priority="83">
+      <formula>AND($A27="begin group", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="expression" dxfId="112" priority="84">
+      <formula>AND($A27="begin repeat", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="expression" dxfId="111" priority="81">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="expression" dxfId="110" priority="82">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="109" priority="1106">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E27 = "", $F28 = "", $G28 = "", $H28 = "", $C28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="108" priority="1108">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E27 = "", $F28 = "", $G28 = "", $H28 = "", $C28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B51 F50:J51">
+    <cfRule type="expression" dxfId="107" priority="1143">
+      <formula>AND($A50="end group", $B50 = "", #REF! = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="106" priority="1168">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="105" priority="1169">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="104" priority="1183">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="103" priority="1184">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C51 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="102" priority="1185">
+      <formula>AND(#REF!="end group", #REF! = "", $C51 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="containsText" dxfId="101" priority="75" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="cellIs" dxfId="100" priority="76" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="240" priority="312">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="239" priority="313">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="238" priority="314" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="237" priority="315">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="236" priority="316">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="235" priority="317" operator="equal">
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="expression" dxfId="99" priority="77">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="expression" dxfId="98" priority="78">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="expression" dxfId="97" priority="79">
+      <formula>AND(#REF!="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51">
+    <cfRule type="expression" dxfId="96" priority="80">
+      <formula>AND(#REF!="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B944 B2:B13 A19 C19 A27:C27 B18:B25">
+    <cfRule type="expression" dxfId="95" priority="1200">
+      <formula>COUNTIF($B$2:$B$952,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72 C85">
+    <cfRule type="expression" dxfId="94" priority="70">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72 C85">
+    <cfRule type="expression" dxfId="93" priority="71">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="92" priority="72">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="91" priority="73">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C72 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72 C85">
+    <cfRule type="expression" dxfId="90" priority="74">
+      <formula>AND(#REF!="end group", #REF! = "", $C72 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="containsText" dxfId="89" priority="62" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="cellIs" dxfId="88" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="234" priority="318">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="233" priority="319">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="232" priority="320" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="231" priority="321">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="230" priority="322">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="229" priority="323" operator="equal">
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="expression" dxfId="87" priority="64">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="expression" dxfId="86" priority="65">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="expression" dxfId="85" priority="66">
+      <formula>AND(#REF!="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="expression" dxfId="84" priority="67">
+      <formula>AND(#REF!="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="containsText" dxfId="83" priority="57" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" dxfId="82" priority="58">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="228" priority="324">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="227" priority="325">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="226" priority="326" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="225" priority="327">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="224" priority="328">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="223" priority="329" operator="equal">
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" dxfId="80" priority="60">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" dxfId="79" priority="61">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="78" priority="53" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="77" priority="54">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="76" priority="55" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="222" priority="330">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="221" priority="331">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="220" priority="332" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="219" priority="333">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="218" priority="334">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="217" priority="335" operator="equal">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="75" priority="56">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="74" priority="50">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="73" priority="51">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="containsText" dxfId="72" priority="40" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="cellIs" dxfId="71" priority="41" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="216" priority="336">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="215" priority="337">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="214" priority="338" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="213" priority="339">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="212" priority="340">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="211" priority="341" operator="equal">
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="70" priority="42">
+      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="69" priority="43">
+      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="68" priority="44">
+      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="67" priority="45">
+      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:N93 A86:C93">
+    <cfRule type="expression" dxfId="66" priority="1272">
+      <formula>AND($A86="end group", $B86 = "", $C86 = "", #REF! = "", $D86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:N93 A86:C93">
+    <cfRule type="expression" dxfId="65" priority="1277">
+      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", #REF! = "", $D86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D90 D92:D93">
+    <cfRule type="expression" dxfId="64" priority="1283">
+      <formula>AND($D86 = "", $A86 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D90 D92:D93">
+    <cfRule type="expression" dxfId="63" priority="1285">
+      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", #REF! = "", $D86 = "", $F86 = "", $G86 = "", $H86 = "", $D86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D90 D92:D93">
+    <cfRule type="expression" dxfId="62" priority="1287">
+      <formula>AND($A86="end group", $B86 = "", $C86 = "", #REF! = "", $D86 = "", $F86 = "", $G86 = "", $H86 = "", $D86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35 B28:B95">
+    <cfRule type="expression" dxfId="61" priority="1340">
+      <formula>COUNTIF($B$2:$B$991,B28)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:F90">
+    <cfRule type="expression" dxfId="60" priority="38">
+      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:F90">
+    <cfRule type="expression" dxfId="59" priority="39">
+      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="58" priority="1346">
+      <formula>AND($A25="end group", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="57" priority="1348">
+      <formula>AND($A25="end repeat", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="56" priority="1388">
+      <formula>AND($A27="end group", $B19 = "", $C31 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="55" priority="1389">
+      <formula>AND($A27="end repeat", $B19 = "", $C31 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="54" priority="1390">
+      <formula>AND($A36="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="53" priority="1391">
+      <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $B27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="52" priority="1392">
+      <formula>AND($A36="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="51" priority="1395">
+      <formula>AND(#REF!="end group", $B27 = "", $C31 = "", $D27 = "", #REF! = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="50" priority="1396">
+      <formula>AND(#REF!="end repeat", $B27 = "", $C31 = "", $D27 = "", #REF! = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="49" priority="1403">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$953, "begin group") = COUNTIF($A$1:$A$953, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="48" priority="1404">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$944, "begin group") = COUNTIF($A$1:$A$953, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51 F72:N72 A72:B72 D72 F85:N85 A85:B85 D85">
+    <cfRule type="expression" dxfId="47" priority="1410">
+      <formula>AND($A51="end group", $B51 = "", #REF! = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50 F71:N71 A71:B71 D71 F84:N84 A84:B84 D84">
+    <cfRule type="expression" dxfId="46" priority="1411">
+      <formula>AND($A50="end group", $B50 = "", $C51 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:N71 A71:B71 D71 F84:N84 A84:B84 D84">
+    <cfRule type="expression" dxfId="45" priority="1414">
+      <formula>AND($A71="end repeat", $B71 = "", $C72 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:N72 A72:B72 D72 F85:N85 A85:B85 D85">
+    <cfRule type="expression" dxfId="44" priority="1415">
+      <formula>AND($A72="end repeat", $B72 = "", #REF! = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="43" priority="32">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="42" priority="33">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="40" priority="35">
+      <formula>AND(NOT($G17 = ""), $H17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="39" priority="37">
+      <formula>COUNTIF($B$2:$B$952,B17)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="38" priority="1422">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="37" priority="1425">
+      <formula>AND($I18 = "", $A17 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="36" priority="1427">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="34" priority="25">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="210" priority="342">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="209" priority="343">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="containsText" dxfId="208" priority="362" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="expression" dxfId="207" priority="363">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A73:D80 A72:B72 D72 C81">
-    <cfRule type="expression" dxfId="206" priority="364">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="cellIs" dxfId="205" priority="365" operator="equal">
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="32" priority="27">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="31" priority="19">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="30" priority="20">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="28" priority="22">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="27" priority="23">
+      <formula>COUNTIF($B$2:$B$952,B14)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="25" priority="16">
+      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C67 C70:C71 C73:C81">
-    <cfRule type="expression" dxfId="204" priority="367">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="expression" dxfId="203" priority="371">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A73:D80 A72:B72 D72 C81">
-    <cfRule type="expression" dxfId="202" priority="372">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="expression" dxfId="201" priority="378">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80 E91:E92">
-    <cfRule type="expression" dxfId="200" priority="379">
-      <formula>AND($E66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80 E91:E92">
-    <cfRule type="expression" dxfId="199" priority="380">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $E66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80 E91:E92">
-    <cfRule type="expression" dxfId="198" priority="381">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $E66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="containsText" dxfId="197" priority="382" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="containsText" dxfId="196" priority="133" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="195" priority="134">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="194" priority="135">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="cellIs" dxfId="193" priority="136" operator="equal">
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>COUNTIF($B$2:$B$952,B15)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="192" priority="137">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="191" priority="138">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="containsText" dxfId="190" priority="139" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="expression" dxfId="189" priority="140">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="188" priority="141">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="187" priority="142" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="expression" dxfId="186" priority="143">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="185" priority="144">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="184" priority="145">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="183" priority="146">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", #REF! = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="182" priority="147">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="181" priority="148">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", #REF! = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="180" priority="127" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="179" priority="128">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="178" priority="129">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="177" priority="130" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="176" priority="131">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="175" priority="132">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="174" priority="121" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="173" priority="122">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="172" priority="123">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="171" priority="124" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="170" priority="125">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="169" priority="126">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="168" priority="114" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="167" priority="115">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="166" priority="116">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="165" priority="117" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="164" priority="118" operator="equal">
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="163" priority="119">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="162" priority="120">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="161" priority="108" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="160" priority="109">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="159" priority="110">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="cellIs" dxfId="158" priority="111" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="157" priority="112">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="156" priority="113">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35 I35:N35">
-    <cfRule type="expression" dxfId="155" priority="479">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", #REF! = "", #REF! = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:N34">
-    <cfRule type="expression" dxfId="154" priority="481">
-      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G33 = "", $H33 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35 I35:N35">
-    <cfRule type="expression" dxfId="153" priority="493">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", #REF! = "", #REF! = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:N34">
-    <cfRule type="expression" dxfId="152" priority="495">
-      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G33 = "", $H33 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="151" priority="102">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="150" priority="103">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="149" priority="104">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="148" priority="105">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="containsText" dxfId="147" priority="106" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="cellIs" dxfId="146" priority="107" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="145" priority="95">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="144" priority="96">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="143" priority="97">
-      <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="142" priority="98">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="141" priority="99">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="containsText" dxfId="140" priority="100" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="cellIs" dxfId="139" priority="101" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="138" priority="640">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="137" priority="642">
-      <formula>AND($A18="end group", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="136" priority="652">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="135" priority="654">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="134" priority="656">
-      <formula>AND($A18="end repeat", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="133" priority="667">
-      <formula>AND($C20 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="132" priority="669">
-      <formula>AND($A18="end repeat", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="131" priority="671">
-      <formula>AND($A18="end group", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="130" priority="915">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="129" priority="917">
-      <formula>AND($A20="end group", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="128" priority="919">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="127" priority="921">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="126" priority="923">
-      <formula>AND($A20="end repeat", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="125" priority="925">
-      <formula>AND($C24 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="124" priority="927">
-      <formula>AND($A20="end repeat", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C24 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="123" priority="929">
-      <formula>AND($A20="end group", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C24 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="122" priority="936">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="121" priority="942">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16 D16:N16">
-    <cfRule type="expression" dxfId="120" priority="958">
-      <formula>AND($A16="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16 D16:N16">
-    <cfRule type="expression" dxfId="119" priority="974">
-      <formula>AND($A16="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="118" priority="1002">
-      <formula>AND($A20="end group", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="117" priority="1003">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="116" priority="1004">
-      <formula>AND($A20="end repeat", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="115" priority="1005">
-      <formula>AND($C16 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="114" priority="1006">
-      <formula>AND($A20="end repeat", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C16 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="113" priority="1007">
-      <formula>AND($A20="end group", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C16 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="112" priority="74" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="111" priority="72" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="110" priority="73" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="109" priority="75">
-      <formula>AND($A16="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="108" priority="76">
-      <formula>AND($A16="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="107" priority="65" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="106" priority="67" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="105" priority="66" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
-    <cfRule type="expression" dxfId="104" priority="1026">
-      <formula>AND($A20="end group", $B20 = "", $C25 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
-    <cfRule type="expression" dxfId="103" priority="1027">
-      <formula>AND($A20="end repeat", $B20 = "", $C25 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="102" priority="1031">
-      <formula>AND($A24="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 D24:N24">
-    <cfRule type="expression" dxfId="101" priority="1032">
-      <formula>AND(#REF!="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="100" priority="1035">
-      <formula>AND($I23 = "", $A24 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="99" priority="1036">
-      <formula>AND($I24 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="98" priority="1038">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="97" priority="1042">
-      <formula>AND($A24="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 D24:N24">
-    <cfRule type="expression" dxfId="96" priority="1043">
-      <formula>AND(#REF!="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="95" priority="1057">
-      <formula>AND($A24="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:N23">
-    <cfRule type="expression" dxfId="94" priority="1058">
-      <formula>AND($A24="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="93" priority="1059">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="92" priority="1060">
-      <formula>AND($A24="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:N23">
-    <cfRule type="expression" dxfId="91" priority="1061">
-      <formula>AND($A24="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="90" priority="60">
-      <formula>AND($A24="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="89" priority="61">
-      <formula>AND($A24="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="88" priority="58">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="87" priority="59">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="86" priority="56">
-      <formula>AND($A24="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="85" priority="57">
-      <formula>AND($A24="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="84" priority="54">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="83" priority="55">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="82" priority="1079">
-      <formula>AND($A25="end repeat", $B25 = "", $C25 = "", $D25 = "", $E24 = "", $F25 = "", $G25 = "", $H25 = "", $C25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="81" priority="1081">
-      <formula>AND($A25="end group", $B25 = "", $C25 = "", $D25 = "", $E24 = "", $F25 = "", $G25 = "", $H25 = "", $C25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B48 F47:J48">
-    <cfRule type="expression" dxfId="80" priority="1116">
-      <formula>AND($A47="end group", $B47 = "", #REF! = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="79" priority="1141">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="78" priority="1142">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="77" priority="1156">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="76" priority="1157">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C48 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="75" priority="1158">
-      <formula>AND(#REF!="end group", #REF! = "", $C48 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="containsText" dxfId="74" priority="48" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="72" priority="50">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="71" priority="51">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="70" priority="52">
-      <formula>AND(#REF!="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="69" priority="53">
-      <formula>AND(#REF!="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B941 B2:B13 A16 C16 A24:C24 B15:B22">
-    <cfRule type="expression" dxfId="68" priority="1173">
-      <formula>COUNTIF($B$2:$B$949,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69 C82">
-    <cfRule type="expression" dxfId="67" priority="43">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69 C82">
-    <cfRule type="expression" dxfId="66" priority="44">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="65" priority="45">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="64" priority="46">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C69 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69 C82">
-    <cfRule type="expression" dxfId="63" priority="47">
-      <formula>AND(#REF!="end group", #REF! = "", $C69 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="60" priority="37">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="59" priority="38">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="58" priority="39">
-      <formula>AND(#REF!="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="57" priority="40">
-      <formula>AND(#REF!="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="56" priority="30" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="55" priority="31">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="53" priority="33">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="52" priority="34">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="50" priority="27">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="48" priority="29">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="46" priority="24">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C82 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="43" priority="15">
-      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="42" priority="16">
-      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="41" priority="17">
-      <formula>AND(#REF!="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="40" priority="18">
-      <formula>AND(#REF!="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:N90 A83:C90">
-    <cfRule type="expression" dxfId="39" priority="1245">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:N90 A83:C90">
-    <cfRule type="expression" dxfId="38" priority="1250">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87 D89:D90">
-    <cfRule type="expression" dxfId="37" priority="1256">
-      <formula>AND($D83 = "", $A83 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87 D89:D90">
-    <cfRule type="expression" dxfId="36" priority="1258">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $D83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87 D89:D90">
-    <cfRule type="expression" dxfId="35" priority="1260">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $D83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32 B25:B92">
-    <cfRule type="expression" dxfId="34" priority="1313">
-      <formula>COUNTIF($B$2:$B$988,B25)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F87">
-    <cfRule type="expression" dxfId="33" priority="11">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F87">
-    <cfRule type="expression" dxfId="32" priority="12">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="31" priority="1319">
-      <formula>AND($A22="end group", $B22 = "", $C28 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="30" priority="1321">
-      <formula>AND($A22="end repeat", $B22 = "", $C28 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="29" priority="1361">
-      <formula>AND($A24="end group", $B16 = "", $C28 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="28" priority="1362">
-      <formula>AND($A24="end repeat", $B16 = "", $C28 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="27" priority="1363">
-      <formula>AND($A33="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="26" priority="1364">
-      <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $B24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="25" priority="1365">
-      <formula>AND($A33="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="24" priority="1368">
-      <formula>AND(#REF!="end group", $B24 = "", $C28 = "", $D24 = "", #REF! = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="23" priority="1369">
-      <formula>AND(#REF!="end repeat", $B24 = "", $C28 = "", $D24 = "", #REF! = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="22" priority="1376">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$950, "begin group") = COUNTIF($A$1:$A$950, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="21" priority="1377">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$941, "begin group") = COUNTIF($A$1:$A$950, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48 F69:N69 A69:B69 D69 F82:N82 A82:B82 D82">
-    <cfRule type="expression" dxfId="20" priority="1383">
-      <formula>AND($A48="end group", $B48 = "", #REF! = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47 F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
-    <cfRule type="expression" dxfId="19" priority="1384">
-      <formula>AND($A47="end group", $B47 = "", $C48 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
-    <cfRule type="expression" dxfId="18" priority="1387">
-      <formula>AND($A68="end repeat", $B68 = "", $C69 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:N69 A69:B69 D69 F82:N82 A82:B82 D82">
-    <cfRule type="expression" dxfId="17" priority="1388">
-      <formula>AND($A69="end repeat", $B69 = "", #REF! = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>COUNTIF($B$2:$B$949,B14)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="1395">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="1" priority="1398">
-      <formula>AND($I15 = "", $A14 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="0" priority="1400">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF($B$2:$B$952,B16)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D98" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D101" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16021,45 +16474,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="5" priority="362">
+    <cfRule type="expression" dxfId="11" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="4" priority="363">
+    <cfRule type="expression" dxfId="10" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="3" priority="773">
+    <cfRule type="expression" dxfId="9" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16125,7 +16578,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44477.482190046299</v>
+        <v>44477.528468402779</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiplangatvictor/Documents/Visortech/Bodaboda/config-boda-moh-ke-master/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7D24A-E9F3-424C-AED5-095FEB905827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EDDA18-D4E7-4943-858C-E70A594C5106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="559">
   <si>
     <t>type</t>
   </si>
@@ -1704,6 +1704,18 @@
   </si>
   <si>
     <t>${phone}</t>
+  </si>
+  <si>
+    <t>patient_age</t>
+  </si>
+  <si>
+    <t>${age_years}</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>${dob_calendar}</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1964,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="364">
+  <dxfs count="373">
     <dxf>
       <fill>
         <patternFill>
@@ -1961,6 +1973,33 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -1969,10 +2008,64 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
@@ -2039,6 +2132,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -2049,16 +2149,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2074,11 +2164,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5870,13 +5960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N944"/>
+  <dimension ref="A1:N946"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6300,20 +6390,20 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>467</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" t="s">
+        <v>558</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -6322,20 +6412,22 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" t="s">
+        <v>556</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -6347,10 +6439,10 @@
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -6366,21 +6458,17 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -6395,15 +6483,13 @@
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>486</v>
+        <v>472</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>475</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -6419,17 +6505,15 @@
         <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>476</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
@@ -6442,19 +6526,19 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>546</v>
+        <v>474</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6467,14 +6551,24 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -6484,9 +6578,20 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -6498,19 +6603,13 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>484</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -6522,20 +6621,12 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -6543,27 +6634,23 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -6572,16 +6659,15 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>535</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -6592,150 +6678,152 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>535</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>238</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="10"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
-        <v>240</v>
+      <c r="K33" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>38</v>
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>40</v>
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="I35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
+      <c r="A36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -6744,26 +6832,18 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>45</v>
+      <c r="A37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>463</v>
-      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -6776,12 +6856,14 @@
         <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="29" t="s">
@@ -6798,23 +6880,27 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>1</v>
+      <c r="A39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G39" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -6822,23 +6908,25 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>49</v>
+      <c r="A40" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="3" t="s">
-        <v>547</v>
-      </c>
+      <c r="G40" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -6846,25 +6934,23 @@
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>53</v>
+      <c r="A41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -6872,25 +6958,23 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>55</v>
+      <c r="A42" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -6899,25 +6983,23 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -6927,27 +7009,23 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -6957,21 +7035,25 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -6981,21 +7063,27 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -7004,18 +7092,20 @@
       <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>29</v>
+      <c r="A47" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7026,14 +7116,20 @@
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7044,9 +7140,15 @@
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="17"/>
@@ -7061,18 +7163,12 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>539</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="17"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -7083,16 +7179,10 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>77</v>
-      </c>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="17"/>
@@ -7106,20 +7196,20 @@
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>78</v>
+      <c r="A52" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E52" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F52" s="17"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7129,132 +7219,124 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>72</v>
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I56" s="7"/>
-      <c r="J56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -7263,9 +7345,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -7273,23 +7353,27 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>537</v>
+        <v>228</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="J58" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -7297,23 +7381,27 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>480</v>
+        <v>229</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -7324,21 +7412,21 @@
         <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>537</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -7348,10 +7436,10 @@
         <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>95</v>
+        <v>480</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>44</v>
@@ -7367,63 +7455,65 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -7437,21 +7527,17 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -7466,10 +7552,10 @@
         <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>66</v>
@@ -7487,16 +7573,16 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>488</v>
+        <v>102</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>489</v>
+        <v>103</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -7513,11 +7599,17 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -7531,17 +7623,21 @@
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>106</v>
+        <v>488</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -7552,7 +7648,9 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -7569,18 +7667,16 @@
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>490</v>
+        <v>106</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>541</v>
+        <v>39</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -7591,16 +7687,10 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>491</v>
-      </c>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7614,90 +7704,86 @@
       <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="31" t="s">
-        <v>510</v>
-      </c>
+      <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="31" t="s">
-        <v>511</v>
-      </c>
+      <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32" t="s">
-        <v>49</v>
+        <v>492</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>493</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="31" t="s">
-        <v>513</v>
-      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="K75" s="31" t="s">
+        <v>510</v>
+      </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32" t="s">
-        <v>29</v>
+        <v>492</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>44</v>
@@ -7709,32 +7795,30 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32" t="s">
-        <v>492</v>
+        <v>49</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="I77" s="31" t="s">
+        <v>513</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -7743,13 +7827,13 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32" t="s">
-        <v>492</v>
+        <v>29</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>44</v>
@@ -7760,20 +7844,24 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="K78" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="N78" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>44</v>
@@ -7791,13 +7879,13 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>44</v>
@@ -7818,10 +7906,10 @@
         <v>62</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>44</v>
@@ -7839,11 +7927,17 @@
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -7856,10 +7950,18 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -7872,19 +7974,13 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>543</v>
-      </c>
+      <c r="A84" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -7895,16 +7991,10 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>515</v>
-      </c>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -7918,21 +8008,20 @@
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>5